--- a/Pruebas/Mu1.xlsx
+++ b/Pruebas/Mu1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NP1"/>
+  <dimension ref="A1:ND1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,1144 +423,1108 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>-0.04604384983717733</v>
       </c>
       <c r="B1" t="n">
-        <v>0</v>
+        <v>0.1629224531208368</v>
       </c>
       <c r="C1" t="n">
-        <v>3.03634199372962e-193</v>
+        <v>-0.09520613407390045</v>
       </c>
       <c r="D1" t="n">
-        <v>0.2341428720893578</v>
+        <v>-0.1210546174982585</v>
       </c>
       <c r="E1" t="n">
-        <v>0.2341428720893578</v>
+        <v>-0.1176172177532265</v>
       </c>
       <c r="F1" t="n">
-        <v>0.2742076329166999</v>
+        <v>0.3073784644060485</v>
       </c>
       <c r="G1" t="n">
-        <v>0.288165514908476</v>
+        <v>-0.1856410894459289</v>
       </c>
       <c r="H1" t="n">
-        <v>0.3466667375399661</v>
+        <v>-0.2185253202521298</v>
       </c>
       <c r="I1" t="n">
-        <v>0.3466424186688856</v>
+        <v>-0.1254129322919039</v>
       </c>
       <c r="J1" t="n">
-        <v>0.3466423549785919</v>
+        <v>0.427676607795942</v>
       </c>
       <c r="K1" t="n">
-        <v>0.352107227772825</v>
+        <v>-0.2077714202691104</v>
       </c>
       <c r="L1" t="n">
-        <v>0.3804334867023397</v>
+        <v>-0.2440893404642614</v>
       </c>
       <c r="M1" t="n">
-        <v>0.387136707883268</v>
+        <v>-0.1093682338358079</v>
       </c>
       <c r="N1" t="n">
-        <v>0.3871341183038982</v>
+        <v>0.5606285623307898</v>
       </c>
       <c r="O1" t="n">
-        <v>0.4364132150291169</v>
+        <v>-0.214235744338021</v>
       </c>
       <c r="P1" t="n">
-        <v>0.5113570497092987</v>
+        <v>-0.2534410126531726</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.5033737423887175</v>
+        <v>-0.09164596872310707</v>
       </c>
       <c r="R1" t="n">
-        <v>0.5033683873314373</v>
+        <v>0.8245476677231928</v>
       </c>
       <c r="S1" t="n">
-        <v>0.5926130213929457</v>
+        <v>-0.2188982536245931</v>
       </c>
       <c r="T1" t="n">
-        <v>0.8619644660811967</v>
+        <v>-0.2584923718693982</v>
       </c>
       <c r="U1" t="n">
-        <v>0.8074347956368451</v>
+        <v>-0.05974106009462134</v>
       </c>
       <c r="V1" t="n">
-        <v>0.8074433229164775</v>
+        <v>1.148031292297303</v>
       </c>
       <c r="W1" t="n">
-        <v>0.9089755148430754</v>
+        <v>-0.2097435658089082</v>
       </c>
       <c r="X1" t="n">
-        <v>1.075171692151799</v>
+        <v>-0.243677564515153</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.046606088421946</v>
+        <v>-0.03505814679131158</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.046781261231996</v>
+        <v>1.448502402780611</v>
       </c>
       <c r="AA1" t="n">
-        <v>1.181521932414043</v>
+        <v>-0.2040678371199573</v>
       </c>
       <c r="AB1" t="n">
-        <v>1.455351116620122</v>
+        <v>-0.2389544114649681</v>
       </c>
       <c r="AC1" t="n">
-        <v>1.32970568226159</v>
+        <v>-0.02687804807004357</v>
       </c>
       <c r="AD1" t="n">
-        <v>1.329767801646725</v>
+        <v>1.923620861075887</v>
       </c>
       <c r="AE1" t="n">
-        <v>1.421479867136993</v>
+        <v>-0.1969867949017425</v>
       </c>
       <c r="AF1" t="n">
-        <v>1.435103767663951</v>
+        <v>-0.2106946483366316</v>
       </c>
       <c r="AG1" t="n">
-        <v>1.324324049066174</v>
+        <v>0.005009230073079428</v>
       </c>
       <c r="AH1" t="n">
-        <v>1.324598295269875</v>
+        <v>2.486984259087734</v>
       </c>
       <c r="AI1" t="n">
-        <v>1.349987631064957</v>
+        <v>-0.1644721595637895</v>
       </c>
       <c r="AJ1" t="n">
-        <v>1.328019416205168</v>
+        <v>-0.1965181508239791</v>
       </c>
       <c r="AK1" t="n">
-        <v>1.171301237587727</v>
+        <v>0.03732694359697283</v>
       </c>
       <c r="AL1" t="n">
-        <v>1.172150602489221</v>
+        <v>2.930350073305025</v>
       </c>
       <c r="AM1" t="n">
-        <v>1.16826276648205</v>
+        <v>-0.152375329647223</v>
       </c>
       <c r="AN1" t="n">
-        <v>1.136597280579961</v>
+        <v>-0.1852964504428393</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.9170666939360187</v>
+        <v>0.03800226887692199</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.9173648918622307</v>
+        <v>3.191299949521137</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.9021873168736186</v>
+        <v>-0.1566945985091372</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.8650612973502519</v>
+        <v>-0.1741593632407029</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.67111185697012</v>
+        <v>0.05012046865523543</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.6721772024413466</v>
+        <v>3.259647705690361</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.6474541221751002</v>
+        <v>-0.1511315533468411</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.6301855352375907</v>
+        <v>-0.1598660774620002</v>
       </c>
       <c r="AW1" t="n">
-        <v>1.013034626762357</v>
+        <v>0.04573645823890963</v>
       </c>
       <c r="AX1" t="n">
-        <v>1.026573827321681</v>
+        <v>3.158603911218313</v>
       </c>
       <c r="AY1" t="n">
-        <v>1.039759136974029</v>
+        <v>-0.1760009149327316</v>
       </c>
       <c r="AZ1" t="n">
-        <v>1.051276186989064</v>
+        <v>-0.1551914473809735</v>
       </c>
       <c r="BA1" t="n">
-        <v>1.275987025183015</v>
+        <v>0.0977208889743614</v>
       </c>
       <c r="BB1" t="n">
-        <v>1.287838102382636</v>
+        <v>2.931492253129099</v>
       </c>
       <c r="BC1" t="n">
-        <v>1.444984078768675</v>
+        <v>-0.1609500181555656</v>
       </c>
       <c r="BD1" t="n">
-        <v>1.493978778075618</v>
+        <v>-0.1285750903936655</v>
       </c>
       <c r="BE1" t="n">
-        <v>1.768543819209709</v>
+        <v>0.07004212628531346</v>
       </c>
       <c r="BF1" t="n">
-        <v>1.804375391322463</v>
+        <v>2.585490505182011</v>
       </c>
       <c r="BG1" t="n">
-        <v>2.454670234200379</v>
+        <v>-0.1493965338885137</v>
       </c>
       <c r="BH1" t="n">
-        <v>2.701149153306136</v>
+        <v>-0.1088027631140418</v>
       </c>
       <c r="BI1" t="n">
-        <v>2.92901674758117</v>
+        <v>0.07642423518171934</v>
       </c>
       <c r="BJ1" t="n">
-        <v>2.962320213699077</v>
+        <v>2.188451535153374</v>
       </c>
       <c r="BK1" t="n">
-        <v>3.790240275132363</v>
+        <v>-0.1364491277700013</v>
       </c>
       <c r="BL1" t="n">
-        <v>4.865125562645179</v>
+        <v>-0.07709855318890221</v>
       </c>
       <c r="BM1" t="n">
-        <v>4.797273047190409</v>
+        <v>0.04647349095697246</v>
       </c>
       <c r="BN1" t="n">
-        <v>4.799402644222422</v>
+        <v>1.79956447939024</v>
       </c>
       <c r="BO1" t="n">
-        <v>5.114502757721433</v>
+        <v>-0.1088548331368028</v>
       </c>
       <c r="BP1" t="n">
-        <v>5.887150221615818</v>
+        <v>-0.0345356740939011</v>
       </c>
       <c r="BQ1" t="n">
-        <v>5.341315400897882</v>
+        <v>0.02541243580525896</v>
       </c>
       <c r="BR1" t="n">
-        <v>5.340423138690684</v>
+        <v>1.440310364067805</v>
       </c>
       <c r="BS1" t="n">
-        <v>5.036909230679139</v>
+        <v>-0.0939845327495558</v>
       </c>
       <c r="BT1" t="n">
-        <v>5.161943087404453</v>
+        <v>0.002585863454013811</v>
       </c>
       <c r="BU1" t="n">
-        <v>4.388274318098157</v>
+        <v>0.009255103100326741</v>
       </c>
       <c r="BV1" t="n">
-        <v>4.382746800855317</v>
+        <v>1.129974453841338</v>
       </c>
       <c r="BW1" t="n">
-        <v>4.066703637619009</v>
+        <v>-0.07738359760927779</v>
       </c>
       <c r="BX1" t="n">
-        <v>4.060107198413185</v>
+        <v>0.04357316311634803</v>
       </c>
       <c r="BY1" t="n">
-        <v>2.630778419759793</v>
+        <v>0.003018755625419643</v>
       </c>
       <c r="BZ1" t="n">
-        <v>2.63203277397003</v>
+        <v>0.8624333983878105</v>
       </c>
       <c r="CA1" t="n">
-        <v>2.486000992912544</v>
+        <v>-0.05906660133005556</v>
       </c>
       <c r="CB1" t="n">
-        <v>2.454732340464794</v>
+        <v>0.1361686548487793</v>
       </c>
       <c r="CC1" t="n">
-        <v>1.79076609237751</v>
+        <v>0.000186265391456564</v>
       </c>
       <c r="CD1" t="n">
-        <v>1.796143570304859</v>
+        <v>0.6269499413023081</v>
       </c>
       <c r="CE1" t="n">
-        <v>1.814554376356393</v>
+        <v>-0.04635598477664161</v>
       </c>
       <c r="CF1" t="n">
-        <v>1.820322078871517</v>
+        <v>0.1817142604128362</v>
       </c>
       <c r="CG1" t="n">
-        <v>1.106126565256773</v>
+        <v>-0.002678688384894878</v>
       </c>
       <c r="CH1" t="n">
-        <v>1.108730922115381</v>
+        <v>0.5483686389504977</v>
       </c>
       <c r="CI1" t="n">
-        <v>1.151809384278455</v>
+        <v>-0.01128244327723647</v>
       </c>
       <c r="CJ1" t="n">
-        <v>1.195334540943235</v>
+        <v>0.302859943144885</v>
       </c>
       <c r="CK1" t="n">
-        <v>0.8295804155852187</v>
+        <v>-0.0109946932806752</v>
       </c>
       <c r="CL1" t="n">
-        <v>0.8302637743087036</v>
+        <v>0.4682225627480883</v>
       </c>
       <c r="CM1" t="n">
-        <v>0.873688641398253</v>
+        <v>0.009705923713646897</v>
       </c>
       <c r="CN1" t="n">
-        <v>0.9098040012597033</v>
+        <v>0.4176048179091827</v>
       </c>
       <c r="CO1" t="n">
-        <v>0.8288910104161782</v>
+        <v>-0.007498694932562002</v>
       </c>
       <c r="CP1" t="n">
-        <v>0.8300627102593046</v>
+        <v>0.3167310700730864</v>
       </c>
       <c r="CQ1" t="n">
-        <v>0.8653074020029662</v>
+        <v>0.03646061348396356</v>
       </c>
       <c r="CR1" t="n">
-        <v>0.8898811330229182</v>
+        <v>0.6048972332948779</v>
       </c>
       <c r="CS1" t="n">
-        <v>0.6813218240260981</v>
+        <v>-0.009347306147067472</v>
       </c>
       <c r="CT1" t="n">
-        <v>0.6815948314767898</v>
+        <v>0.2694285904652026</v>
       </c>
       <c r="CU1" t="n">
-        <v>0.7028453884028342</v>
+        <v>0.07422988466057789</v>
       </c>
       <c r="CV1" t="n">
-        <v>0.7187368616236121</v>
+        <v>0.8775449746343801</v>
       </c>
       <c r="CW1" t="n">
-        <v>0.6922852053371917</v>
+        <v>-0.005352183955571382</v>
       </c>
       <c r="CX1" t="n">
-        <v>0.6925457580067794</v>
+        <v>0.1727236137220348</v>
       </c>
       <c r="CY1" t="n">
-        <v>0.7021225966654928</v>
+        <v>0.1094889110599206</v>
       </c>
       <c r="CZ1" t="n">
-        <v>0.711145804468901</v>
+        <v>1.125782541487236</v>
       </c>
       <c r="DA1" t="n">
-        <v>0.6888533457717343</v>
+        <v>-0.008076285177889209</v>
       </c>
       <c r="DB1" t="n">
-        <v>0.6893239225293943</v>
+        <v>0.1366410917987439</v>
       </c>
       <c r="DC1" t="n">
-        <v>0.6923617075843805</v>
+        <v>0.1492215401580759</v>
       </c>
       <c r="DD1" t="n">
-        <v>0.6967842256725083</v>
+        <v>1.545785177736666</v>
       </c>
       <c r="DE1" t="n">
-        <v>0.6746755118963073</v>
+        <v>-0.007288047271612395</v>
       </c>
       <c r="DF1" t="n">
-        <v>0.675149658960144</v>
+        <v>0.1108448021685263</v>
       </c>
       <c r="DG1" t="n">
-        <v>0.6744773038787423</v>
+        <v>0.1750701406592227</v>
       </c>
       <c r="DH1" t="n">
-        <v>0.6759090401744703</v>
+        <v>1.935897643193292</v>
       </c>
       <c r="DI1" t="n">
-        <v>0.5645990424486645</v>
+        <v>-0.007479435342742258</v>
       </c>
       <c r="DJ1" t="n">
-        <v>0.5644150760933105</v>
+        <v>0.1172117641125306</v>
       </c>
       <c r="DK1" t="n">
-        <v>0.5589781571912033</v>
+        <v>0.2586991974974895</v>
       </c>
       <c r="DL1" t="n">
-        <v>0.5569939215707751</v>
+        <v>2.598349584861214</v>
       </c>
       <c r="DM1" t="n">
-        <v>0.5330836356904961</v>
+        <v>-0.006812462909437435</v>
       </c>
       <c r="DN1" t="n">
-        <v>0.533809734593081</v>
+        <v>0.1249766480963213</v>
       </c>
       <c r="DO1" t="n">
-        <v>0.5289106829311009</v>
+        <v>0.331164261030411</v>
       </c>
       <c r="DP1" t="n">
-        <v>0.5267426087789439</v>
+        <v>3.262894796671692</v>
       </c>
       <c r="DQ1" t="n">
-        <v>0.5287080342497501</v>
+        <v>-0.005435657042529756</v>
       </c>
       <c r="DR1" t="n">
-        <v>0.5292954439368274</v>
+        <v>0.07655946114214018</v>
       </c>
       <c r="DS1" t="n">
-        <v>0.525832675824475</v>
+        <v>0.4730750810650117</v>
       </c>
       <c r="DT1" t="n">
-        <v>0.5242865911106305</v>
+        <v>4.421136116406062</v>
       </c>
       <c r="DU1" t="n">
-        <v>0.5257757329695447</v>
+        <v>-0.004461583662802857</v>
       </c>
       <c r="DV1" t="n">
-        <v>0.5262412522359796</v>
+        <v>0.06081197914993153</v>
       </c>
       <c r="DW1" t="n">
-        <v>0.5234645447659463</v>
+        <v>0.6107409228808292</v>
       </c>
       <c r="DX1" t="n">
-        <v>0.5223117516719704</v>
+        <v>5.216874152801114</v>
       </c>
       <c r="DY1" t="n">
-        <v>0.4906723852418681</v>
+        <v>-0.003452322100450467</v>
       </c>
       <c r="DZ1" t="n">
-        <v>0.4912681235858416</v>
+        <v>0.06282042241988285</v>
       </c>
       <c r="EA1" t="n">
-        <v>0.488979618597697</v>
+        <v>0.7488762896926611</v>
       </c>
       <c r="EB1" t="n">
-        <v>0.4878820010477079</v>
+        <v>5.771874347899054</v>
       </c>
       <c r="EC1" t="n">
-        <v>0.3887561543792468</v>
+        <v>-0.01828221136950987</v>
       </c>
       <c r="ED1" t="n">
-        <v>0.3896442369252121</v>
+        <v>0.04544364968198614</v>
       </c>
       <c r="EE1" t="n">
-        <v>0.38741791602658</v>
+        <v>1.015141728201787</v>
       </c>
       <c r="EF1" t="n">
-        <v>0.3854907169674919</v>
+        <v>5.625088042271134</v>
       </c>
       <c r="EG1" t="n">
-        <v>0.3853351583989631</v>
+        <v>-0.02012892273648862</v>
       </c>
       <c r="EH1" t="n">
-        <v>0.386038123949343</v>
+        <v>0.04346339034639463</v>
       </c>
       <c r="EI1" t="n">
-        <v>0.3843484495873771</v>
+        <v>1.204729129120082</v>
       </c>
       <c r="EJ1" t="n">
-        <v>0.3828599154561201</v>
+        <v>5.223135129741201</v>
       </c>
       <c r="EK1" t="n">
-        <v>0.382173293271322</v>
+        <v>-0.02157072543947793</v>
       </c>
       <c r="EL1" t="n">
-        <v>0.382741999507457</v>
+        <v>0.0253665232187705</v>
       </c>
       <c r="EM1" t="n">
-        <v>0.3804488592811598</v>
+        <v>1.498336134137932</v>
       </c>
       <c r="EN1" t="n">
-        <v>0.3793709300877758</v>
+        <v>4.404801412845699</v>
       </c>
       <c r="EO1" t="n">
-        <v>0.3785441108834986</v>
+        <v>-0.0226055858865448</v>
       </c>
       <c r="EP1" t="n">
-        <v>0.3790034634845807</v>
+        <v>0.02791682435273408</v>
       </c>
       <c r="EQ1" t="n">
-        <v>0.3780796513650049</v>
+        <v>1.63441716774193</v>
       </c>
       <c r="ER1" t="n">
-        <v>0.3772342722251995</v>
+        <v>3.673331489819323</v>
       </c>
       <c r="ES1" t="n">
-        <v>0.3423182337081491</v>
+        <v>-0.02442058411472924</v>
       </c>
       <c r="ET1" t="n">
-        <v>0.3429955466028275</v>
+        <v>0.03286972598590484</v>
       </c>
       <c r="EU1" t="n">
-        <v>0.3422497172561152</v>
+        <v>1.677860309108502</v>
       </c>
       <c r="EV1" t="n">
-        <v>0.3417051697429206</v>
+        <v>2.945118533227355</v>
       </c>
       <c r="EW1" t="n">
-        <v>0.3410791206349661</v>
+        <v>-0.02574043124457648</v>
       </c>
       <c r="EX1" t="n">
-        <v>0.3416440335144638</v>
+        <v>0.01495886417134686</v>
       </c>
       <c r="EY1" t="n">
-        <v>0.3411686660278151</v>
+        <v>2.022598905977636</v>
       </c>
       <c r="EZ1" t="n">
-        <v>0.3407276790026291</v>
+        <v>2.302687848884345</v>
       </c>
       <c r="FA1" t="n">
-        <v>0.4023402126105208</v>
+        <v>-0.02603742861705288</v>
       </c>
       <c r="FB1" t="n">
-        <v>0.4027210955346471</v>
+        <v>0.0151264514305204</v>
       </c>
       <c r="FC1" t="n">
-        <v>0.4025753214751863</v>
+        <v>1.820453832981803</v>
       </c>
       <c r="FD1" t="n">
-        <v>0.4025225395105033</v>
+        <v>1.715736708451129</v>
       </c>
       <c r="FE1" t="n">
-        <v>0.3403344650590666</v>
+        <v>-0.02696180928687959</v>
       </c>
       <c r="FF1" t="n">
-        <v>0.3407319089258672</v>
+        <v>0.01503605674701586</v>
       </c>
       <c r="FG1" t="n">
-        <v>0.3406739253562286</v>
+        <v>1.91566987702519</v>
       </c>
       <c r="FH1" t="n">
-        <v>0.3403177261330176</v>
+        <v>1.249962775070653</v>
       </c>
       <c r="FI1" t="n">
-        <v>0.4020285533603596</v>
+        <v>-0.02774373225678989</v>
       </c>
       <c r="FJ1" t="n">
-        <v>0.4023289066132391</v>
+        <v>0.01426224227462086</v>
       </c>
       <c r="FK1" t="n">
-        <v>0.4020817862568107</v>
+        <v>1.897114812639181</v>
       </c>
       <c r="FL1" t="n">
-        <v>0.4020452647253724</v>
+        <v>0.8753902089361181</v>
       </c>
       <c r="FM1" t="n">
-        <v>0.3053248455384351</v>
+        <v>-0.0159723018247185</v>
       </c>
       <c r="FN1" t="n">
-        <v>0.3056531942868002</v>
+        <v>0.0139359823895466</v>
       </c>
       <c r="FO1" t="n">
-        <v>0.305357011626565</v>
+        <v>1.686272439929219</v>
       </c>
       <c r="FP1" t="n">
-        <v>0.3052127599217601</v>
+        <v>0.5894901330434468</v>
       </c>
       <c r="FQ1" t="n">
-        <v>0.3632719551007167</v>
+        <v>-0.01670378048989965</v>
       </c>
       <c r="FR1" t="n">
-        <v>0.3636009178962288</v>
+        <v>-0.005570242449565312</v>
       </c>
       <c r="FS1" t="n">
-        <v>0.3635072059165508</v>
+        <v>1.421719664172718</v>
       </c>
       <c r="FT1" t="n">
-        <v>0.3635792673311253</v>
+        <v>0.385168437295935</v>
       </c>
       <c r="FU1" t="n">
-        <v>0.3633515604363859</v>
+        <v>-0.0179418191736736</v>
       </c>
       <c r="FV1" t="n">
-        <v>0.3636217665547606</v>
+        <v>-0.006133720318765058</v>
       </c>
       <c r="FW1" t="n">
-        <v>0.3635358640683624</v>
+        <v>1.453208198347467</v>
       </c>
       <c r="FX1" t="n">
-        <v>0.363601195296674</v>
+        <v>0.4060911402352358</v>
       </c>
       <c r="FY1" t="n">
-        <v>0.3634299816112501</v>
+        <v>-0.01905198768984427</v>
       </c>
       <c r="FZ1" t="n">
-        <v>0.3636715102830537</v>
+        <v>-0.005965181941191618</v>
       </c>
       <c r="GA1" t="n">
-        <v>0.3635919938506001</v>
+        <v>1.155812366525113</v>
       </c>
       <c r="GB1" t="n">
-        <v>0.3636508217182227</v>
+        <v>0.2723088846782176</v>
       </c>
       <c r="GC1" t="n">
-        <v>0.3634937424355425</v>
+        <v>-0.01975532958770184</v>
       </c>
       <c r="GD1" t="n">
-        <v>0.3637427500848241</v>
+        <v>-0.005454277509587834</v>
       </c>
       <c r="GE1" t="n">
-        <v>0.3636681027569647</v>
+        <v>1.139022338112965</v>
       </c>
       <c r="GF1" t="n">
-        <v>0.3637216357673551</v>
+        <v>0.184615776021481</v>
       </c>
       <c r="GG1" t="n">
-        <v>0.3635762864705638</v>
+        <v>-0.020181980759426</v>
       </c>
       <c r="GH1" t="n">
-        <v>0.3637957076712622</v>
+        <v>-0.004952756776763396</v>
       </c>
       <c r="GI1" t="n">
-        <v>0.3637256605541758</v>
+        <v>0.8229588282154228</v>
       </c>
       <c r="GJ1" t="n">
-        <v>0.3637749579850014</v>
+        <v>0.175364858217085</v>
       </c>
       <c r="GK1" t="n">
-        <v>0.363639962818547</v>
+        <v>-0.02017950126390868</v>
       </c>
       <c r="GL1" t="n">
-        <v>0.3638348753615706</v>
+        <v>-0.004024560724638176</v>
       </c>
       <c r="GM1" t="n">
-        <v>0.3638458183281114</v>
+        <v>0.7883023814008272</v>
       </c>
       <c r="GN1" t="n">
-        <v>0.3638905004396379</v>
+        <v>0.1668556815045593</v>
       </c>
       <c r="GO1" t="n">
-        <v>0.3050731905318051</v>
+        <v>-0.02005295649861287</v>
       </c>
       <c r="GP1" t="n">
-        <v>0.3052830955635527</v>
+        <v>-0.02389392156074587</v>
       </c>
       <c r="GQ1" t="n">
-        <v>0.3052844347520101</v>
+        <v>0.7607738111928435</v>
       </c>
       <c r="GR1" t="n">
-        <v>0.305195161185844</v>
+        <v>0.1298616638419807</v>
       </c>
       <c r="GS1" t="n">
-        <v>0.363761977345316</v>
+        <v>-0.04066942864815578</v>
       </c>
       <c r="GT1" t="n">
-        <v>0.3639150477678502</v>
+        <v>-0.02419605370283617</v>
       </c>
       <c r="GU1" t="n">
-        <v>0.3639206097593418</v>
+        <v>0.6886771547869415</v>
       </c>
       <c r="GV1" t="n">
-        <v>0.3639602322805878</v>
+        <v>0.122635794266846</v>
       </c>
       <c r="GW1" t="n">
-        <v>0.3051099942320397</v>
+        <v>-0.002976320478810906</v>
       </c>
       <c r="GX1" t="n">
-        <v>0.3052236337794967</v>
+        <v>-0.04110449969247677</v>
       </c>
       <c r="GY1" t="n">
-        <v>0.3052225928498346</v>
+        <v>0.656435602953499</v>
       </c>
       <c r="GZ1" t="n">
-        <v>0.3051432328814521</v>
+        <v>0.09287463827551434</v>
       </c>
       <c r="HA1" t="n">
-        <v>0.3050040941896557</v>
+        <v>-0.02461946501877154</v>
       </c>
       <c r="HB1" t="n">
-        <v>0.305136197592402</v>
+        <v>-0.04190602164032654</v>
       </c>
       <c r="HC1" t="n">
-        <v>0.3051355113421994</v>
+        <v>0.4247899152024761</v>
       </c>
       <c r="HD1" t="n">
-        <v>0.3050617326669798</v>
+        <v>0.08446359676843013</v>
       </c>
       <c r="HE1" t="n">
-        <v>0.3049315173241344</v>
+        <v>-0.02555657869433138</v>
       </c>
       <c r="HF1" t="n">
-        <v>0.3050268735234589</v>
+        <v>-0.04265659696593051</v>
       </c>
       <c r="HG1" t="n">
-        <v>0.3048292323805649</v>
+        <v>0.3960918829589384</v>
       </c>
       <c r="HH1" t="n">
-        <v>0.304764040358733</v>
+        <v>0.08414764705402639</v>
       </c>
       <c r="HI1" t="n">
-        <v>0.3047545162731011</v>
+        <v>-0.0429866527335311</v>
       </c>
       <c r="HJ1" t="n">
-        <v>0.3048428378076048</v>
+        <v>-0.0434378426159068</v>
       </c>
       <c r="HK1" t="n">
-        <v>0.3046628886240235</v>
+        <v>0.3248976709032587</v>
       </c>
       <c r="HL1" t="n">
-        <v>0.3046030529063766</v>
+        <v>0.05953328566667555</v>
       </c>
       <c r="HM1" t="n">
-        <v>0.3045935642821849</v>
+        <v>-0.04397074676055612</v>
       </c>
       <c r="HN1" t="n">
-        <v>0.3046756015144989</v>
+        <v>-0.006171496180596429</v>
       </c>
       <c r="HO1" t="n">
-        <v>0.3045110160782217</v>
+        <v>0.2994774609725022</v>
       </c>
       <c r="HP1" t="n">
-        <v>0.304455853386918</v>
+        <v>0.04917587174312359</v>
       </c>
       <c r="HQ1" t="n">
-        <v>0.3043499203696402</v>
+        <v>-0.04439752800206034</v>
       </c>
       <c r="HR1" t="n">
-        <v>0.3044529543342788</v>
+        <v>-0.006856503644730013</v>
       </c>
       <c r="HS1" t="n">
-        <v>0.3044607315468656</v>
+        <v>0.2778813461939414</v>
       </c>
       <c r="HT1" t="n">
-        <v>0.3044085954010251</v>
+        <v>0.03635927993048441</v>
       </c>
       <c r="HU1" t="n">
-        <v>0.3043081312687739</v>
+        <v>-0.02946252885223981</v>
       </c>
       <c r="HV1" t="n">
-        <v>0.3044044846340839</v>
+        <v>-0.007664148762277185</v>
       </c>
       <c r="HW1" t="n">
-        <v>0.3044117311690471</v>
+        <v>0.1716720492195052</v>
       </c>
       <c r="HX1" t="n">
-        <v>0.3043623477033228</v>
+        <v>0.03608209775611113</v>
       </c>
       <c r="HY1" t="n">
-        <v>0.3042668654918907</v>
+        <v>-0.02986748124729858</v>
       </c>
       <c r="HZ1" t="n">
-        <v>0.304357194248128</v>
+        <v>-0.0236766092345182</v>
       </c>
       <c r="IA1" t="n">
-        <v>0.3043639669298113</v>
+        <v>0.2314710539394375</v>
       </c>
       <c r="IB1" t="n">
-        <v>0.3043170966058328</v>
+        <v>0.02177120817498948</v>
       </c>
       <c r="IC1" t="n">
-        <v>0.3042261711338106</v>
+        <v>-0.04583503441514284</v>
       </c>
       <c r="ID1" t="n">
-        <v>0.3043110435815058</v>
+        <v>-0.04613774834765286</v>
       </c>
       <c r="IE1" t="n">
-        <v>0.3042660296595197</v>
+        <v>0.2122118238738178</v>
       </c>
       <c r="IF1" t="n">
-        <v>0.3042220145233326</v>
+        <v>0.02154962935790754</v>
       </c>
       <c r="IG1" t="n">
-        <v>0.3041789652843073</v>
+        <v>-0.04663775425032157</v>
       </c>
       <c r="IH1" t="n">
-        <v>0.3042395318526208</v>
+        <v>-0.03169827891187472</v>
       </c>
       <c r="II1" t="n">
-        <v>0.3041968259945907</v>
+        <v>0.1412547241946254</v>
       </c>
       <c r="IJ1" t="n">
-        <v>0.3041550357846287</v>
+        <v>0.006072283738694562</v>
       </c>
       <c r="IK1" t="n">
-        <v>0.3041141320764075</v>
+        <v>-0.04712331904036916</v>
       </c>
       <c r="IL1" t="n">
-        <v>0.3041698840737044</v>
+        <v>-0.03212310224977135</v>
       </c>
       <c r="IM1" t="n">
-        <v>0.3041293120513587</v>
+        <v>0.1310236706348268</v>
       </c>
       <c r="IN1" t="n">
-        <v>0.3040895816245016</v>
+        <v>-0.01672989116441635</v>
       </c>
       <c r="IO1" t="n">
-        <v>0.2717769632566335</v>
+        <v>-0.04770752194656083</v>
       </c>
       <c r="IP1" t="n">
-        <v>0.2718904954253969</v>
+        <v>-0.03265610517321053</v>
       </c>
       <c r="IQ1" t="n">
-        <v>0.2718500338522041</v>
+        <v>0.1212635323790001</v>
       </c>
       <c r="IR1" t="n">
-        <v>0.271855480351876</v>
+        <v>-0.01695661286609236</v>
       </c>
       <c r="IS1" t="n">
-        <v>0.271816276991007</v>
+        <v>-0.04809949595889186</v>
       </c>
       <c r="IT1" t="n">
-        <v>0.271952043592128</v>
+        <v>-0.03294717352498026</v>
       </c>
       <c r="IU1" t="n">
-        <v>0.2717676142004265</v>
+        <v>0.1115783142847487</v>
       </c>
       <c r="IV1" t="n">
-        <v>0.2717738278349112</v>
+        <v>0.005901461855965115</v>
       </c>
       <c r="IW1" t="n">
-        <v>0.2717376749771123</v>
+        <v>-0.04826243406930892</v>
       </c>
       <c r="IX1" t="n">
-        <v>0.2718652863722532</v>
+        <v>-0.03303638794580037</v>
       </c>
       <c r="IY1" t="n">
-        <v>0.2718294414919332</v>
+        <v>0.1014950583357048</v>
       </c>
       <c r="IZ1" t="n">
-        <v>0.2718346686886016</v>
+        <v>0.005924456100094337</v>
       </c>
       <c r="JA1" t="n">
-        <v>0.2717786530543635</v>
+        <v>-0.03285811900272043</v>
       </c>
       <c r="JB1" t="n">
-        <v>0.2718986986155096</v>
+        <v>-0.03303436028706036</v>
       </c>
       <c r="JC1" t="n">
-        <v>0.271864429278209</v>
+        <v>0.102382391834492</v>
       </c>
       <c r="JD1" t="n">
-        <v>0.2718690789150889</v>
+        <v>0.006114214881555884</v>
       </c>
       <c r="JE1" t="n">
-        <v>0.2718357652564299</v>
+        <v>-0.03287507261846408</v>
       </c>
       <c r="JF1" t="n">
-        <v>0.2719486052553665</v>
+        <v>-0.0330517094441854</v>
       </c>
       <c r="JG1" t="n">
-        <v>0.2719155869149121</v>
+        <v>0.09167190002252466</v>
       </c>
       <c r="JH1" t="n">
-        <v>0.2719194936702767</v>
+        <v>0.006195177510556239</v>
       </c>
       <c r="JI1" t="n">
-        <v>0.2718873717408928</v>
+        <v>-0.04878280982341759</v>
       </c>
       <c r="JJ1" t="n">
-        <v>0.2719936620160256</v>
+        <v>-0.03315257349199874</v>
       </c>
       <c r="JK1" t="n">
-        <v>0.2719618307578938</v>
+        <v>0.07998053598041234</v>
       </c>
       <c r="JL1" t="n">
-        <v>0.2719650992965276</v>
+        <v>-0.01048297362849017</v>
       </c>
       <c r="JM1" t="n">
-        <v>0.2719341098811304</v>
+        <v>-0.04916602043628861</v>
       </c>
       <c r="JN1" t="n">
-        <v>0.272034426194463</v>
+        <v>-0.03350703635391357</v>
       </c>
       <c r="JO1" t="n">
-        <v>0.2720037214395545</v>
+        <v>0.08019113323802361</v>
       </c>
       <c r="JP1" t="n">
-        <v>0.2720064399579707</v>
+        <v>-0.01066668837965558</v>
       </c>
       <c r="JQ1" t="n">
-        <v>0.3038642231537826</v>
+        <v>-0.04947859063359786</v>
       </c>
       <c r="JR1" t="n">
-        <v>0.3039096637727097</v>
+        <v>-0.01080076975364614</v>
       </c>
       <c r="JS1" t="n">
-        <v>0.3039124220029406</v>
+        <v>0.06730155567553821</v>
       </c>
       <c r="JT1" t="n">
-        <v>0.3038831692819838</v>
+        <v>-0.03374679002360827</v>
       </c>
       <c r="JU1" t="n">
-        <v>0.2720150943889074</v>
+        <v>-0.02718787991091754</v>
       </c>
       <c r="JV1" t="n">
-        <v>0.2721049285052101</v>
+        <v>-0.03394674738762063</v>
       </c>
       <c r="JW1" t="n">
-        <v>0.2720763083531734</v>
+        <v>0.06722074724643275</v>
       </c>
       <c r="JX1" t="n">
-        <v>0.2720781397270384</v>
+        <v>-0.03405478421528702</v>
       </c>
       <c r="JY1" t="n">
-        <v>0.3038427552803179</v>
+        <v>-0.02747286968630999</v>
       </c>
       <c r="JZ1" t="n">
-        <v>0.3038822987716156</v>
+        <v>-0.03423309917239245</v>
       </c>
       <c r="KA1" t="n">
-        <v>0.3038545253778</v>
+        <v>0.05286481272545628</v>
       </c>
       <c r="KB1" t="n">
-        <v>0.3038271791094235</v>
+        <v>-0.03442657270686729</v>
       </c>
       <c r="KC1" t="n">
-        <v>0.2720537408031139</v>
+        <v>-0.02771587448503591</v>
       </c>
       <c r="KD1" t="n">
-        <v>0.2721345296148235</v>
+        <v>-0.0114839293067348</v>
       </c>
       <c r="KE1" t="n">
-        <v>0.2721080093850159</v>
+        <v>0.0527299070115799</v>
       </c>
       <c r="KF1" t="n">
-        <v>0.2721094665245719</v>
+        <v>-0.03443875778275498</v>
       </c>
       <c r="KG1" t="n">
-        <v>0.2720835657452139</v>
+        <v>-0.02777285496297361</v>
       </c>
       <c r="KH1" t="n">
-        <v>0.2721586091481579</v>
+        <v>-0.01150907772936095</v>
       </c>
       <c r="KI1" t="n">
-        <v>0.2721596092712268</v>
+        <v>0.05286752321400728</v>
       </c>
       <c r="KJ1" t="n">
-        <v>0.2721605825440221</v>
+        <v>-0.03439551749556961</v>
       </c>
       <c r="KK1" t="n">
-        <v>0.2721353904384199</v>
+        <v>-0.02779682928977845</v>
       </c>
       <c r="KL1" t="n">
-        <v>0.2722047782369665</v>
+        <v>-0.03446514535563927</v>
       </c>
       <c r="KM1" t="n">
-        <v>0.2722053641484873</v>
+        <v>0.05293220071498381</v>
       </c>
       <c r="KN1" t="n">
-        <v>0.2722059311322119</v>
+        <v>-0.01144510973440623</v>
       </c>
       <c r="KO1" t="n">
-        <v>0.2721814218834606</v>
+        <v>-0.01142684178602356</v>
       </c>
       <c r="KP1" t="n">
-        <v>0.2722457541271678</v>
+        <v>-0.03437806108675569</v>
       </c>
       <c r="KQ1" t="n">
-        <v>0.2722459920715914</v>
+        <v>0.03770340177149374</v>
       </c>
       <c r="KR1" t="n">
-        <v>0.2722462174691385</v>
+        <v>-0.01147434140599474</v>
       </c>
       <c r="KS1" t="n">
-        <v>0.2722223656417886</v>
+        <v>-0.02779486725149934</v>
       </c>
       <c r="KT1" t="n">
-        <v>0.2722821608710945</v>
+        <v>-0.03449982370290873</v>
       </c>
       <c r="KU1" t="n">
-        <v>0.272258573342234</v>
+        <v>0.03762825935602684</v>
       </c>
       <c r="KV1" t="n">
-        <v>0.2722587043216815</v>
+        <v>-0.01152964577801519</v>
       </c>
       <c r="KW1" t="n">
-        <v>0.3279135273613083</v>
+        <v>-0.02782161188247474</v>
       </c>
       <c r="KX1" t="n">
-        <v>0.3279909342685003</v>
+        <v>-0.03451305227585039</v>
       </c>
       <c r="KY1" t="n">
-        <v>0.3279749226694893</v>
+        <v>0.02154206294823119</v>
       </c>
       <c r="KZ1" t="n">
-        <v>0.328016207690706</v>
+        <v>-0.01158111266224346</v>
       </c>
       <c r="LA1" t="n">
-        <v>0.2722672727690449</v>
+        <v>-0.02785686399641089</v>
       </c>
       <c r="LB1" t="n">
-        <v>0.2723081968654751</v>
+        <v>-0.01152992030265948</v>
       </c>
       <c r="LC1" t="n">
-        <v>0.2722133039977173</v>
+        <v>0.02168146552735786</v>
       </c>
       <c r="LD1" t="n">
-        <v>0.2722137691311349</v>
+        <v>-0.01142599401980217</v>
       </c>
       <c r="LE1" t="n">
-        <v>0.2721923314174749</v>
+        <v>-0.02766185971179479</v>
       </c>
       <c r="LF1" t="n">
-        <v>0.2722430226013451</v>
+        <v>-0.03435209201286078</v>
       </c>
       <c r="LG1" t="n">
-        <v>0.2722218151619799</v>
+        <v>0.02178683198916638</v>
       </c>
       <c r="LH1" t="n">
-        <v>0.2722222154352156</v>
+        <v>-0.01132905002380354</v>
       </c>
       <c r="LI1" t="n">
-        <v>0.3280626082767207</v>
+        <v>-0.02760391308557176</v>
       </c>
       <c r="LJ1" t="n">
-        <v>0.3281290707185903</v>
+        <v>-0.01126969930881219</v>
       </c>
       <c r="LK1" t="n">
-        <v>0.3281145621817565</v>
+        <v>0.02196272780023651</v>
       </c>
       <c r="LL1" t="n">
-        <v>0.3281530624521499</v>
+        <v>-0.03403098915714275</v>
       </c>
       <c r="LM1" t="n">
-        <v>0.2722152868698531</v>
+        <v>-0.02748424254951921</v>
       </c>
       <c r="LN1" t="n">
-        <v>0.2722665393423948</v>
+        <v>-0.01114985711848707</v>
       </c>
       <c r="LO1" t="n">
-        <v>0.2722464783213252</v>
+        <v>0.005476695493802263</v>
       </c>
       <c r="LP1" t="n">
-        <v>0.2722466811569767</v>
+        <v>-0.05006920671956996</v>
       </c>
       <c r="LQ1" t="n">
-        <v>0.3035527600334544</v>
+        <v>-0.02747095392781997</v>
       </c>
       <c r="LR1" t="n">
-        <v>0.3035737691237946</v>
+        <v>-0.01115436320434428</v>
       </c>
       <c r="LS1" t="n">
-        <v>0.3035744231044643</v>
+        <v>0.005496286766260352</v>
       </c>
       <c r="LT1" t="n">
-        <v>0.3035542544820632</v>
+        <v>-0.05005825155016814</v>
       </c>
       <c r="LU1" t="n">
-        <v>0.3281629299248945</v>
+        <v>-0.02744489574932575</v>
       </c>
       <c r="LV1" t="n">
-        <v>0.3282093428811163</v>
+        <v>-0.01113571824802948</v>
       </c>
       <c r="LW1" t="n">
-        <v>0.3281960830000494</v>
+        <v>0.00552064915134147</v>
       </c>
       <c r="LX1" t="n">
-        <v>0.3282324508648779</v>
+        <v>-0.05001918744199033</v>
       </c>
       <c r="LY1" t="n">
-        <v>0.303538435126421</v>
+        <v>-0.05012640877143364</v>
       </c>
       <c r="LZ1" t="n">
-        <v>0.3035574038276669</v>
+        <v>-0.011182354120082</v>
       </c>
       <c r="MA1" t="n">
-        <v>0.3035379092420349</v>
+        <v>0.005462242444435092</v>
       </c>
       <c r="MB1" t="n">
-        <v>0.303518646467273</v>
+        <v>-0.05019162216536285</v>
       </c>
       <c r="MC1" t="n">
-        <v>0.363860928999143</v>
+        <v>-0.02755182350395737</v>
       </c>
       <c r="MD1" t="n">
-        <v>0.3638787626158919</v>
+        <v>-0.01120336075286425</v>
       </c>
       <c r="ME1" t="n">
-        <v>0.3638801644263543</v>
+        <v>0.005398642975274137</v>
       </c>
       <c r="MF1" t="n">
-        <v>0.3639016572501411</v>
+        <v>-0.05026875303351261</v>
       </c>
       <c r="MG1" t="n">
-        <v>0.3035428462960131</v>
+        <v>-0.0276230109382709</v>
       </c>
       <c r="MH1" t="n">
-        <v>0.3035506234581479</v>
+        <v>-0.03424420803661308</v>
       </c>
       <c r="MI1" t="n">
-        <v>0.30353174192815</v>
+        <v>0.02195419808312363</v>
       </c>
       <c r="MJ1" t="n">
-        <v>0.3035130783554552</v>
+        <v>-0.02760476533167444</v>
       </c>
       <c r="MK1" t="n">
-        <v>0.363955981913739</v>
+        <v>-0.02756989733057563</v>
       </c>
       <c r="ML1" t="n">
-        <v>0.3639939517324113</v>
+        <v>-0.03414824719536083</v>
       </c>
       <c r="MM1" t="n">
-        <v>0.3639896158511661</v>
+        <v>0.005429091155855898</v>
       </c>
       <c r="MN1" t="n">
-        <v>0.364009474440643</v>
+        <v>-0.02756531291839702</v>
       </c>
       <c r="MO1" t="n">
-        <v>0.3640104255605137</v>
+        <v>-0.02756498224837602</v>
       </c>
       <c r="MP1" t="n">
-        <v>0.3640259902829117</v>
+        <v>-0.03412692299073725</v>
       </c>
       <c r="MQ1" t="n">
-        <v>0.364013282196928</v>
+        <v>0.005458571399172434</v>
       </c>
       <c r="MR1" t="n">
-        <v>0.3640324948476293</v>
+        <v>-0.02758394321938112</v>
       </c>
       <c r="MS1" t="n">
-        <v>0.3640513783478578</v>
+        <v>-0.02757222126745913</v>
       </c>
       <c r="MT1" t="n">
-        <v>0.3640662978974284</v>
+        <v>-0.03412764513634199</v>
       </c>
       <c r="MU1" t="n">
-        <v>0.3640537627881177</v>
+        <v>0.005439948549299071</v>
       </c>
       <c r="MV1" t="n">
-        <v>0.3640722666671435</v>
+        <v>-0.01119362650754693</v>
       </c>
       <c r="MW1" t="n">
-        <v>0.3640599107500413</v>
+        <v>-0.02753642393967097</v>
       </c>
       <c r="MX1" t="n">
-        <v>0.3640742692597558</v>
+        <v>-0.0341217959177382</v>
       </c>
       <c r="MY1" t="n">
-        <v>0.3640753854655419</v>
+        <v>0.005508588212946619</v>
       </c>
       <c r="MZ1" t="n">
-        <v>0.3640934956230956</v>
+        <v>-0.01113205352402959</v>
       </c>
       <c r="NA1" t="n">
-        <v>0.3035046612082928</v>
+        <v>-0.01109872481233001</v>
       </c>
       <c r="NB1" t="n">
-        <v>0.3035192008411062</v>
+        <v>-0.03399145028599644</v>
       </c>
       <c r="NC1" t="n">
-        <v>0.3035189946748864</v>
+        <v>-0.01741770303080631</v>
       </c>
       <c r="ND1" t="n">
-        <v>0.3035016121575491</v>
-      </c>
-      <c r="NE1" t="n">
-        <v>0.272364995499052</v>
-      </c>
-      <c r="NF1" t="n">
-        <v>0.2724012322059125</v>
-      </c>
-      <c r="NG1" t="n">
-        <v>0.2724004048685529</v>
-      </c>
-      <c r="NH1" t="n">
-        <v>0.2723995835978363</v>
-      </c>
-      <c r="NI1" t="n">
-        <v>0.2723836759842658</v>
-      </c>
-      <c r="NJ1" t="n">
-        <v>0.2724186058851203</v>
-      </c>
-      <c r="NK1" t="n">
-        <v>0.2724028307265441</v>
-      </c>
-      <c r="NL1" t="n">
-        <v>0.2724020062609363</v>
-      </c>
-      <c r="NM1" t="n">
-        <v>0.2723864904674662</v>
-      </c>
-      <c r="NN1" t="n">
-        <v>0.2724203441216695</v>
-      </c>
-      <c r="NO1" t="n">
-        <v>0.272404956299116</v>
-      </c>
-      <c r="NP1" t="n">
-        <v>0.272404130638551</v>
+        <v>-0.01114026914503567</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Mu1.xlsx
+++ b/Pruebas/Mu1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ND1"/>
+  <dimension ref="A1:MV1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,1108 +423,1084 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-0.04604384983717733</v>
+        <v>0.2430470468830055</v>
       </c>
       <c r="B1" t="n">
-        <v>0.1629224531208368</v>
+        <v>-0.04647637860537829</v>
       </c>
       <c r="C1" t="n">
-        <v>-0.09520613407390045</v>
+        <v>-0.447882357897388</v>
       </c>
       <c r="D1" t="n">
-        <v>-0.1210546174982585</v>
+        <v>-0.5007405002537219</v>
       </c>
       <c r="E1" t="n">
-        <v>-0.1176172177532265</v>
+        <v>0.3240627291773407</v>
       </c>
       <c r="F1" t="n">
-        <v>0.3073784644060485</v>
+        <v>-0.04282073276365641</v>
       </c>
       <c r="G1" t="n">
-        <v>-0.1856410894459289</v>
+        <v>-0.597240548849943</v>
       </c>
       <c r="H1" t="n">
-        <v>-0.2185253202521298</v>
+        <v>-0.6677304174299569</v>
       </c>
       <c r="I1" t="n">
-        <v>-0.1254129322919039</v>
+        <v>0.3645702622348343</v>
       </c>
       <c r="J1" t="n">
-        <v>0.427676607795942</v>
+        <v>-0.0411219539561034</v>
       </c>
       <c r="K1" t="n">
-        <v>-0.2077714202691104</v>
+        <v>-0.6692589457810764</v>
       </c>
       <c r="L1" t="n">
-        <v>-0.2440893404642614</v>
+        <v>-0.7511691627312617</v>
       </c>
       <c r="M1" t="n">
-        <v>-0.1093682338358079</v>
+        <v>0.4151023347803876</v>
       </c>
       <c r="N1" t="n">
-        <v>0.5606285623307898</v>
+        <v>-0.03666624632933814</v>
       </c>
       <c r="O1" t="n">
-        <v>-0.214235744338021</v>
+        <v>-0.6985201155228317</v>
       </c>
       <c r="P1" t="n">
-        <v>-0.2534410126531726</v>
+        <v>-0.7826697027789282</v>
       </c>
       <c r="Q1" t="n">
-        <v>-0.09164596872310707</v>
+        <v>0.516343688390375</v>
       </c>
       <c r="R1" t="n">
-        <v>0.8245476677231928</v>
+        <v>-0.0259091125709091</v>
       </c>
       <c r="S1" t="n">
-        <v>-0.2188982536245931</v>
+        <v>-0.7115923962680305</v>
       </c>
       <c r="T1" t="n">
-        <v>-0.2584923718693982</v>
+        <v>-0.8009535456692156</v>
       </c>
       <c r="U1" t="n">
-        <v>-0.05974106009462134</v>
+        <v>0.6416803108686042</v>
       </c>
       <c r="V1" t="n">
-        <v>1.148031292297303</v>
+        <v>0.006782080674302443</v>
       </c>
       <c r="W1" t="n">
-        <v>-0.2097435658089082</v>
+        <v>-0.6968882532597239</v>
       </c>
       <c r="X1" t="n">
-        <v>-0.243677564515153</v>
+        <v>-0.7896798727752685</v>
       </c>
       <c r="Y1" t="n">
-        <v>-0.03505814679131158</v>
+        <v>0.8069002055747232</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.448502402780611</v>
+        <v>0.03936536330029235</v>
       </c>
       <c r="AA1" t="n">
-        <v>-0.2040678371199573</v>
+        <v>-0.6702545089379928</v>
       </c>
       <c r="AB1" t="n">
-        <v>-0.2389544114649681</v>
+        <v>-0.7683662441597293</v>
       </c>
       <c r="AC1" t="n">
-        <v>-0.02687804807004357</v>
+        <v>0.8288948823282807</v>
       </c>
       <c r="AD1" t="n">
-        <v>1.923620861075887</v>
+        <v>0.09915557568473649</v>
       </c>
       <c r="AE1" t="n">
-        <v>-0.1969867949017425</v>
+        <v>-0.6360346476830981</v>
       </c>
       <c r="AF1" t="n">
-        <v>-0.2106946483366316</v>
+        <v>-0.7604139026182004</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.005009230073079428</v>
+        <v>0.8021858064046083</v>
       </c>
       <c r="AH1" t="n">
-        <v>2.486984259087734</v>
+        <v>0.1627603746927536</v>
       </c>
       <c r="AI1" t="n">
-        <v>-0.1644721595637895</v>
+        <v>-0.6774084650191204</v>
       </c>
       <c r="AJ1" t="n">
-        <v>-0.1965181508239791</v>
+        <v>-0.7465342634368453</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.03732694359697283</v>
+        <v>0.7457038484031177</v>
       </c>
       <c r="AL1" t="n">
-        <v>2.930350073305025</v>
+        <v>0.2477275637271054</v>
       </c>
       <c r="AM1" t="n">
-        <v>-0.152375329647223</v>
+        <v>-0.7312322785649005</v>
       </c>
       <c r="AN1" t="n">
-        <v>-0.1852964504428393</v>
+        <v>-0.6835216042732725</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.03800226887692199</v>
+        <v>0.7083168715088036</v>
       </c>
       <c r="AP1" t="n">
-        <v>3.191299949521137</v>
+        <v>0.3344167984866743</v>
       </c>
       <c r="AQ1" t="n">
-        <v>-0.1566945985091372</v>
+        <v>-0.7390396462915521</v>
       </c>
       <c r="AR1" t="n">
-        <v>-0.1741593632407029</v>
+        <v>-0.7221221650936051</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.05012046865523543</v>
+        <v>0.6264040331263954</v>
       </c>
       <c r="AT1" t="n">
-        <v>3.259647705690361</v>
+        <v>0.4426312128143971</v>
       </c>
       <c r="AU1" t="n">
-        <v>-0.1511315533468411</v>
+        <v>-0.7067811716002459</v>
       </c>
       <c r="AV1" t="n">
-        <v>-0.1598660774620002</v>
+        <v>-0.6567507653149617</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.04573645823890963</v>
+        <v>0.6110849486330919</v>
       </c>
       <c r="AX1" t="n">
-        <v>3.158603911218313</v>
+        <v>0.5542493538966284</v>
       </c>
       <c r="AY1" t="n">
-        <v>-0.1760009149327316</v>
+        <v>-0.6245320114088293</v>
       </c>
       <c r="AZ1" t="n">
-        <v>-0.1551914473809735</v>
+        <v>-0.6482914693721898</v>
       </c>
       <c r="BA1" t="n">
-        <v>0.0977208889743614</v>
+        <v>0.5948726177983478</v>
       </c>
       <c r="BB1" t="n">
-        <v>2.931492253129099</v>
+        <v>0.7171542064834707</v>
       </c>
       <c r="BC1" t="n">
-        <v>-0.1609500181555656</v>
+        <v>-0.5940642010866717</v>
       </c>
       <c r="BD1" t="n">
-        <v>-0.1285750903936655</v>
+        <v>-0.6180457439727968</v>
       </c>
       <c r="BE1" t="n">
-        <v>0.07004212628531346</v>
+        <v>0.603740647958974</v>
       </c>
       <c r="BF1" t="n">
-        <v>2.585490505182011</v>
+        <v>0.8019877811335099</v>
       </c>
       <c r="BG1" t="n">
-        <v>-0.1493965338885137</v>
+        <v>-0.6373587782650135</v>
       </c>
       <c r="BH1" t="n">
-        <v>-0.1088027631140418</v>
+        <v>-0.6307972897099549</v>
       </c>
       <c r="BI1" t="n">
-        <v>0.07642423518171934</v>
+        <v>0.5417618645597954</v>
       </c>
       <c r="BJ1" t="n">
-        <v>2.188451535153374</v>
+        <v>0.9026390969878058</v>
       </c>
       <c r="BK1" t="n">
-        <v>-0.1364491277700013</v>
+        <v>-0.6403695591021419</v>
       </c>
       <c r="BL1" t="n">
-        <v>-0.07709855318890221</v>
+        <v>-0.6159818234119185</v>
       </c>
       <c r="BM1" t="n">
-        <v>0.04647349095697246</v>
+        <v>0.5412639312881768</v>
       </c>
       <c r="BN1" t="n">
-        <v>1.79956447939024</v>
+        <v>1.023058097527656</v>
       </c>
       <c r="BO1" t="n">
-        <v>-0.1088548331368028</v>
+        <v>-0.6278683798885643</v>
       </c>
       <c r="BP1" t="n">
-        <v>-0.0345356740939011</v>
+        <v>-0.5806536819597895</v>
       </c>
       <c r="BQ1" t="n">
-        <v>0.02541243580525896</v>
+        <v>0.5523162435625414</v>
       </c>
       <c r="BR1" t="n">
-        <v>1.440310364067805</v>
+        <v>1.122497720585741</v>
       </c>
       <c r="BS1" t="n">
-        <v>-0.0939845327495558</v>
+        <v>-0.610637175785377</v>
       </c>
       <c r="BT1" t="n">
-        <v>0.002585863454013811</v>
+        <v>-0.5664464941292868</v>
       </c>
       <c r="BU1" t="n">
-        <v>0.009255103100326741</v>
+        <v>0.536723513077717</v>
       </c>
       <c r="BV1" t="n">
-        <v>1.129974453841338</v>
+        <v>1.210073817784228</v>
       </c>
       <c r="BW1" t="n">
-        <v>-0.07738359760927779</v>
+        <v>-0.5693811182861469</v>
       </c>
       <c r="BX1" t="n">
-        <v>0.04357316311634803</v>
+        <v>-0.5283819925661476</v>
       </c>
       <c r="BY1" t="n">
-        <v>0.003018755625419643</v>
+        <v>0.5553481414144945</v>
       </c>
       <c r="BZ1" t="n">
-        <v>0.8624333983878105</v>
+        <v>1.297714579071503</v>
       </c>
       <c r="CA1" t="n">
-        <v>-0.05906660133005556</v>
+        <v>-0.5525514541799563</v>
       </c>
       <c r="CB1" t="n">
-        <v>0.1361686548487793</v>
+        <v>-0.5084229826959331</v>
       </c>
       <c r="CC1" t="n">
-        <v>0.000186265391456564</v>
+        <v>0.5421641045022579</v>
       </c>
       <c r="CD1" t="n">
-        <v>0.6269499413023081</v>
+        <v>1.335302041127181</v>
       </c>
       <c r="CE1" t="n">
-        <v>-0.04635598477664161</v>
+        <v>-0.5177950165884254</v>
       </c>
       <c r="CF1" t="n">
-        <v>0.1817142604128362</v>
+        <v>-0.4440433033904467</v>
       </c>
       <c r="CG1" t="n">
-        <v>-0.002678688384894878</v>
+        <v>0.5249099608376385</v>
       </c>
       <c r="CH1" t="n">
-        <v>0.5483686389504977</v>
+        <v>1.372118287239724</v>
       </c>
       <c r="CI1" t="n">
-        <v>-0.01128244327723647</v>
+        <v>-0.5046135036309664</v>
       </c>
       <c r="CJ1" t="n">
-        <v>0.302859943144885</v>
+        <v>-0.418383563178415</v>
       </c>
       <c r="CK1" t="n">
-        <v>-0.0109946932806752</v>
+        <v>0.4601045006877875</v>
       </c>
       <c r="CL1" t="n">
-        <v>0.4682225627480883</v>
+        <v>1.344714785801894</v>
       </c>
       <c r="CM1" t="n">
-        <v>0.009705923713646897</v>
+        <v>-0.4846856358317909</v>
       </c>
       <c r="CN1" t="n">
-        <v>0.4176048179091827</v>
+        <v>-0.3691523320672196</v>
       </c>
       <c r="CO1" t="n">
-        <v>-0.007498694932562002</v>
+        <v>0.5185478188997894</v>
       </c>
       <c r="CP1" t="n">
-        <v>0.3167310700730864</v>
+        <v>1.420772233333136</v>
       </c>
       <c r="CQ1" t="n">
-        <v>0.03646061348396356</v>
+        <v>-0.4873265983813314</v>
       </c>
       <c r="CR1" t="n">
-        <v>0.6048972332948779</v>
+        <v>-0.3549289246580426</v>
       </c>
       <c r="CS1" t="n">
-        <v>-0.009347306147067472</v>
+        <v>0.7417890864797452</v>
       </c>
       <c r="CT1" t="n">
-        <v>0.2694285904652026</v>
+        <v>1.439550748329723</v>
       </c>
       <c r="CU1" t="n">
-        <v>0.07422988466057789</v>
+        <v>-0.4355174350077554</v>
       </c>
       <c r="CV1" t="n">
-        <v>0.8775449746343801</v>
+        <v>-0.2713732766949637</v>
       </c>
       <c r="CW1" t="n">
-        <v>-0.005352183955571382</v>
+        <v>0.6965796863154169</v>
       </c>
       <c r="CX1" t="n">
-        <v>0.1727236137220348</v>
+        <v>1.41491901828974</v>
       </c>
       <c r="CY1" t="n">
-        <v>0.1094889110599206</v>
+        <v>-0.443000488639631</v>
       </c>
       <c r="CZ1" t="n">
-        <v>1.125782541487236</v>
+        <v>-0.2253617641561543</v>
       </c>
       <c r="DA1" t="n">
-        <v>-0.008076285177889209</v>
+        <v>0.5907013237663047</v>
       </c>
       <c r="DB1" t="n">
-        <v>0.1366410917987439</v>
+        <v>1.295451438874243</v>
       </c>
       <c r="DC1" t="n">
-        <v>0.1492215401580759</v>
+        <v>-0.4233363179899155</v>
       </c>
       <c r="DD1" t="n">
-        <v>1.545785177736666</v>
+        <v>-0.1749947309860267</v>
       </c>
       <c r="DE1" t="n">
-        <v>-0.007288047271612395</v>
+        <v>0.548053811826918</v>
       </c>
       <c r="DF1" t="n">
-        <v>0.1108448021685263</v>
+        <v>1.25220341472989</v>
       </c>
       <c r="DG1" t="n">
-        <v>0.1750701406592227</v>
+        <v>-0.4319814843811939</v>
       </c>
       <c r="DH1" t="n">
-        <v>1.935897643193292</v>
+        <v>-0.1201143969378747</v>
       </c>
       <c r="DI1" t="n">
-        <v>-0.007479435342742258</v>
+        <v>0.5090748536161537</v>
       </c>
       <c r="DJ1" t="n">
-        <v>0.1172117641125306</v>
+        <v>1.096287356491779</v>
       </c>
       <c r="DK1" t="n">
-        <v>0.2586991974974895</v>
+        <v>-0.4124901571364229</v>
       </c>
       <c r="DL1" t="n">
-        <v>2.598349584861214</v>
+        <v>-0.06059172852543482</v>
       </c>
       <c r="DM1" t="n">
-        <v>-0.006812462909437435</v>
+        <v>0.4194538411826305</v>
       </c>
       <c r="DN1" t="n">
-        <v>0.1249766480963213</v>
+        <v>1.044546975494937</v>
       </c>
       <c r="DO1" t="n">
-        <v>0.331164261030411</v>
+        <v>-0.3470799189673595</v>
       </c>
       <c r="DP1" t="n">
-        <v>3.262894796671692</v>
+        <v>0.06372305219381967</v>
       </c>
       <c r="DQ1" t="n">
-        <v>-0.005435657042529756</v>
+        <v>0.3874262305361738</v>
       </c>
       <c r="DR1" t="n">
-        <v>0.07655946114214018</v>
+        <v>0.9345523765994104</v>
       </c>
       <c r="DS1" t="n">
-        <v>0.4730750810650117</v>
+        <v>-0.3052825017750888</v>
       </c>
       <c r="DT1" t="n">
-        <v>4.421136116406062</v>
+        <v>0.1439420567122849</v>
       </c>
       <c r="DU1" t="n">
-        <v>-0.004461583662802857</v>
+        <v>0.5874511458308894</v>
       </c>
       <c r="DV1" t="n">
-        <v>0.06081197914993153</v>
+        <v>1.060363908985964</v>
       </c>
       <c r="DW1" t="n">
-        <v>0.6107409228808292</v>
+        <v>-0.3208733135510553</v>
       </c>
       <c r="DX1" t="n">
-        <v>5.216874152801114</v>
+        <v>0.09829207960556444</v>
       </c>
       <c r="DY1" t="n">
-        <v>-0.003452322100450467</v>
+        <v>0.7036383401622076</v>
       </c>
       <c r="DZ1" t="n">
-        <v>0.06282042241988285</v>
+        <v>1.282394102729565</v>
       </c>
       <c r="EA1" t="n">
-        <v>0.7488762896926611</v>
+        <v>-0.3380598874568952</v>
       </c>
       <c r="EB1" t="n">
-        <v>5.771874347899054</v>
+        <v>0.04530216657080166</v>
       </c>
       <c r="EC1" t="n">
-        <v>-0.01828221136950987</v>
+        <v>0.9440176284890194</v>
       </c>
       <c r="ED1" t="n">
-        <v>0.04544364968198614</v>
+        <v>1.376950601489113</v>
       </c>
       <c r="EE1" t="n">
-        <v>1.015141728201787</v>
+        <v>-0.3560732318321211</v>
       </c>
       <c r="EF1" t="n">
-        <v>5.625088042271134</v>
+        <v>0.01545705259444889</v>
       </c>
       <c r="EG1" t="n">
-        <v>-0.02012892273648862</v>
+        <v>1.065200403182433</v>
       </c>
       <c r="EH1" t="n">
-        <v>0.04346339034639463</v>
+        <v>1.482442178930586</v>
       </c>
       <c r="EI1" t="n">
-        <v>1.204729129120082</v>
+        <v>-0.3749629622834015</v>
       </c>
       <c r="EJ1" t="n">
-        <v>5.223135129741201</v>
+        <v>-0.01087670660593147</v>
       </c>
       <c r="EK1" t="n">
-        <v>-0.02157072543947793</v>
+        <v>1.181951207431167</v>
       </c>
       <c r="EL1" t="n">
-        <v>0.0253665232187705</v>
+        <v>1.551117974182699</v>
       </c>
       <c r="EM1" t="n">
-        <v>1.498336134137932</v>
+        <v>-0.3949895156425817</v>
       </c>
       <c r="EN1" t="n">
-        <v>4.404801412845699</v>
+        <v>-0.06914738743648476</v>
       </c>
       <c r="EO1" t="n">
-        <v>-0.0226055858865448</v>
+        <v>1.379811212086948</v>
       </c>
       <c r="EP1" t="n">
-        <v>0.02791682435273408</v>
+        <v>1.566648612848345</v>
       </c>
       <c r="EQ1" t="n">
-        <v>1.63441716774193</v>
+        <v>-0.3998256329558292</v>
       </c>
       <c r="ER1" t="n">
-        <v>3.673331489819323</v>
+        <v>-0.1283284491289178</v>
       </c>
       <c r="ES1" t="n">
-        <v>-0.02442058411472924</v>
+        <v>1.45594014155773</v>
       </c>
       <c r="ET1" t="n">
-        <v>0.03286972598590484</v>
+        <v>1.530794395011742</v>
       </c>
       <c r="EU1" t="n">
-        <v>1.677860309108502</v>
+        <v>-0.4201428822616207</v>
       </c>
       <c r="EV1" t="n">
-        <v>2.945118533227355</v>
+        <v>-0.1610757562717749</v>
       </c>
       <c r="EW1" t="n">
-        <v>-0.02574043124457648</v>
+        <v>1.54871288452343</v>
       </c>
       <c r="EX1" t="n">
-        <v>0.01495886417134686</v>
+        <v>1.484671883253333</v>
       </c>
       <c r="EY1" t="n">
-        <v>2.022598905977636</v>
+        <v>-0.441600191220322</v>
       </c>
       <c r="EZ1" t="n">
-        <v>2.302687848884345</v>
+        <v>-0.1900305419888283</v>
       </c>
       <c r="FA1" t="n">
-        <v>-0.02603742861705288</v>
+        <v>1.564516559759363</v>
       </c>
       <c r="FB1" t="n">
-        <v>0.0151264514305204</v>
+        <v>1.421127574308603</v>
       </c>
       <c r="FC1" t="n">
-        <v>1.820453832981803</v>
+        <v>-0.4642683444515351</v>
       </c>
       <c r="FD1" t="n">
-        <v>1.715736708451129</v>
+        <v>-0.2483630738870545</v>
       </c>
       <c r="FE1" t="n">
-        <v>-0.02696180928687959</v>
+        <v>1.554885968448005</v>
       </c>
       <c r="FF1" t="n">
-        <v>0.01503605674701586</v>
+        <v>1.248309521204341</v>
       </c>
       <c r="FG1" t="n">
-        <v>1.91566987702519</v>
+        <v>-0.4877269013126321</v>
       </c>
       <c r="FH1" t="n">
-        <v>1.249962775070653</v>
+        <v>-0.2772929508212728</v>
       </c>
       <c r="FI1" t="n">
-        <v>-0.02774373225678989</v>
+        <v>1.484991001225626</v>
       </c>
       <c r="FJ1" t="n">
-        <v>0.01426224227462086</v>
+        <v>1.149145495370394</v>
       </c>
       <c r="FK1" t="n">
-        <v>1.897114812639181</v>
+        <v>-0.4874908280202605</v>
       </c>
       <c r="FL1" t="n">
-        <v>0.8753902089361181</v>
+        <v>-0.3056115782174341</v>
       </c>
       <c r="FM1" t="n">
-        <v>-0.0159723018247185</v>
+        <v>1.423187436580617</v>
       </c>
       <c r="FN1" t="n">
-        <v>0.0139359823895466</v>
+        <v>1.043307006475598</v>
       </c>
       <c r="FO1" t="n">
-        <v>1.686272439929219</v>
+        <v>-0.5104638924584204</v>
       </c>
       <c r="FP1" t="n">
-        <v>0.5894901330434468</v>
+        <v>-0.3340057809320376</v>
       </c>
       <c r="FQ1" t="n">
-        <v>-0.01670378048989965</v>
+        <v>1.307555945712047</v>
       </c>
       <c r="FR1" t="n">
-        <v>-0.005570242449565312</v>
+        <v>0.879502252390181</v>
       </c>
       <c r="FS1" t="n">
-        <v>1.421719664172718</v>
+        <v>-0.533453659828483</v>
       </c>
       <c r="FT1" t="n">
-        <v>0.385168437295935</v>
+        <v>-0.3619298482480477</v>
       </c>
       <c r="FU1" t="n">
-        <v>-0.0179418191736736</v>
+        <v>1.156926647718365</v>
       </c>
       <c r="FV1" t="n">
-        <v>-0.006133720318765058</v>
+        <v>0.7724389829190997</v>
       </c>
       <c r="FW1" t="n">
-        <v>1.453208198347467</v>
+        <v>-0.5374907341640056</v>
       </c>
       <c r="FX1" t="n">
-        <v>0.4060911402352358</v>
+        <v>-0.388313696793305</v>
       </c>
       <c r="FY1" t="n">
-        <v>-0.01905198768984427</v>
+        <v>1.054541732101041</v>
       </c>
       <c r="FZ1" t="n">
-        <v>-0.005965181941191618</v>
+        <v>0.6665349422714613</v>
       </c>
       <c r="GA1" t="n">
-        <v>1.155812366525113</v>
+        <v>-0.5593647418439098</v>
       </c>
       <c r="GB1" t="n">
-        <v>0.2723088846782176</v>
+        <v>-0.4383043575361169</v>
       </c>
       <c r="GC1" t="n">
-        <v>-0.01975532958770184</v>
+        <v>0.9481154528030705</v>
       </c>
       <c r="GD1" t="n">
-        <v>-0.005454277509587834</v>
+        <v>0.5023723623563229</v>
       </c>
       <c r="GE1" t="n">
-        <v>1.139022338112965</v>
+        <v>-0.562462648033966</v>
       </c>
       <c r="GF1" t="n">
-        <v>0.184615776021481</v>
+        <v>-0.4382534537962379</v>
       </c>
       <c r="GG1" t="n">
-        <v>-0.020181980759426</v>
+        <v>0.7844060329869558</v>
       </c>
       <c r="GH1" t="n">
-        <v>-0.004952756776763396</v>
+        <v>0.405545264444572</v>
       </c>
       <c r="GI1" t="n">
-        <v>0.8229588282154228</v>
+        <v>-0.5649425773565642</v>
       </c>
       <c r="GJ1" t="n">
-        <v>0.175364858217085</v>
+        <v>-0.4616292761769785</v>
       </c>
       <c r="GK1" t="n">
-        <v>-0.02017950126390868</v>
+        <v>0.6254587401777977</v>
       </c>
       <c r="GL1" t="n">
-        <v>-0.004024560724638176</v>
+        <v>0.2811723969765095</v>
       </c>
       <c r="GM1" t="n">
-        <v>0.7883023814008272</v>
+        <v>-0.5668141799267452</v>
       </c>
       <c r="GN1" t="n">
-        <v>0.1668556815045593</v>
+        <v>-0.4828059586661974</v>
       </c>
       <c r="GO1" t="n">
-        <v>-0.02005295649861287</v>
+        <v>0.5232866314000031</v>
       </c>
       <c r="GP1" t="n">
-        <v>-0.02389392156074587</v>
+        <v>0.2494007579505794</v>
       </c>
       <c r="GQ1" t="n">
-        <v>0.7607738111928435</v>
+        <v>-0.5870600600650533</v>
       </c>
       <c r="GR1" t="n">
-        <v>0.1298616638419807</v>
+        <v>-0.5052374567858093</v>
       </c>
       <c r="GS1" t="n">
-        <v>-0.04066942864815578</v>
+        <v>0.4258504275982691</v>
       </c>
       <c r="GT1" t="n">
-        <v>-0.02419605370283617</v>
+        <v>0.1699759918248996</v>
       </c>
       <c r="GU1" t="n">
-        <v>0.6886771547869415</v>
+        <v>-0.587795944184987</v>
       </c>
       <c r="GV1" t="n">
-        <v>0.122635794266846</v>
+        <v>-0.5249759731813025</v>
       </c>
       <c r="GW1" t="n">
-        <v>-0.002976320478810906</v>
+        <v>0.2981518441788107</v>
       </c>
       <c r="GX1" t="n">
-        <v>-0.04110449969247677</v>
+        <v>0.09553796293467967</v>
       </c>
       <c r="GY1" t="n">
-        <v>0.656435602953499</v>
+        <v>-0.5878606545992218</v>
       </c>
       <c r="GZ1" t="n">
-        <v>0.09287463827551434</v>
+        <v>-0.5237426618733204</v>
       </c>
       <c r="HA1" t="n">
-        <v>-0.02461946501877154</v>
+        <v>0.2144852730052818</v>
       </c>
       <c r="HB1" t="n">
-        <v>-0.04190602164032654</v>
+        <v>0.02529885487450163</v>
       </c>
       <c r="HC1" t="n">
-        <v>0.4247899152024761</v>
+        <v>-0.5879758128292982</v>
       </c>
       <c r="HD1" t="n">
-        <v>0.08446359676843013</v>
+        <v>-0.5224417031483382</v>
       </c>
       <c r="HE1" t="n">
-        <v>-0.02555657869433138</v>
+        <v>0.1810279054337474</v>
       </c>
       <c r="HF1" t="n">
-        <v>-0.04265659696593051</v>
+        <v>-0.001393663304856907</v>
       </c>
       <c r="HG1" t="n">
-        <v>0.3960918829589384</v>
+        <v>-0.5881222151378024</v>
       </c>
       <c r="HH1" t="n">
-        <v>0.08414764705402639</v>
+        <v>-0.5400510298410781</v>
       </c>
       <c r="HI1" t="n">
-        <v>-0.0429866527335311</v>
+        <v>0.105023405008585</v>
       </c>
       <c r="HJ1" t="n">
-        <v>-0.0434378426159068</v>
+        <v>-0.06578304784488992</v>
       </c>
       <c r="HK1" t="n">
-        <v>0.3248976709032587</v>
+        <v>-0.5880544096298249</v>
       </c>
       <c r="HL1" t="n">
-        <v>0.05953328566667555</v>
+        <v>-0.5385636142848129</v>
       </c>
       <c r="HM1" t="n">
-        <v>-0.04397074676055612</v>
+        <v>0.03259477786645415</v>
       </c>
       <c r="HN1" t="n">
-        <v>-0.006171496180596429</v>
+        <v>-0.0925150744139368</v>
       </c>
       <c r="HO1" t="n">
-        <v>0.2994774609725022</v>
+        <v>-0.5880549109038654</v>
       </c>
       <c r="HP1" t="n">
-        <v>0.04917587174312359</v>
+        <v>-0.5541476374478285</v>
       </c>
       <c r="HQ1" t="n">
-        <v>-0.04439752800206034</v>
+        <v>-0.03555938644115982</v>
       </c>
       <c r="HR1" t="n">
-        <v>-0.006856503644730013</v>
+        <v>-0.1190141849962978</v>
       </c>
       <c r="HS1" t="n">
-        <v>0.2778813461939414</v>
+        <v>-0.6079871981717456</v>
       </c>
       <c r="HT1" t="n">
-        <v>0.03635927993048441</v>
+        <v>-0.5528838148242198</v>
       </c>
       <c r="HU1" t="n">
-        <v>-0.02946252885223981</v>
+        <v>-0.06234361531773833</v>
       </c>
       <c r="HV1" t="n">
-        <v>-0.007664148762277185</v>
+        <v>-0.1772455770340458</v>
       </c>
       <c r="HW1" t="n">
-        <v>0.1716720492195052</v>
+        <v>-0.6080537881166511</v>
       </c>
       <c r="HX1" t="n">
-        <v>0.03608209775611113</v>
+        <v>-0.5667533174094259</v>
       </c>
       <c r="HY1" t="n">
-        <v>-0.02986748124729858</v>
+        <v>-0.1251054339202235</v>
       </c>
       <c r="HZ1" t="n">
-        <v>-0.0236766092345182</v>
+        <v>-0.2028461757476777</v>
       </c>
       <c r="IA1" t="n">
-        <v>0.2314710539394375</v>
+        <v>-0.608022375702453</v>
       </c>
       <c r="IB1" t="n">
-        <v>0.02177120817498948</v>
+        <v>-0.5656736012073394</v>
       </c>
       <c r="IC1" t="n">
-        <v>-0.04583503441514284</v>
+        <v>-0.1839147534063136</v>
       </c>
       <c r="ID1" t="n">
-        <v>-0.04613774834765286</v>
+        <v>-0.2280071156533185</v>
       </c>
       <c r="IE1" t="n">
-        <v>0.2122118238738178</v>
+        <v>-0.6080110228250288</v>
       </c>
       <c r="IF1" t="n">
-        <v>0.02154962935790754</v>
+        <v>-0.5779633837625573</v>
       </c>
       <c r="IG1" t="n">
-        <v>-0.04663775425032157</v>
+        <v>-0.187359870083793</v>
       </c>
       <c r="IH1" t="n">
-        <v>-0.03169827891187472</v>
+        <v>-0.2812536296655604</v>
       </c>
       <c r="II1" t="n">
-        <v>0.1412547241946254</v>
+        <v>-0.6079485508147078</v>
       </c>
       <c r="IJ1" t="n">
-        <v>0.006072283738694562</v>
+        <v>-0.5771948671601502</v>
       </c>
       <c r="IK1" t="n">
-        <v>-0.04712331904036916</v>
+        <v>-0.2115342228703298</v>
       </c>
       <c r="IL1" t="n">
-        <v>-0.03212310224977135</v>
+        <v>-0.3047962962497491</v>
       </c>
       <c r="IM1" t="n">
-        <v>0.1310236706348268</v>
+        <v>-0.6079217108158195</v>
       </c>
       <c r="IN1" t="n">
-        <v>-0.01672989116441635</v>
+        <v>-0.5766245963943516</v>
       </c>
       <c r="IO1" t="n">
-        <v>-0.04770752194656083</v>
+        <v>-0.2348108666982983</v>
       </c>
       <c r="IP1" t="n">
-        <v>-0.03265610517321053</v>
+        <v>-0.3274618177056165</v>
       </c>
       <c r="IQ1" t="n">
-        <v>0.1212635323790001</v>
+        <v>-0.6079203749635573</v>
       </c>
       <c r="IR1" t="n">
-        <v>-0.01695661286609236</v>
+        <v>-0.5875900309743073</v>
       </c>
       <c r="IS1" t="n">
-        <v>-0.04809949595889186</v>
+        <v>-0.2872996365837592</v>
       </c>
       <c r="IT1" t="n">
-        <v>-0.03294717352498026</v>
+        <v>-0.3293687129029356</v>
       </c>
       <c r="IU1" t="n">
-        <v>0.1115783142847487</v>
+        <v>-0.6079270963780626</v>
       </c>
       <c r="IV1" t="n">
-        <v>0.005901461855965115</v>
+        <v>-0.587300213500449</v>
       </c>
       <c r="IW1" t="n">
-        <v>-0.04826243406930892</v>
+        <v>-0.3096563386660733</v>
       </c>
       <c r="IX1" t="n">
-        <v>-0.03303638794580037</v>
+        <v>-0.3512680362295564</v>
       </c>
       <c r="IY1" t="n">
-        <v>0.1014950583357048</v>
+        <v>-0.6079508307930235</v>
       </c>
       <c r="IZ1" t="n">
-        <v>0.005924456100094337</v>
+        <v>-0.5871214430035918</v>
       </c>
       <c r="JA1" t="n">
-        <v>-0.03285811900272043</v>
+        <v>-0.3313949698512801</v>
       </c>
       <c r="JB1" t="n">
-        <v>-0.03303436028706036</v>
+        <v>-0.3725449205874229</v>
       </c>
       <c r="JC1" t="n">
-        <v>0.102382391834492</v>
+        <v>-0.6079916877956334</v>
       </c>
       <c r="JD1" t="n">
-        <v>0.006114214881555884</v>
+        <v>-0.5870253573469422</v>
       </c>
       <c r="JE1" t="n">
-        <v>-0.03287507261846408</v>
+        <v>-0.3526223971244723</v>
       </c>
       <c r="JF1" t="n">
-        <v>-0.0330517094441854</v>
+        <v>-0.3732374087103823</v>
       </c>
       <c r="JG1" t="n">
-        <v>0.09167190002252466</v>
+        <v>-0.6080416909255518</v>
       </c>
       <c r="JH1" t="n">
-        <v>0.006195177510556239</v>
+        <v>-0.5963280786231643</v>
       </c>
       <c r="JI1" t="n">
-        <v>-0.04878280982341759</v>
+        <v>-0.3735018410656225</v>
       </c>
       <c r="JJ1" t="n">
-        <v>-0.03315257349199874</v>
+        <v>-0.4198658544842571</v>
       </c>
       <c r="JK1" t="n">
-        <v>0.07998053598041234</v>
+        <v>-0.6081577702200039</v>
       </c>
       <c r="JL1" t="n">
-        <v>-0.01048297362849017</v>
+        <v>-0.5964238928258694</v>
       </c>
       <c r="JM1" t="n">
-        <v>-0.04916602043628861</v>
+        <v>-0.3740890401041306</v>
       </c>
       <c r="JN1" t="n">
-        <v>-0.03350703635391357</v>
+        <v>-0.4402209942463663</v>
       </c>
       <c r="JO1" t="n">
-        <v>0.08019113323802361</v>
+        <v>-0.6109170732719327</v>
       </c>
       <c r="JP1" t="n">
-        <v>-0.01066668837965558</v>
+        <v>-0.618424278283241</v>
       </c>
       <c r="JQ1" t="n">
-        <v>-0.04947859063359786</v>
+        <v>-0.3944513435466191</v>
       </c>
       <c r="JR1" t="n">
-        <v>-0.01080076975364614</v>
+        <v>-0.4404700105084823</v>
       </c>
       <c r="JS1" t="n">
-        <v>0.06730155567553821</v>
+        <v>-0.608758584103397</v>
       </c>
       <c r="JT1" t="n">
-        <v>-0.03374679002360827</v>
+        <v>-0.618505581675886</v>
       </c>
       <c r="JU1" t="n">
-        <v>-0.02718787991091754</v>
+        <v>-0.3947379242902663</v>
       </c>
       <c r="JV1" t="n">
-        <v>-0.03394674738762063</v>
+        <v>-0.4601757058743469</v>
       </c>
       <c r="JW1" t="n">
-        <v>0.06722074724643275</v>
+        <v>-0.6088591889974924</v>
       </c>
       <c r="JX1" t="n">
-        <v>-0.03405478421528702</v>
+        <v>-0.618572416272771</v>
       </c>
       <c r="JY1" t="n">
-        <v>-0.02747286968630999</v>
+        <v>-0.4146143915254291</v>
       </c>
       <c r="JZ1" t="n">
-        <v>-0.03423309917239245</v>
+        <v>-0.4792369308615378</v>
       </c>
       <c r="KA1" t="n">
-        <v>0.05286481272545628</v>
+        <v>-0.6089654522335354</v>
       </c>
       <c r="KB1" t="n">
-        <v>-0.03442657270686729</v>
+        <v>-0.6250098046232986</v>
       </c>
       <c r="KC1" t="n">
-        <v>-0.02771587448503591</v>
+        <v>-0.4339718185416434</v>
       </c>
       <c r="KD1" t="n">
-        <v>-0.0114839293067348</v>
+        <v>-0.4791415664394338</v>
       </c>
       <c r="KE1" t="n">
-        <v>0.0527299070115799</v>
+        <v>-0.6092001201309872</v>
       </c>
       <c r="KF1" t="n">
-        <v>-0.03443875778275498</v>
+        <v>-0.6252215578050374</v>
       </c>
       <c r="KG1" t="n">
-        <v>-0.02777285496297361</v>
+        <v>-0.4338708266069582</v>
       </c>
       <c r="KH1" t="n">
-        <v>-0.01150907772936095</v>
+        <v>-0.4975422931965892</v>
       </c>
       <c r="KI1" t="n">
-        <v>0.05286752321400728</v>
+        <v>-0.6094111860487345</v>
       </c>
       <c r="KJ1" t="n">
-        <v>-0.03439551749556961</v>
+        <v>-0.6045266027696226</v>
       </c>
       <c r="KK1" t="n">
-        <v>-0.02779682928977845</v>
+        <v>-0.4526689919135147</v>
       </c>
       <c r="KL1" t="n">
-        <v>-0.03446514535563927</v>
+        <v>-0.4973048889723448</v>
       </c>
       <c r="KM1" t="n">
-        <v>0.05293220071498381</v>
+        <v>-0.6096019786262932</v>
       </c>
       <c r="KN1" t="n">
-        <v>-0.01144510973440623</v>
+        <v>-0.6046505713246615</v>
       </c>
       <c r="KO1" t="n">
-        <v>-0.01142684178602356</v>
+        <v>-0.4709092366159173</v>
       </c>
       <c r="KP1" t="n">
-        <v>-0.03437806108675569</v>
+        <v>-0.4970178247622605</v>
       </c>
       <c r="KQ1" t="n">
-        <v>0.03770340177149374</v>
+        <v>-0.6097776471189841</v>
       </c>
       <c r="KR1" t="n">
-        <v>-0.01147434140599474</v>
+        <v>-0.6047480933093965</v>
       </c>
       <c r="KS1" t="n">
-        <v>-0.02779486725149934</v>
+        <v>-0.4969096070910252</v>
       </c>
       <c r="KT1" t="n">
-        <v>-0.03449982370290873</v>
+        <v>-0.514653529178092</v>
       </c>
       <c r="KU1" t="n">
-        <v>0.03762825935602684</v>
+        <v>-0.6099288327942393</v>
       </c>
       <c r="KV1" t="n">
-        <v>-0.01152964577801519</v>
+        <v>-0.6048211228513731</v>
       </c>
       <c r="KW1" t="n">
-        <v>-0.02782161188247474</v>
+        <v>-0.5144849580954433</v>
       </c>
       <c r="KX1" t="n">
-        <v>-0.03451305227585039</v>
+        <v>-0.5143168785471718</v>
       </c>
       <c r="KY1" t="n">
-        <v>0.02154206294823119</v>
+        <v>-0.6100639303098454</v>
       </c>
       <c r="KZ1" t="n">
-        <v>-0.01158111266224346</v>
+        <v>-0.6048666138584687</v>
       </c>
       <c r="LA1" t="n">
-        <v>-0.02785686399641089</v>
+        <v>-0.5312266438614555</v>
       </c>
       <c r="LB1" t="n">
-        <v>-0.01152992030265948</v>
+        <v>-0.5139518795523833</v>
       </c>
       <c r="LC1" t="n">
-        <v>0.02168146552735786</v>
+        <v>-0.6101772753205709</v>
       </c>
       <c r="LD1" t="n">
-        <v>-0.01142599401980217</v>
+        <v>-0.6048813962840117</v>
       </c>
       <c r="LE1" t="n">
-        <v>-0.02766185971179479</v>
+        <v>-0.5308821625672779</v>
       </c>
       <c r="LF1" t="n">
-        <v>-0.03435209201286078</v>
+        <v>-0.5306836390420537</v>
       </c>
       <c r="LG1" t="n">
-        <v>0.02178683198916638</v>
+        <v>-0.6102734116532624</v>
       </c>
       <c r="LH1" t="n">
-        <v>-0.01132905002380354</v>
+        <v>-0.6259029903114297</v>
       </c>
       <c r="LI1" t="n">
-        <v>-0.02760391308557176</v>
+        <v>-0.5466375175580949</v>
       </c>
       <c r="LJ1" t="n">
-        <v>-0.01126969930881219</v>
+        <v>-0.5302901605362698</v>
       </c>
       <c r="LK1" t="n">
-        <v>0.02196272780023651</v>
+        <v>-0.6103495688856625</v>
       </c>
       <c r="LL1" t="n">
-        <v>-0.03403098915714275</v>
+        <v>-0.6304903400648987</v>
       </c>
       <c r="LM1" t="n">
-        <v>-0.02748424254951921</v>
+        <v>-0.546291333199614</v>
       </c>
       <c r="LN1" t="n">
-        <v>-0.01114985711848707</v>
+        <v>-0.5460868924215529</v>
       </c>
       <c r="LO1" t="n">
-        <v>0.005476695493802263</v>
+        <v>-0.6105556531251528</v>
       </c>
       <c r="LP1" t="n">
-        <v>-0.05006920671956996</v>
+        <v>-0.610677027810669</v>
       </c>
       <c r="LQ1" t="n">
-        <v>-0.02747095392781997</v>
+        <v>-0.5459357107101683</v>
       </c>
       <c r="LR1" t="n">
-        <v>-0.01115436320434428</v>
+        <v>-0.5457460588992959</v>
       </c>
       <c r="LS1" t="n">
-        <v>0.005496286766260352</v>
+        <v>-0.6107329780092703</v>
       </c>
       <c r="LT1" t="n">
-        <v>-0.05005825155016814</v>
+        <v>-0.6108472646824282</v>
       </c>
       <c r="LU1" t="n">
-        <v>-0.02744489574932575</v>
+        <v>-0.5606998794905754</v>
       </c>
       <c r="LV1" t="n">
-        <v>-0.01113571824802948</v>
+        <v>-0.5605121916833242</v>
       </c>
       <c r="LW1" t="n">
-        <v>0.00552064915134147</v>
+        <v>-0.6108587977035022</v>
       </c>
       <c r="LX1" t="n">
-        <v>-0.05001918744199033</v>
+        <v>-0.6310981022832758</v>
       </c>
       <c r="LY1" t="n">
-        <v>-0.05012640877143364</v>
+        <v>-0.5603888944514509</v>
       </c>
       <c r="LZ1" t="n">
-        <v>-0.011182354120082</v>
+        <v>-0.5602132896665672</v>
       </c>
       <c r="MA1" t="n">
-        <v>0.005462242444435092</v>
+        <v>-0.6048967017008139</v>
       </c>
       <c r="MB1" t="n">
-        <v>-0.05019162216536285</v>
+        <v>-0.6109905315204256</v>
       </c>
       <c r="MC1" t="n">
-        <v>-0.02755182350395737</v>
+        <v>-0.5739051325829054</v>
       </c>
       <c r="MD1" t="n">
-        <v>-0.01120336075286425</v>
+        <v>-0.5970782723370603</v>
       </c>
       <c r="ME1" t="n">
-        <v>0.005398642975274137</v>
+        <v>-0.6047914094638533</v>
       </c>
       <c r="MF1" t="n">
-        <v>-0.05026875303351261</v>
+        <v>-0.6109600754532801</v>
       </c>
       <c r="MG1" t="n">
-        <v>-0.0276230109382709</v>
+        <v>-0.573653674142642</v>
       </c>
       <c r="MH1" t="n">
-        <v>-0.03424420803661308</v>
+        <v>-0.5968324741470655</v>
       </c>
       <c r="MI1" t="n">
-        <v>0.02195419808312363</v>
+        <v>-0.6046985984393032</v>
       </c>
       <c r="MJ1" t="n">
-        <v>-0.02760476533167444</v>
+        <v>-0.6109392672333274</v>
       </c>
       <c r="MK1" t="n">
-        <v>-0.02756989733057563</v>
+        <v>-0.5734183635296408</v>
       </c>
       <c r="ML1" t="n">
-        <v>-0.03414824719536083</v>
+        <v>-0.596602419810262</v>
       </c>
       <c r="MM1" t="n">
-        <v>0.005429091155855898</v>
+        <v>-0.6046166168058957</v>
       </c>
       <c r="MN1" t="n">
-        <v>-0.02756531291839702</v>
+        <v>-0.6109266800892617</v>
       </c>
       <c r="MO1" t="n">
-        <v>-0.02756498224837602</v>
+        <v>-0.5731974472701465</v>
       </c>
       <c r="MP1" t="n">
-        <v>-0.03412692299073725</v>
+        <v>-0.5730717240715375</v>
       </c>
       <c r="MQ1" t="n">
-        <v>0.005458571399172434</v>
+        <v>-0.6045463601908097</v>
       </c>
       <c r="MR1" t="n">
-        <v>-0.02758394321938112</v>
+        <v>-0.6150265109679228</v>
       </c>
       <c r="MS1" t="n">
-        <v>-0.02757222126745913</v>
+        <v>-0.5854048193371285</v>
       </c>
       <c r="MT1" t="n">
-        <v>-0.03412764513634199</v>
+        <v>-0.5962230668833886</v>
       </c>
       <c r="MU1" t="n">
-        <v>0.005439948549299071</v>
+        <v>-0.6110736776728357</v>
       </c>
       <c r="MV1" t="n">
-        <v>-0.01119362650754693</v>
-      </c>
-      <c r="MW1" t="n">
-        <v>-0.02753642393967097</v>
-      </c>
-      <c r="MX1" t="n">
-        <v>-0.0341217959177382</v>
-      </c>
-      <c r="MY1" t="n">
-        <v>0.005508588212946619</v>
-      </c>
-      <c r="MZ1" t="n">
-        <v>-0.01113205352402959</v>
-      </c>
-      <c r="NA1" t="n">
-        <v>-0.01109872481233001</v>
-      </c>
-      <c r="NB1" t="n">
-        <v>-0.03399145028599644</v>
-      </c>
-      <c r="NC1" t="n">
-        <v>-0.01741770303080631</v>
-      </c>
-      <c r="ND1" t="n">
-        <v>-0.01114026914503567</v>
+        <v>-0.6111606789802639</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Mu1.xlsx
+++ b/Pruebas/Mu1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:MV1"/>
+  <dimension ref="A1:MB1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,1084 +423,1024 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.2430470468830055</v>
+        <v>-0.1785775009802456</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.04647637860537829</v>
+        <v>0.7522315978096429</v>
       </c>
       <c r="C1" t="n">
-        <v>-0.447882357897388</v>
+        <v>0.4095025512070473</v>
       </c>
       <c r="D1" t="n">
-        <v>-0.5007405002537219</v>
+        <v>-0.3498191475118254</v>
       </c>
       <c r="E1" t="n">
-        <v>0.3240627291773407</v>
+        <v>-0.2381033346403275</v>
       </c>
       <c r="F1" t="n">
-        <v>-0.04282073276365641</v>
+        <v>1.002975463746191</v>
       </c>
       <c r="G1" t="n">
-        <v>-0.597240548849943</v>
+        <v>0.5460034016093964</v>
       </c>
       <c r="H1" t="n">
-        <v>-0.6677304174299569</v>
+        <v>-0.4619062053175154</v>
       </c>
       <c r="I1" t="n">
-        <v>0.3645702622348343</v>
+        <v>-0.2678612626919863</v>
       </c>
       <c r="J1" t="n">
-        <v>-0.0411219539561034</v>
+        <v>1.128345958461715</v>
       </c>
       <c r="K1" t="n">
-        <v>-0.6692589457810764</v>
+        <v>0.6142251401901249</v>
       </c>
       <c r="L1" t="n">
-        <v>-0.7511691627312617</v>
+        <v>-0.5185603351456192</v>
       </c>
       <c r="M1" t="n">
-        <v>0.4151023347803876</v>
+        <v>-0.2692807453956369</v>
       </c>
       <c r="N1" t="n">
-        <v>-0.03666624632933814</v>
+        <v>1.203569330428827</v>
       </c>
       <c r="O1" t="n">
-        <v>-0.6985201155228317</v>
+        <v>0.6772920431535845</v>
       </c>
       <c r="P1" t="n">
-        <v>-0.7826697027789282</v>
+        <v>-0.5112579182493817</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.516343688390375</v>
+        <v>-0.2212914324485788</v>
       </c>
       <c r="R1" t="n">
-        <v>-0.0259091125709091</v>
+        <v>1.253719363575422</v>
       </c>
       <c r="S1" t="n">
-        <v>-0.7115923962680305</v>
+        <v>0.7319434565921503</v>
       </c>
       <c r="T1" t="n">
-        <v>-0.8009535456692156</v>
+        <v>-0.4818689117365623</v>
       </c>
       <c r="U1" t="n">
-        <v>0.6416803108686042</v>
+        <v>-0.1666497584158365</v>
       </c>
       <c r="V1" t="n">
-        <v>0.006782080674302443</v>
+        <v>1.289541677360793</v>
       </c>
       <c r="W1" t="n">
-        <v>-0.6968882532597239</v>
+        <v>0.7879133973146055</v>
       </c>
       <c r="X1" t="n">
-        <v>-0.7896798727752685</v>
+        <v>-0.4149808410994653</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.8069002055747232</v>
+        <v>-0.08184397288244563</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.03936536330029235</v>
+        <v>1.316409681202283</v>
       </c>
       <c r="AA1" t="n">
-        <v>-0.6702545089379928</v>
+        <v>0.8392598618839781</v>
       </c>
       <c r="AB1" t="n">
-        <v>-0.7683662441597293</v>
+        <v>-0.3088101855115051</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.8288948823282807</v>
+        <v>0.02606144317160422</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.09915557568473649</v>
+        <v>1.337312938139655</v>
       </c>
       <c r="AE1" t="n">
-        <v>-0.6360346476830981</v>
+        <v>0.8714363075551487</v>
       </c>
       <c r="AF1" t="n">
-        <v>-0.7604139026182004</v>
+        <v>-0.1958881392121127</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.8021858064046083</v>
+        <v>0.09589352828544981</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.1627603746927536</v>
+        <v>1.354038377696989</v>
       </c>
       <c r="AI1" t="n">
-        <v>-0.6774084650191204</v>
+        <v>0.8934432494466584</v>
       </c>
       <c r="AJ1" t="n">
-        <v>-0.7465342634368453</v>
+        <v>-0.06502543393492713</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.7457038484031177</v>
+        <v>0.1955270363388851</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.2477275637271054</v>
+        <v>1.367739385671638</v>
       </c>
       <c r="AM1" t="n">
-        <v>-0.7312322785649005</v>
+        <v>0.8809088253608861</v>
       </c>
       <c r="AN1" t="n">
-        <v>-0.6835216042732725</v>
+        <v>0.05108361100003402</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.7083168715088036</v>
+        <v>0.2710914264312181</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.3344167984866743</v>
+        <v>1.379165175679218</v>
       </c>
       <c r="AQ1" t="n">
-        <v>-0.7390396462915521</v>
+        <v>0.8509541159575562</v>
       </c>
       <c r="AR1" t="n">
-        <v>-0.7221221650936051</v>
+        <v>0.1194867978264128</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.6264040331263954</v>
+        <v>0.3421359947184071</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.4426312128143971</v>
+        <v>1.388841407618198</v>
       </c>
       <c r="AU1" t="n">
-        <v>-0.7067811716002459</v>
+        <v>0.9028263557760141</v>
       </c>
       <c r="AV1" t="n">
-        <v>-0.6567507653149617</v>
+        <v>0.218634249364879</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.6110849486330919</v>
+        <v>0.4098411632667996</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.5542493538966284</v>
+        <v>1.397154058279797</v>
       </c>
       <c r="AY1" t="n">
-        <v>-0.6245320114088293</v>
+        <v>0.8872733527265576</v>
       </c>
       <c r="AZ1" t="n">
-        <v>-0.6482914693721898</v>
+        <v>0.3291383422106914</v>
       </c>
       <c r="BA1" t="n">
-        <v>0.5948726177983478</v>
+        <v>0.5043167529778284</v>
       </c>
       <c r="BB1" t="n">
-        <v>0.7171542064834707</v>
+        <v>1.404433436072028</v>
       </c>
       <c r="BC1" t="n">
-        <v>-0.5940642010866717</v>
+        <v>0.8981652366369794</v>
       </c>
       <c r="BD1" t="n">
-        <v>-0.6180457439727968</v>
+        <v>0.4271581771790654</v>
       </c>
       <c r="BE1" t="n">
-        <v>0.603740647958974</v>
+        <v>0.5773851023056503</v>
       </c>
       <c r="BF1" t="n">
-        <v>0.8019877811335099</v>
+        <v>1.410852599887637</v>
       </c>
       <c r="BG1" t="n">
-        <v>-0.6373587782650135</v>
+        <v>0.8856351242877251</v>
       </c>
       <c r="BH1" t="n">
-        <v>-0.6307972897099549</v>
+        <v>0.5388935696983298</v>
       </c>
       <c r="BI1" t="n">
-        <v>0.5417618645597954</v>
+        <v>0.6705690793990693</v>
       </c>
       <c r="BJ1" t="n">
-        <v>0.9026390969878058</v>
+        <v>1.416685235370318</v>
       </c>
       <c r="BK1" t="n">
-        <v>-0.6403695591021419</v>
+        <v>0.9071946709698373</v>
       </c>
       <c r="BL1" t="n">
-        <v>-0.6159818234119185</v>
+        <v>0.640026510363813</v>
       </c>
       <c r="BM1" t="n">
-        <v>0.5412639312881768</v>
+        <v>0.7459494015865296</v>
       </c>
       <c r="BN1" t="n">
-        <v>1.023058097527656</v>
+        <v>1.421986993678373</v>
       </c>
       <c r="BO1" t="n">
-        <v>-0.6278683798885643</v>
+        <v>0.9035080238867108</v>
       </c>
       <c r="BP1" t="n">
-        <v>-0.5806536819597895</v>
+        <v>0.7523449041831343</v>
       </c>
       <c r="BQ1" t="n">
-        <v>0.5523162435625414</v>
+        <v>0.8356533072444292</v>
       </c>
       <c r="BR1" t="n">
-        <v>1.122497720585741</v>
+        <v>1.427048639792404</v>
       </c>
       <c r="BS1" t="n">
-        <v>-0.610637175785377</v>
+        <v>0.929572732730197</v>
       </c>
       <c r="BT1" t="n">
-        <v>-0.5664464941292868</v>
+        <v>0.858207889240243</v>
       </c>
       <c r="BU1" t="n">
-        <v>0.536723513077717</v>
+        <v>0.9106174719702413</v>
       </c>
       <c r="BV1" t="n">
-        <v>1.210073817784228</v>
+        <v>1.431832654239177</v>
       </c>
       <c r="BW1" t="n">
-        <v>-0.5693811182861469</v>
+        <v>0.9485520852679084</v>
       </c>
       <c r="BX1" t="n">
-        <v>-0.5283819925661476</v>
+        <v>0.954976021406196</v>
       </c>
       <c r="BY1" t="n">
-        <v>0.5553481414144945</v>
+        <v>1.007530747040791</v>
       </c>
       <c r="BZ1" t="n">
-        <v>1.297714579071503</v>
+        <v>1.439953943439153</v>
       </c>
       <c r="CA1" t="n">
-        <v>-0.5525514541799563</v>
+        <v>0.9462809778155039</v>
       </c>
       <c r="CB1" t="n">
-        <v>-0.5084229826959331</v>
+        <v>1.04329179828779</v>
       </c>
       <c r="CC1" t="n">
-        <v>0.5421641045022579</v>
+        <v>1.089626548560504</v>
       </c>
       <c r="CD1" t="n">
-        <v>1.335302041127181</v>
+        <v>1.44856242422584</v>
       </c>
       <c r="CE1" t="n">
-        <v>-0.5177950165884254</v>
+        <v>0.9676775636222851</v>
       </c>
       <c r="CF1" t="n">
-        <v>-0.4440433033904467</v>
+        <v>1.125908662177359</v>
       </c>
       <c r="CG1" t="n">
-        <v>0.5249099608376385</v>
+        <v>1.161284481807269</v>
       </c>
       <c r="CH1" t="n">
-        <v>1.372118287239724</v>
+        <v>1.457417212487142</v>
       </c>
       <c r="CI1" t="n">
-        <v>-0.5046135036309664</v>
+        <v>0.9699657446759081</v>
       </c>
       <c r="CJ1" t="n">
-        <v>-0.418383563178415</v>
+        <v>1.190728144513453</v>
       </c>
       <c r="CK1" t="n">
-        <v>0.4601045006877875</v>
+        <v>1.253832855156489</v>
       </c>
       <c r="CL1" t="n">
-        <v>1.344714785801894</v>
+        <v>1.49292409812147</v>
       </c>
       <c r="CM1" t="n">
-        <v>-0.4846856358317909</v>
+        <v>1.011218788687648</v>
       </c>
       <c r="CN1" t="n">
-        <v>-0.3691523320672196</v>
+        <v>1.268935433971931</v>
       </c>
       <c r="CO1" t="n">
-        <v>0.5185478188997894</v>
+        <v>1.335279489362344</v>
       </c>
       <c r="CP1" t="n">
-        <v>1.420772233333136</v>
+        <v>1.539892359867928</v>
       </c>
       <c r="CQ1" t="n">
-        <v>-0.4873265983813314</v>
+        <v>1.044437406111695</v>
       </c>
       <c r="CR1" t="n">
-        <v>-0.3549289246580426</v>
+        <v>1.343803419651468</v>
       </c>
       <c r="CS1" t="n">
-        <v>0.7417890864797452</v>
+        <v>1.441822253739329</v>
       </c>
       <c r="CT1" t="n">
-        <v>1.439550748329723</v>
+        <v>1.609191839973365</v>
       </c>
       <c r="CU1" t="n">
-        <v>-0.4355174350077554</v>
+        <v>1.098388576443186</v>
       </c>
       <c r="CV1" t="n">
-        <v>-0.2713732766949637</v>
+        <v>1.445100911999646</v>
       </c>
       <c r="CW1" t="n">
-        <v>0.6965796863154169</v>
+        <v>1.528972924547013</v>
       </c>
       <c r="CX1" t="n">
-        <v>1.41491901828974</v>
+        <v>1.673584043828162</v>
       </c>
       <c r="CY1" t="n">
-        <v>-0.443000488639631</v>
+        <v>1.160098210905133</v>
       </c>
       <c r="CZ1" t="n">
-        <v>-0.2253617641561543</v>
+        <v>1.529360587049896</v>
       </c>
       <c r="DA1" t="n">
-        <v>0.5907013237663047</v>
+        <v>1.617929461058077</v>
       </c>
       <c r="DB1" t="n">
-        <v>1.295451438874243</v>
+        <v>1.725558728683087</v>
       </c>
       <c r="DC1" t="n">
-        <v>-0.4233363179899155</v>
+        <v>1.223191566047642</v>
       </c>
       <c r="DD1" t="n">
-        <v>-0.1749947309860267</v>
+        <v>1.628079114367045</v>
       </c>
       <c r="DE1" t="n">
-        <v>0.548053811826918</v>
+        <v>1.690416683333844</v>
       </c>
       <c r="DF1" t="n">
-        <v>1.25220341472989</v>
+        <v>1.75679846606255</v>
       </c>
       <c r="DG1" t="n">
-        <v>-0.4319814843811939</v>
+        <v>1.289874598177156</v>
       </c>
       <c r="DH1" t="n">
-        <v>-0.1201143969378747</v>
+        <v>1.686189982999997</v>
       </c>
       <c r="DI1" t="n">
-        <v>0.5090748536161537</v>
+        <v>1.727236329119511</v>
       </c>
       <c r="DJ1" t="n">
-        <v>1.096287356491779</v>
+        <v>1.77145597643682</v>
       </c>
       <c r="DK1" t="n">
-        <v>-0.4124901571364229</v>
+        <v>1.344719699067436</v>
       </c>
       <c r="DL1" t="n">
-        <v>-0.06059172852543482</v>
+        <v>1.727698656077189</v>
       </c>
       <c r="DM1" t="n">
-        <v>0.4194538411826305</v>
+        <v>1.761169187500213</v>
       </c>
       <c r="DN1" t="n">
-        <v>1.044546975494937</v>
+        <v>1.772635733337154</v>
       </c>
       <c r="DO1" t="n">
-        <v>-0.3470799189673595</v>
+        <v>1.38023291733425</v>
       </c>
       <c r="DP1" t="n">
-        <v>0.06372305219381967</v>
+        <v>1.758716616589173</v>
       </c>
       <c r="DQ1" t="n">
-        <v>0.3874262305361738</v>
+        <v>1.762764116686181</v>
       </c>
       <c r="DR1" t="n">
-        <v>0.9345523765994104</v>
+        <v>1.76629406133305</v>
       </c>
       <c r="DS1" t="n">
-        <v>-0.3052825017750888</v>
+        <v>1.436751765335289</v>
       </c>
       <c r="DT1" t="n">
-        <v>0.1439420567122849</v>
+        <v>1.767139560707688</v>
       </c>
       <c r="DU1" t="n">
-        <v>0.5874511458308894</v>
+        <v>1.768347274908732</v>
       </c>
       <c r="DV1" t="n">
-        <v>1.060363908985964</v>
+        <v>1.771087842154369</v>
       </c>
       <c r="DW1" t="n">
-        <v>-0.3208733135510553</v>
+        <v>1.483252386264525</v>
       </c>
       <c r="DX1" t="n">
-        <v>0.09829207960556444</v>
+        <v>1.773416763189618</v>
       </c>
       <c r="DY1" t="n">
-        <v>0.7036383401622076</v>
+        <v>1.775589696125659</v>
       </c>
       <c r="DZ1" t="n">
-        <v>1.282394102729565</v>
+        <v>1.777560554225474</v>
       </c>
       <c r="EA1" t="n">
-        <v>-0.3380598874568952</v>
+        <v>1.525812256024835</v>
       </c>
       <c r="EB1" t="n">
-        <v>0.04530216657080166</v>
+        <v>1.779522482827363</v>
       </c>
       <c r="EC1" t="n">
-        <v>0.9440176284890194</v>
+        <v>1.781158326968957</v>
       </c>
       <c r="ED1" t="n">
-        <v>1.376950601489113</v>
+        <v>1.778642794025847</v>
       </c>
       <c r="EE1" t="n">
-        <v>-0.3560732318321211</v>
+        <v>1.565678067848871</v>
       </c>
       <c r="EF1" t="n">
-        <v>0.01545705259444889</v>
+        <v>1.783571090175109</v>
       </c>
       <c r="EG1" t="n">
-        <v>1.065200403182433</v>
+        <v>1.784872732010293</v>
       </c>
       <c r="EH1" t="n">
-        <v>1.482442178930586</v>
+        <v>1.786079472508093</v>
       </c>
       <c r="EI1" t="n">
-        <v>-0.3749629622834015</v>
+        <v>1.600160036157562</v>
       </c>
       <c r="EJ1" t="n">
-        <v>-0.01087670660593147</v>
+        <v>1.787854496912529</v>
       </c>
       <c r="EK1" t="n">
-        <v>1.181951207431167</v>
+        <v>1.788877629918625</v>
       </c>
       <c r="EL1" t="n">
-        <v>1.551117974182699</v>
+        <v>1.789833539716124</v>
       </c>
       <c r="EM1" t="n">
-        <v>-0.3949895156425817</v>
+        <v>1.630338381905566</v>
       </c>
       <c r="EN1" t="n">
-        <v>-0.06914738743648476</v>
+        <v>1.791378503320209</v>
       </c>
       <c r="EO1" t="n">
-        <v>1.379811212086948</v>
+        <v>1.784729116160189</v>
       </c>
       <c r="EP1" t="n">
-        <v>1.566648612848345</v>
+        <v>1.792280599322883</v>
       </c>
       <c r="EQ1" t="n">
-        <v>-0.3998256329558292</v>
+        <v>1.652690636724574</v>
       </c>
       <c r="ER1" t="n">
-        <v>-0.1283284491289178</v>
+        <v>1.794288133275722</v>
       </c>
       <c r="ES1" t="n">
-        <v>1.45594014155773</v>
+        <v>1.794956654535175</v>
       </c>
       <c r="ET1" t="n">
-        <v>1.530794395011742</v>
+        <v>1.795588476460304</v>
       </c>
       <c r="EU1" t="n">
-        <v>-0.4201428822616207</v>
+        <v>1.67734040586602</v>
       </c>
       <c r="EV1" t="n">
-        <v>-0.1610757562717749</v>
+        <v>1.797244712910485</v>
       </c>
       <c r="EW1" t="n">
-        <v>1.54871288452343</v>
+        <v>1.787967024517092</v>
       </c>
       <c r="EX1" t="n">
-        <v>1.484671883253333</v>
+        <v>1.789246764144877</v>
       </c>
       <c r="EY1" t="n">
-        <v>-0.441600191220322</v>
+        <v>1.702748574547648</v>
       </c>
       <c r="EZ1" t="n">
-        <v>-0.1900305419888283</v>
+        <v>1.783571573791459</v>
       </c>
       <c r="FA1" t="n">
-        <v>1.564516559759363</v>
+        <v>1.784930146047756</v>
       </c>
       <c r="FB1" t="n">
-        <v>1.421127574308603</v>
+        <v>1.786836704013226</v>
       </c>
       <c r="FC1" t="n">
-        <v>-0.4642683444515351</v>
+        <v>1.725300561216939</v>
       </c>
       <c r="FD1" t="n">
-        <v>-0.2483630738870545</v>
+        <v>1.791539600164636</v>
       </c>
       <c r="FE1" t="n">
-        <v>1.554885968448005</v>
+        <v>1.793080233775006</v>
       </c>
       <c r="FF1" t="n">
-        <v>1.248309521204341</v>
+        <v>1.785940730427765</v>
       </c>
       <c r="FG1" t="n">
-        <v>-0.4877269013126321</v>
+        <v>1.754387945511114</v>
       </c>
       <c r="FH1" t="n">
-        <v>-0.2772929508212728</v>
+        <v>1.800146294119895</v>
       </c>
       <c r="FI1" t="n">
-        <v>1.484991001225626</v>
+        <v>1.79413342065963</v>
       </c>
       <c r="FJ1" t="n">
-        <v>1.149145495370394</v>
+        <v>1.795978154175635</v>
       </c>
       <c r="FK1" t="n">
-        <v>-0.4874908280202605</v>
+        <v>1.77474572549983</v>
       </c>
       <c r="FL1" t="n">
-        <v>-0.3056115782174341</v>
+        <v>1.800984130203922</v>
       </c>
       <c r="FM1" t="n">
-        <v>1.423187436580617</v>
+        <v>1.802456629740624</v>
       </c>
       <c r="FN1" t="n">
-        <v>1.043307006475598</v>
+        <v>1.803848067199247</v>
       </c>
       <c r="FO1" t="n">
-        <v>-0.5104638924584204</v>
+        <v>1.798673917216091</v>
       </c>
       <c r="FP1" t="n">
-        <v>-0.3340057809320376</v>
+        <v>1.806920278466715</v>
       </c>
       <c r="FQ1" t="n">
-        <v>1.307555945712047</v>
+        <v>1.808086248139639</v>
       </c>
       <c r="FR1" t="n">
-        <v>0.879502252390181</v>
+        <v>1.809194677700402</v>
       </c>
       <c r="FS1" t="n">
-        <v>-0.533453659828483</v>
+        <v>1.804225092069653</v>
       </c>
       <c r="FT1" t="n">
-        <v>-0.3619298482480477</v>
+        <v>1.811686081676985</v>
       </c>
       <c r="FU1" t="n">
-        <v>1.156926647718365</v>
+        <v>1.812631209877935</v>
       </c>
       <c r="FV1" t="n">
-        <v>0.7724389829190997</v>
+        <v>1.807832105358563</v>
       </c>
       <c r="FW1" t="n">
-        <v>-0.5374907341640056</v>
+        <v>1.809244928474739</v>
       </c>
       <c r="FX1" t="n">
-        <v>-0.388313696793305</v>
+        <v>1.815962765512709</v>
       </c>
       <c r="FY1" t="n">
-        <v>1.054541732101041</v>
+        <v>1.816732972838274</v>
       </c>
       <c r="FZ1" t="n">
-        <v>0.6665349422714613</v>
+        <v>1.812201349184066</v>
       </c>
       <c r="GA1" t="n">
-        <v>-0.5593647418439098</v>
+        <v>1.813382948658154</v>
       </c>
       <c r="GB1" t="n">
-        <v>-0.4383043575361169</v>
+        <v>1.819500934098821</v>
       </c>
       <c r="GC1" t="n">
-        <v>0.9481154528030705</v>
+        <v>1.815190895489657</v>
       </c>
       <c r="GD1" t="n">
-        <v>0.5023723623563229</v>
+        <v>1.816227651620099</v>
       </c>
       <c r="GE1" t="n">
-        <v>-0.562462648033966</v>
+        <v>1.817217378447867</v>
       </c>
       <c r="GF1" t="n">
-        <v>-0.4382534537962379</v>
+        <v>1.818163205016052</v>
       </c>
       <c r="GG1" t="n">
-        <v>0.7844060329869558</v>
+        <v>1.819067988807141</v>
       </c>
       <c r="GH1" t="n">
-        <v>0.405545264444572</v>
+        <v>1.81993434457735</v>
       </c>
       <c r="GI1" t="n">
-        <v>-0.5649425773565642</v>
+        <v>1.820764669593405</v>
       </c>
       <c r="GJ1" t="n">
-        <v>-0.4616292761769785</v>
+        <v>1.821561165784746</v>
       </c>
       <c r="GK1" t="n">
-        <v>0.6254587401777977</v>
+        <v>1.822325859242247</v>
       </c>
       <c r="GL1" t="n">
-        <v>0.2811723969765095</v>
+        <v>1.823060617426985</v>
       </c>
       <c r="GM1" t="n">
-        <v>-0.5668141799267452</v>
+        <v>1.823767164396815</v>
       </c>
       <c r="GN1" t="n">
-        <v>-0.4828059586661974</v>
+        <v>1.824447094312093</v>
       </c>
       <c r="GO1" t="n">
-        <v>0.5232866314000031</v>
+        <v>1.825101883443256</v>
       </c>
       <c r="GP1" t="n">
-        <v>0.2494007579505794</v>
+        <v>1.82573290087062</v>
       </c>
       <c r="GQ1" t="n">
-        <v>-0.5870600600650533</v>
+        <v>1.826341418039602</v>
       </c>
       <c r="GR1" t="n">
-        <v>-0.5052374567858093</v>
+        <v>1.826928617311718</v>
       </c>
       <c r="GS1" t="n">
-        <v>0.4258504275982691</v>
+        <v>1.827495599632353</v>
       </c>
       <c r="GT1" t="n">
-        <v>0.1699759918248996</v>
+        <v>1.828043391419953</v>
       </c>
       <c r="GU1" t="n">
-        <v>-0.587795944184987</v>
+        <v>1.828572950767325</v>
       </c>
       <c r="GV1" t="n">
-        <v>-0.5249759731813025</v>
+        <v>1.829085173033859</v>
       </c>
       <c r="GW1" t="n">
-        <v>0.2981518441788107</v>
+        <v>1.82479364669904</v>
       </c>
       <c r="GX1" t="n">
-        <v>0.09553796293467967</v>
+        <v>1.830275273845217</v>
       </c>
       <c r="GY1" t="n">
-        <v>-0.5878606545992218</v>
+        <v>1.830735394765489</v>
       </c>
       <c r="GZ1" t="n">
-        <v>-0.5237426618733204</v>
+        <v>1.826587728412934</v>
       </c>
       <c r="HA1" t="n">
-        <v>0.2144852730052818</v>
+        <v>1.827321064934649</v>
       </c>
       <c r="HB1" t="n">
-        <v>0.02529885487450163</v>
+        <v>1.832417109147167</v>
       </c>
       <c r="HC1" t="n">
-        <v>-0.5879758128292982</v>
+        <v>1.828460839839182</v>
       </c>
       <c r="HD1" t="n">
-        <v>-0.5224417031483382</v>
+        <v>1.829122853146807</v>
       </c>
       <c r="HE1" t="n">
-        <v>0.1810279054337474</v>
+        <v>1.833931346838494</v>
       </c>
       <c r="HF1" t="n">
-        <v>-0.001393663304856907</v>
+        <v>1.830151058444715</v>
       </c>
       <c r="HG1" t="n">
-        <v>-0.5881222151378024</v>
+        <v>1.834805273993197</v>
       </c>
       <c r="HH1" t="n">
-        <v>-0.5400510298410781</v>
+        <v>1.835142320885535</v>
       </c>
       <c r="HI1" t="n">
-        <v>0.105023405008585</v>
+        <v>1.835470421536614</v>
       </c>
       <c r="HJ1" t="n">
-        <v>-0.06578304784488992</v>
+        <v>1.831819558878748</v>
       </c>
       <c r="HK1" t="n">
-        <v>-0.5880544096298249</v>
+        <v>1.836252125385034</v>
       </c>
       <c r="HL1" t="n">
-        <v>-0.5385636142848129</v>
+        <v>1.836552734257442</v>
       </c>
       <c r="HM1" t="n">
-        <v>0.03259477786645415</v>
+        <v>1.833004220820547</v>
       </c>
       <c r="HN1" t="n">
-        <v>-0.0925150744139368</v>
+        <v>1.833505773951584</v>
       </c>
       <c r="HO1" t="n">
-        <v>-0.5880549109038654</v>
+        <v>1.837686537026902</v>
       </c>
       <c r="HP1" t="n">
-        <v>-0.5541476374478285</v>
+        <v>1.834280608715067</v>
       </c>
       <c r="HQ1" t="n">
-        <v>-0.03555938644115982</v>
+        <v>1.83834613852926</v>
       </c>
       <c r="HR1" t="n">
-        <v>-0.1190141849962978</v>
+        <v>1.838598916382468</v>
       </c>
       <c r="HS1" t="n">
-        <v>-0.6079871981717456</v>
+        <v>1.83884582438826</v>
       </c>
       <c r="HT1" t="n">
-        <v>-0.5528838148242198</v>
+        <v>1.8390870646588</v>
       </c>
       <c r="HU1" t="n">
-        <v>-0.06234361531773833</v>
+        <v>1.835796521861438</v>
       </c>
       <c r="HV1" t="n">
-        <v>-0.1772455770340458</v>
+        <v>1.839673118890028</v>
       </c>
       <c r="HW1" t="n">
-        <v>-0.6080537881166511</v>
+        <v>1.836451352985869</v>
       </c>
       <c r="HX1" t="n">
-        <v>-0.5667533174094259</v>
+        <v>1.840230321269845</v>
       </c>
       <c r="HY1" t="n">
-        <v>-0.1251054339202235</v>
+        <v>1.837074525773496</v>
       </c>
       <c r="HZ1" t="n">
-        <v>-0.2028461757476777</v>
+        <v>1.83745109162439</v>
       </c>
       <c r="IA1" t="n">
-        <v>-0.608022375702453</v>
+        <v>1.83781740585015</v>
       </c>
       <c r="IB1" t="n">
-        <v>-0.5656736012073394</v>
+        <v>1.838173881464056</v>
       </c>
       <c r="IC1" t="n">
-        <v>-0.1839147534063136</v>
+        <v>1.838520909587634</v>
       </c>
       <c r="ID1" t="n">
-        <v>-0.2280071156533185</v>
+        <v>1.838858860882145</v>
       </c>
       <c r="IE1" t="n">
-        <v>-0.6080110228250288</v>
+        <v>1.839188086869211</v>
       </c>
       <c r="IF1" t="n">
-        <v>-0.5779633837625573</v>
+        <v>1.839508921150442</v>
       </c>
       <c r="IG1" t="n">
-        <v>-0.187359870083793</v>
+        <v>1.83982168053499</v>
       </c>
       <c r="IH1" t="n">
-        <v>-0.2812536296655604</v>
+        <v>1.840126666083014</v>
       </c>
       <c r="II1" t="n">
-        <v>-0.6079485508147078</v>
+        <v>1.840424164072297</v>
       </c>
       <c r="IJ1" t="n">
-        <v>-0.5771948671601502</v>
+        <v>1.840714446894532</v>
       </c>
       <c r="IK1" t="n">
-        <v>-0.2115342228703298</v>
+        <v>1.840997773887173</v>
       </c>
       <c r="IL1" t="n">
-        <v>-0.3047962962497491</v>
+        <v>1.841274392106207</v>
       </c>
       <c r="IM1" t="n">
-        <v>-0.6079217108158195</v>
+        <v>1.841544537044655</v>
       </c>
       <c r="IN1" t="n">
-        <v>-0.5766245963943516</v>
+        <v>1.841808433301237</v>
       </c>
       <c r="IO1" t="n">
-        <v>-0.2348108666982983</v>
+        <v>1.842066295203143</v>
       </c>
       <c r="IP1" t="n">
-        <v>-0.3274618177056165</v>
+        <v>1.842318327386588</v>
       </c>
       <c r="IQ1" t="n">
-        <v>-0.6079203749635573</v>
+        <v>1.842564725338417</v>
       </c>
       <c r="IR1" t="n">
-        <v>-0.5875900309743073</v>
+        <v>1.84280567590179</v>
       </c>
       <c r="IS1" t="n">
-        <v>-0.2872996365837592</v>
+        <v>1.843041357748703</v>
       </c>
       <c r="IT1" t="n">
-        <v>-0.3293687129029356</v>
+        <v>1.843271941821839</v>
       </c>
       <c r="IU1" t="n">
-        <v>-0.6079270963780626</v>
+        <v>1.843497591748052</v>
       </c>
       <c r="IV1" t="n">
-        <v>-0.587300213500449</v>
+        <v>1.843718464225602</v>
       </c>
       <c r="IW1" t="n">
-        <v>-0.3096563386660733</v>
+        <v>1.843934709387037</v>
       </c>
       <c r="IX1" t="n">
-        <v>-0.3512680362295564</v>
+        <v>1.844146471139511</v>
       </c>
       <c r="IY1" t="n">
-        <v>-0.6079508307930235</v>
+        <v>1.844353887484151</v>
       </c>
       <c r="IZ1" t="n">
-        <v>-0.5871214430035918</v>
+        <v>1.844557090815965</v>
       </c>
       <c r="JA1" t="n">
-        <v>-0.3313949698512801</v>
+        <v>1.844756208205653</v>
       </c>
       <c r="JB1" t="n">
-        <v>-0.3725449205874229</v>
+        <v>1.844951361664596</v>
       </c>
       <c r="JC1" t="n">
-        <v>-0.6079916877956334</v>
+        <v>1.845142668394166</v>
       </c>
       <c r="JD1" t="n">
-        <v>-0.5870253573469422</v>
+        <v>1.845330241020444</v>
       </c>
       <c r="JE1" t="n">
-        <v>-0.3526223971244723</v>
+        <v>1.845514187815324</v>
       </c>
       <c r="JF1" t="n">
-        <v>-0.3732374087103823</v>
+        <v>1.845694612904916</v>
       </c>
       <c r="JG1" t="n">
-        <v>-0.6080416909255518</v>
+        <v>1.8458716164661</v>
       </c>
       <c r="JH1" t="n">
-        <v>-0.5963280786231643</v>
+        <v>1.846045294911987</v>
       </c>
       <c r="JI1" t="n">
-        <v>-0.3735018410656225</v>
+        <v>1.846215741067048</v>
       </c>
       <c r="JJ1" t="n">
-        <v>-0.4198658544842571</v>
+        <v>1.846383044332536</v>
       </c>
       <c r="JK1" t="n">
-        <v>-0.6081577702200039</v>
+        <v>1.846547290842845</v>
       </c>
       <c r="JL1" t="n">
-        <v>-0.5964238928258694</v>
+        <v>1.84670856361339</v>
       </c>
       <c r="JM1" t="n">
-        <v>-0.3740890401041306</v>
+        <v>1.846866942680505</v>
       </c>
       <c r="JN1" t="n">
-        <v>-0.4402209942463663</v>
+        <v>1.847022505233892</v>
       </c>
       <c r="JO1" t="n">
-        <v>-0.6109170732719327</v>
+        <v>1.847175325742066</v>
       </c>
       <c r="JP1" t="n">
-        <v>-0.618424278283241</v>
+        <v>1.847325476071211</v>
       </c>
       <c r="JQ1" t="n">
-        <v>-0.3944513435466191</v>
+        <v>1.847473025597885</v>
       </c>
       <c r="JR1" t="n">
-        <v>-0.4404700105084823</v>
+        <v>1.847618041315886</v>
       </c>
       <c r="JS1" t="n">
-        <v>-0.608758584103397</v>
+        <v>1.847760587937694</v>
       </c>
       <c r="JT1" t="n">
-        <v>-0.618505581675886</v>
+        <v>1.847900727990739</v>
       </c>
       <c r="JU1" t="n">
-        <v>-0.3947379242902663</v>
+        <v>1.848038521908872</v>
       </c>
       <c r="JV1" t="n">
-        <v>-0.4601757058743469</v>
+        <v>1.848174028119244</v>
       </c>
       <c r="JW1" t="n">
-        <v>-0.6088591889974924</v>
+        <v>1.848307303124924</v>
       </c>
       <c r="JX1" t="n">
-        <v>-0.618572416272771</v>
+        <v>1.848438401583445</v>
       </c>
       <c r="JY1" t="n">
-        <v>-0.4146143915254291</v>
+        <v>1.848567376381555</v>
       </c>
       <c r="JZ1" t="n">
-        <v>-0.4792369308615378</v>
+        <v>1.848694278706339</v>
       </c>
       <c r="KA1" t="n">
-        <v>-0.6089654522335354</v>
+        <v>1.848819158112964</v>
       </c>
       <c r="KB1" t="n">
-        <v>-0.6250098046232986</v>
+        <v>1.848942062589196</v>
       </c>
       <c r="KC1" t="n">
-        <v>-0.4339718185416434</v>
+        <v>1.849063038616886</v>
       </c>
       <c r="KD1" t="n">
-        <v>-0.4791415664394338</v>
+        <v>1.849182131230581</v>
       </c>
       <c r="KE1" t="n">
-        <v>-0.6092001201309872</v>
+        <v>1.845628608028084</v>
       </c>
       <c r="KF1" t="n">
-        <v>-0.6252215578050374</v>
+        <v>1.849481851605116</v>
       </c>
       <c r="KG1" t="n">
-        <v>-0.4338708266069582</v>
+        <v>1.849594792917316</v>
       </c>
       <c r="KH1" t="n">
-        <v>-0.4975422931965892</v>
+        <v>1.846109987793753</v>
       </c>
       <c r="KI1" t="n">
-        <v>-0.6094111860487345</v>
+        <v>1.849879720439122</v>
       </c>
       <c r="KJ1" t="n">
-        <v>-0.6045266027696226</v>
+        <v>1.846448973619295</v>
       </c>
       <c r="KK1" t="n">
-        <v>-0.4526689919135147</v>
+        <v>1.850154713609799</v>
       </c>
       <c r="KL1" t="n">
-        <v>-0.4973048889723448</v>
+        <v>1.84677630564605</v>
       </c>
       <c r="KM1" t="n">
-        <v>-0.6096019786262932</v>
+        <v>1.846980494526921</v>
       </c>
       <c r="KN1" t="n">
-        <v>-0.6046505713246615</v>
+        <v>1.850579063280976</v>
       </c>
       <c r="KO1" t="n">
-        <v>-0.4709092366159173</v>
+        <v>1.8506769008972</v>
       </c>
       <c r="KP1" t="n">
-        <v>-0.4970178247622605</v>
+        <v>1.850773359333352</v>
       </c>
       <c r="KQ1" t="n">
-        <v>-0.6097776471189841</v>
+        <v>1.850868467548</v>
       </c>
       <c r="KR1" t="n">
-        <v>-0.6047480933093965</v>
+        <v>1.847610115919087</v>
       </c>
       <c r="KS1" t="n">
-        <v>-0.4969096070910252</v>
+        <v>1.851110161138323</v>
       </c>
       <c r="KT1" t="n">
-        <v>-0.514653529178092</v>
+        <v>1.851200834393699</v>
       </c>
       <c r="KU1" t="n">
-        <v>-0.6099288327942393</v>
+        <v>1.851290275272407</v>
       </c>
       <c r="KV1" t="n">
-        <v>-0.6048211228513731</v>
+        <v>1.848097622593858</v>
       </c>
       <c r="KW1" t="n">
-        <v>-0.5144849580954433</v>
+        <v>1.851518321183116</v>
       </c>
       <c r="KX1" t="n">
-        <v>-0.5143168785471718</v>
+        <v>1.848370323324385</v>
       </c>
       <c r="KY1" t="n">
-        <v>-0.6100639303098454</v>
+        <v>1.848542208075971</v>
       </c>
       <c r="KZ1" t="n">
-        <v>-0.6048666138584687</v>
+        <v>1.851872212820354</v>
       </c>
       <c r="LA1" t="n">
-        <v>-0.5312266438614555</v>
+        <v>1.851953339846159</v>
       </c>
       <c r="LB1" t="n">
-        <v>-0.5139518795523833</v>
+        <v>1.852033419776078</v>
       </c>
       <c r="LC1" t="n">
-        <v>-0.6101772753205709</v>
+        <v>1.848979140009428</v>
       </c>
       <c r="LD1" t="n">
-        <v>-0.6048813962840117</v>
+        <v>1.849139461747693</v>
       </c>
       <c r="LE1" t="n">
-        <v>-0.5308821625672779</v>
+        <v>1.849296885532486</v>
       </c>
       <c r="LF1" t="n">
-        <v>-0.5306836390420537</v>
+        <v>1.852483926369096</v>
       </c>
       <c r="LG1" t="n">
-        <v>-0.6102734116532624</v>
+        <v>1.849533742711635</v>
       </c>
       <c r="LH1" t="n">
-        <v>-0.6259029903114297</v>
+        <v>1.852675923013163</v>
       </c>
       <c r="LI1" t="n">
-        <v>-0.5466375175580949</v>
+        <v>1.849763779235754</v>
       </c>
       <c r="LJ1" t="n">
-        <v>-0.5302901605362698</v>
+        <v>1.852862392841903</v>
       </c>
       <c r="LK1" t="n">
-        <v>-0.6103495688856625</v>
+        <v>1.849987286146337</v>
       </c>
       <c r="LL1" t="n">
-        <v>-0.6304903400648987</v>
+        <v>1.850129556909571</v>
       </c>
       <c r="LM1" t="n">
-        <v>-0.546291333199614</v>
+        <v>1.853153246928083</v>
       </c>
       <c r="LN1" t="n">
-        <v>-0.5460868924215529</v>
+        <v>1.850343033272491</v>
       </c>
       <c r="LO1" t="n">
-        <v>-0.6105556531251528</v>
+        <v>1.853326375951955</v>
       </c>
       <c r="LP1" t="n">
-        <v>-0.610677027810669</v>
+        <v>1.853390922175881</v>
       </c>
       <c r="LQ1" t="n">
-        <v>-0.5459357107101683</v>
+        <v>1.850621301382149</v>
       </c>
       <c r="LR1" t="n">
-        <v>-0.5457460588992959</v>
+        <v>1.850752694621326</v>
       </c>
       <c r="LS1" t="n">
-        <v>-0.6107329780092703</v>
+        <v>1.85365860290703</v>
       </c>
       <c r="LT1" t="n">
-        <v>-0.6108472646824282</v>
+        <v>1.850949341311565</v>
       </c>
       <c r="LU1" t="n">
-        <v>-0.5606998794905754</v>
+        <v>1.853818073553116</v>
       </c>
       <c r="LV1" t="n">
-        <v>-0.5605121916833242</v>
+        <v>1.853877414708732</v>
       </c>
       <c r="LW1" t="n">
-        <v>-0.6108587977035022</v>
+        <v>1.853936091673269</v>
       </c>
       <c r="LX1" t="n">
-        <v>-0.6310981022832758</v>
+        <v>1.85399411553586</v>
       </c>
       <c r="LY1" t="n">
-        <v>-0.5603888944514509</v>
+        <v>1.854051497140156</v>
       </c>
       <c r="LZ1" t="n">
-        <v>-0.5602132896665672</v>
+        <v>1.854108247091068</v>
       </c>
       <c r="MA1" t="n">
-        <v>-0.6048967017008139</v>
+        <v>1.854164375761308</v>
       </c>
       <c r="MB1" t="n">
-        <v>-0.6109905315204256</v>
-      </c>
-      <c r="MC1" t="n">
-        <v>-0.5739051325829054</v>
-      </c>
-      <c r="MD1" t="n">
-        <v>-0.5970782723370603</v>
-      </c>
-      <c r="ME1" t="n">
-        <v>-0.6047914094638533</v>
-      </c>
-      <c r="MF1" t="n">
-        <v>-0.6109600754532801</v>
-      </c>
-      <c r="MG1" t="n">
-        <v>-0.573653674142642</v>
-      </c>
-      <c r="MH1" t="n">
-        <v>-0.5968324741470655</v>
-      </c>
-      <c r="MI1" t="n">
-        <v>-0.6046985984393032</v>
-      </c>
-      <c r="MJ1" t="n">
-        <v>-0.6109392672333274</v>
-      </c>
-      <c r="MK1" t="n">
-        <v>-0.5734183635296408</v>
-      </c>
-      <c r="ML1" t="n">
-        <v>-0.596602419810262</v>
-      </c>
-      <c r="MM1" t="n">
-        <v>-0.6046166168058957</v>
-      </c>
-      <c r="MN1" t="n">
-        <v>-0.6109266800892617</v>
-      </c>
-      <c r="MO1" t="n">
-        <v>-0.5731974472701465</v>
-      </c>
-      <c r="MP1" t="n">
-        <v>-0.5730717240715375</v>
-      </c>
-      <c r="MQ1" t="n">
-        <v>-0.6045463601908097</v>
-      </c>
-      <c r="MR1" t="n">
-        <v>-0.6150265109679228</v>
-      </c>
-      <c r="MS1" t="n">
-        <v>-0.5854048193371285</v>
-      </c>
-      <c r="MT1" t="n">
-        <v>-0.5962230668833886</v>
-      </c>
-      <c r="MU1" t="n">
-        <v>-0.6110736776728357</v>
-      </c>
-      <c r="MV1" t="n">
-        <v>-0.6111606789802639</v>
+        <v>1.851518828204939</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Mu1.xlsx
+++ b/Pruebas/Mu1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:MB1"/>
+  <dimension ref="A1:ZD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,1024 +423,2044 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-0.1785775009802456</v>
+        <v>0.03089477127000565</v>
       </c>
       <c r="B1" t="n">
-        <v>0.7522315978096429</v>
+        <v>0.8751972705291565</v>
       </c>
       <c r="C1" t="n">
-        <v>0.4095025512070473</v>
+        <v>0.3242012617060691</v>
       </c>
       <c r="D1" t="n">
-        <v>-0.3498191475118254</v>
+        <v>-0.05799561405866892</v>
       </c>
       <c r="E1" t="n">
-        <v>-0.2381033346403275</v>
+        <v>0.04119302836000755</v>
       </c>
       <c r="F1" t="n">
-        <v>1.002975463746191</v>
+        <v>1.166929694038876</v>
       </c>
       <c r="G1" t="n">
-        <v>0.5460034016093964</v>
+        <v>0.4322683489414256</v>
       </c>
       <c r="H1" t="n">
-        <v>-0.4619062053175154</v>
+        <v>-0.07732748541155857</v>
       </c>
       <c r="I1" t="n">
-        <v>-0.2678612626919863</v>
+        <v>0.04634215690500849</v>
       </c>
       <c r="J1" t="n">
-        <v>1.128345958461715</v>
+        <v>1.312795905793735</v>
       </c>
       <c r="K1" t="n">
-        <v>0.6142251401901249</v>
+        <v>0.4863018925591037</v>
       </c>
       <c r="L1" t="n">
-        <v>-0.5185603351456192</v>
+        <v>-0.08699342108800338</v>
       </c>
       <c r="M1" t="n">
-        <v>-0.2692807453956369</v>
+        <v>0.04943163403200906</v>
       </c>
       <c r="N1" t="n">
-        <v>1.203569330428827</v>
+        <v>1.400315632846651</v>
       </c>
       <c r="O1" t="n">
-        <v>0.6772920431535845</v>
+        <v>0.5187220187297106</v>
       </c>
       <c r="P1" t="n">
-        <v>-0.5112579182493817</v>
+        <v>-0.09496794668970528</v>
       </c>
       <c r="Q1" t="n">
-        <v>-0.2212914324485788</v>
+        <v>0.05149860426096191</v>
       </c>
       <c r="R1" t="n">
-        <v>1.253719363575422</v>
+        <v>1.458662372920635</v>
       </c>
       <c r="S1" t="n">
-        <v>0.7319434565921503</v>
+        <v>0.5403297499710766</v>
       </c>
       <c r="T1" t="n">
-        <v>-0.4818689117365623</v>
+        <v>-0.1005254466066999</v>
       </c>
       <c r="U1" t="n">
-        <v>-0.1666497584158365</v>
+        <v>0.05296899968680861</v>
       </c>
       <c r="V1" t="n">
-        <v>1.289541677360793</v>
+        <v>1.500338401646828</v>
       </c>
       <c r="W1" t="n">
-        <v>0.7879133973146055</v>
+        <v>0.5617826347363107</v>
       </c>
       <c r="X1" t="n">
-        <v>-0.4149808410994653</v>
+        <v>-0.08771712205655091</v>
       </c>
       <c r="Y1" t="n">
-        <v>-0.08184397288244563</v>
+        <v>0.05405381229879501</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.316409681202283</v>
+        <v>1.531595456638839</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.8392598618839781</v>
+        <v>0.5899706959948635</v>
       </c>
       <c r="AB1" t="n">
-        <v>-0.3088101855115051</v>
+        <v>-0.0590671064250386</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.02606144317160422</v>
+        <v>0.05557386894718756</v>
       </c>
       <c r="AD1" t="n">
-        <v>1.337312938139655</v>
+        <v>1.555906592592919</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.8714363075551487</v>
+        <v>0.6238611459804653</v>
       </c>
       <c r="AF1" t="n">
-        <v>-0.1958881392121127</v>
+        <v>-0.03766190399846864</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.09589352828544981</v>
+        <v>0.05910587531098722</v>
       </c>
       <c r="AH1" t="n">
-        <v>1.354038377696989</v>
+        <v>1.575355662198473</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.8934432494466584</v>
+        <v>0.6689897135220961</v>
       </c>
       <c r="AJ1" t="n">
-        <v>-0.06502543393492713</v>
+        <v>-0.001079098558687987</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.1955270363388851</v>
+        <v>0.06287211825155861</v>
       </c>
       <c r="AL1" t="n">
-        <v>1.367739385671638</v>
+        <v>1.591268498155928</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.8809088253608861</v>
+        <v>0.720190580131161</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.05108361100003402</v>
+        <v>0.05721022602071011</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.2710914264312181</v>
+        <v>0.06863010041130388</v>
       </c>
       <c r="AP1" t="n">
-        <v>1.379165175679218</v>
+        <v>1.604529522372128</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.8509541159575562</v>
+        <v>0.7734424427583982</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.1194867978264128</v>
+        <v>0.1285997040048365</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.3421359947184071</v>
+        <v>0.07852517184899842</v>
       </c>
       <c r="AT1" t="n">
-        <v>1.388841407618198</v>
+        <v>1.615750953547119</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.9028263557760141</v>
+        <v>0.8374529617542759</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.218634249364879</v>
+        <v>0.1721590811162546</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.4098411632667996</v>
+        <v>0.08609495531786535</v>
       </c>
       <c r="AX1" t="n">
-        <v>1.397154058279797</v>
+        <v>1.625369077572179</v>
       </c>
       <c r="AY1" t="n">
-        <v>0.8872733527265576</v>
+        <v>0.8979492295600923</v>
       </c>
       <c r="AZ1" t="n">
-        <v>0.3291383422106914</v>
+        <v>0.2273755026917968</v>
       </c>
       <c r="BA1" t="n">
-        <v>0.5043167529778284</v>
+        <v>0.09815521570693814</v>
       </c>
       <c r="BB1" t="n">
-        <v>1.404433436072028</v>
+        <v>1.633705510731382</v>
       </c>
       <c r="BC1" t="n">
-        <v>0.8981652366369794</v>
+        <v>0.9631267093000186</v>
       </c>
       <c r="BD1" t="n">
-        <v>0.4271581771790654</v>
+        <v>0.2977990138129701</v>
       </c>
       <c r="BE1" t="n">
-        <v>0.5773851023056503</v>
+        <v>0.1149356806316165</v>
       </c>
       <c r="BF1" t="n">
-        <v>1.410852599887637</v>
+        <v>1.641001201533665</v>
       </c>
       <c r="BG1" t="n">
-        <v>0.8856351242877251</v>
+        <v>1.026650193306961</v>
       </c>
       <c r="BH1" t="n">
-        <v>0.5388935696983298</v>
+        <v>0.3350180081710256</v>
       </c>
       <c r="BI1" t="n">
-        <v>0.6705690793990693</v>
+        <v>0.1320123298720452</v>
       </c>
       <c r="BJ1" t="n">
-        <v>1.416685235370318</v>
+        <v>1.64743970902021</v>
       </c>
       <c r="BK1" t="n">
-        <v>0.9071946709698373</v>
+        <v>1.087589134578166</v>
       </c>
       <c r="BL1" t="n">
-        <v>0.640026510363813</v>
+        <v>0.3876296083239277</v>
       </c>
       <c r="BM1" t="n">
-        <v>0.7459494015865296</v>
+        <v>0.1435800341833553</v>
       </c>
       <c r="BN1" t="n">
-        <v>1.421986993678373</v>
+        <v>1.653162400685812</v>
       </c>
       <c r="BO1" t="n">
-        <v>0.9035080238867108</v>
+        <v>1.144394188309898</v>
       </c>
       <c r="BP1" t="n">
-        <v>0.7523449041831343</v>
+        <v>0.4380465696343561</v>
       </c>
       <c r="BQ1" t="n">
-        <v>0.8356533072444292</v>
+        <v>0.1580941835138668</v>
       </c>
       <c r="BR1" t="n">
-        <v>1.427048639792404</v>
+        <v>1.658284464688698</v>
       </c>
       <c r="BS1" t="n">
-        <v>0.929572732730197</v>
+        <v>1.175058765648494</v>
       </c>
       <c r="BT1" t="n">
-        <v>0.858207889240243</v>
+        <v>0.4909807815572603</v>
       </c>
       <c r="BU1" t="n">
-        <v>0.9106174719702413</v>
+        <v>0.167550255046442</v>
       </c>
       <c r="BV1" t="n">
-        <v>1.431832654239177</v>
+        <v>1.662894424484338</v>
       </c>
       <c r="BW1" t="n">
-        <v>0.9485520852679084</v>
+        <v>1.240907452504547</v>
       </c>
       <c r="BX1" t="n">
-        <v>0.954976021406196</v>
+        <v>0.520891173432535</v>
       </c>
       <c r="BY1" t="n">
-        <v>1.007530747040791</v>
+        <v>0.181300427412875</v>
       </c>
       <c r="BZ1" t="n">
-        <v>1.439953943439153</v>
+        <v>1.667066651208082</v>
       </c>
       <c r="CA1" t="n">
-        <v>0.9462809778155039</v>
+        <v>1.286707220432583</v>
       </c>
       <c r="CB1" t="n">
-        <v>1.04329179828779</v>
+        <v>0.5404947250554942</v>
       </c>
       <c r="CC1" t="n">
-        <v>1.089626548560504</v>
+        <v>0.196819916769684</v>
       </c>
       <c r="CD1" t="n">
-        <v>1.44856242422584</v>
+        <v>1.670862439807416</v>
       </c>
       <c r="CE1" t="n">
-        <v>0.9676775636222851</v>
+        <v>1.326840213493561</v>
       </c>
       <c r="CF1" t="n">
-        <v>1.125908662177359</v>
+        <v>0.5757774485964496</v>
       </c>
       <c r="CG1" t="n">
-        <v>1.161284481807269</v>
+        <v>0.2066663146528067</v>
       </c>
       <c r="CH1" t="n">
-        <v>1.457417212487142</v>
+        <v>1.674327080811255</v>
       </c>
       <c r="CI1" t="n">
-        <v>0.9699657446759081</v>
+        <v>1.344489246989354</v>
       </c>
       <c r="CJ1" t="n">
-        <v>1.190728144513453</v>
+        <v>0.6084306758859904</v>
       </c>
       <c r="CK1" t="n">
-        <v>1.253832855156489</v>
+        <v>0.2219349459749889</v>
       </c>
       <c r="CL1" t="n">
-        <v>1.49292409812147</v>
+        <v>1.677508417106297</v>
       </c>
       <c r="CM1" t="n">
-        <v>1.011218788687648</v>
+        <v>1.366840362411051</v>
       </c>
       <c r="CN1" t="n">
-        <v>1.268935433971931</v>
+        <v>0.6261004264850966</v>
       </c>
       <c r="CO1" t="n">
-        <v>1.335279489362344</v>
+        <v>0.2391761663898576</v>
       </c>
       <c r="CP1" t="n">
-        <v>1.539892359867928</v>
+        <v>1.680440166018136</v>
       </c>
       <c r="CQ1" t="n">
-        <v>1.044437406111695</v>
+        <v>1.374789485788647</v>
       </c>
       <c r="CR1" t="n">
-        <v>1.343803419651468</v>
+        <v>0.6481849458226259</v>
       </c>
       <c r="CS1" t="n">
-        <v>1.441822253739329</v>
+        <v>0.2585352044082545</v>
       </c>
       <c r="CT1" t="n">
-        <v>1.609191839973365</v>
+        <v>1.683156239019899</v>
       </c>
       <c r="CU1" t="n">
-        <v>1.098388576443186</v>
+        <v>1.379299812576215</v>
       </c>
       <c r="CV1" t="n">
-        <v>1.445100911999646</v>
+        <v>0.6836237406302366</v>
       </c>
       <c r="CW1" t="n">
-        <v>1.528972924547013</v>
+        <v>0.2702739595383341</v>
       </c>
       <c r="CX1" t="n">
-        <v>1.673584043828162</v>
+        <v>1.685667460232089</v>
       </c>
       <c r="CY1" t="n">
-        <v>1.160098210905133</v>
+        <v>1.382701166575863</v>
       </c>
       <c r="CZ1" t="n">
-        <v>1.529360587049896</v>
+        <v>0.709905829073305</v>
       </c>
       <c r="DA1" t="n">
-        <v>1.617929461058077</v>
+        <v>0.2890183547115325</v>
       </c>
       <c r="DB1" t="n">
-        <v>1.725558728683087</v>
+        <v>1.688013307059549</v>
       </c>
       <c r="DC1" t="n">
-        <v>1.223191566047642</v>
+        <v>1.410070874780957</v>
       </c>
       <c r="DD1" t="n">
-        <v>1.628079114367045</v>
+        <v>0.7319224623501613</v>
       </c>
       <c r="DE1" t="n">
-        <v>1.690416683333844</v>
+        <v>0.3101314191067108</v>
       </c>
       <c r="DF1" t="n">
-        <v>1.75679846606255</v>
+        <v>1.690209012354258</v>
       </c>
       <c r="DG1" t="n">
-        <v>1.289874598177156</v>
+        <v>1.406632545732778</v>
       </c>
       <c r="DH1" t="n">
-        <v>1.686189982999997</v>
+        <v>0.7521845130215418</v>
       </c>
       <c r="DI1" t="n">
-        <v>1.727236329119511</v>
+        <v>0.3219737919437717</v>
       </c>
       <c r="DJ1" t="n">
-        <v>1.77145597643682</v>
+        <v>1.692263678350725</v>
       </c>
       <c r="DK1" t="n">
-        <v>1.344719699067436</v>
+        <v>1.401607745744336</v>
       </c>
       <c r="DL1" t="n">
-        <v>1.727698656077189</v>
+        <v>0.7883304077216878</v>
       </c>
       <c r="DM1" t="n">
-        <v>1.761169187500213</v>
+        <v>0.3430320959272402</v>
       </c>
       <c r="DN1" t="n">
-        <v>1.772635733337154</v>
+        <v>1.69419637083919</v>
       </c>
       <c r="DO1" t="n">
-        <v>1.38023291733425</v>
+        <v>1.395788861467532</v>
       </c>
       <c r="DP1" t="n">
-        <v>1.758716616589173</v>
+        <v>0.8129543536336309</v>
       </c>
       <c r="DQ1" t="n">
-        <v>1.762764116686181</v>
+        <v>0.3671884836444081</v>
       </c>
       <c r="DR1" t="n">
-        <v>1.76629406133305</v>
+        <v>1.696040946097656</v>
       </c>
       <c r="DS1" t="n">
-        <v>1.436751765335289</v>
+        <v>1.424102165561277</v>
       </c>
       <c r="DT1" t="n">
-        <v>1.767139560707688</v>
+        <v>0.8406518398018175</v>
       </c>
       <c r="DU1" t="n">
-        <v>1.768347274908732</v>
+        <v>0.3949645027802748</v>
       </c>
       <c r="DV1" t="n">
-        <v>1.771087842154369</v>
+        <v>1.697800447731758</v>
       </c>
       <c r="DW1" t="n">
-        <v>1.483252386264525</v>
+        <v>1.409640304540634</v>
       </c>
       <c r="DX1" t="n">
-        <v>1.773416763189618</v>
+        <v>0.86360828008618</v>
       </c>
       <c r="DY1" t="n">
-        <v>1.775589696125659</v>
+        <v>0.4088055518701481</v>
       </c>
       <c r="DZ1" t="n">
-        <v>1.777560554225474</v>
+        <v>1.699468495553963</v>
       </c>
       <c r="EA1" t="n">
-        <v>1.525812256024835</v>
+        <v>1.394017129207199</v>
       </c>
       <c r="EB1" t="n">
-        <v>1.779522482827363</v>
+        <v>0.8988753727379517</v>
       </c>
       <c r="EC1" t="n">
-        <v>1.781158326968957</v>
+        <v>0.4373554068986533</v>
       </c>
       <c r="ED1" t="n">
-        <v>1.778642794025847</v>
+        <v>1.701053632551849</v>
       </c>
       <c r="EE1" t="n">
-        <v>1.565678067848871</v>
+        <v>1.378525835985809</v>
       </c>
       <c r="EF1" t="n">
-        <v>1.783571090175109</v>
+        <v>0.9252711122535258</v>
       </c>
       <c r="EG1" t="n">
-        <v>1.784872732010293</v>
+        <v>0.4704697738193657</v>
       </c>
       <c r="EH1" t="n">
-        <v>1.786079472508093</v>
+        <v>1.702612354992657</v>
       </c>
       <c r="EI1" t="n">
-        <v>1.600160036157562</v>
+        <v>1.404389270039085</v>
       </c>
       <c r="EJ1" t="n">
-        <v>1.787854496912529</v>
+        <v>0.9607030945857897</v>
       </c>
       <c r="EK1" t="n">
-        <v>1.788877629918625</v>
+        <v>0.5086073749179223</v>
       </c>
       <c r="EL1" t="n">
-        <v>1.789833539716124</v>
+        <v>1.704136955793171</v>
       </c>
       <c r="EM1" t="n">
-        <v>1.630338381905566</v>
+        <v>1.382161074105827</v>
       </c>
       <c r="EN1" t="n">
-        <v>1.791378503320209</v>
+        <v>0.9897777436808115</v>
       </c>
       <c r="EO1" t="n">
-        <v>1.784729116160189</v>
+        <v>0.5237373425050311</v>
       </c>
       <c r="EP1" t="n">
-        <v>1.792280599322883</v>
+        <v>1.705530670324541</v>
       </c>
       <c r="EQ1" t="n">
-        <v>1.652690636724574</v>
+        <v>1.361329048866963</v>
       </c>
       <c r="ER1" t="n">
-        <v>1.794288133275722</v>
+        <v>1.013858792915082</v>
       </c>
       <c r="ES1" t="n">
-        <v>1.794956654535175</v>
+        <v>0.5637794092274759</v>
       </c>
       <c r="ET1" t="n">
-        <v>1.795588476460304</v>
+        <v>1.706934535330597</v>
       </c>
       <c r="EU1" t="n">
-        <v>1.67734040586602</v>
+        <v>1.341772585291429</v>
       </c>
       <c r="EV1" t="n">
-        <v>1.797244712910485</v>
+        <v>1.051536403992742</v>
       </c>
       <c r="EW1" t="n">
-        <v>1.787967024517092</v>
+        <v>0.6095412331337776</v>
       </c>
       <c r="EX1" t="n">
-        <v>1.789246764144877</v>
+        <v>1.7083369000262</v>
       </c>
       <c r="EY1" t="n">
-        <v>1.702748574547648</v>
+        <v>1.363921413854508</v>
       </c>
       <c r="EZ1" t="n">
-        <v>1.783571573791459</v>
+        <v>1.086187424269939</v>
       </c>
       <c r="FA1" t="n">
-        <v>1.784930146047756</v>
+        <v>0.6641208189654167</v>
       </c>
       <c r="FB1" t="n">
-        <v>1.786836704013226</v>
+        <v>1.709775984337058</v>
       </c>
       <c r="FC1" t="n">
-        <v>1.725300561216939</v>
+        <v>1.339911825067869</v>
       </c>
       <c r="FD1" t="n">
-        <v>1.791539600164636</v>
+        <v>1.115065306332504</v>
       </c>
       <c r="FE1" t="n">
-        <v>1.793080233775006</v>
+        <v>0.6822425925828201</v>
       </c>
       <c r="FF1" t="n">
-        <v>1.785940730427765</v>
+        <v>1.711030684709639</v>
       </c>
       <c r="FG1" t="n">
-        <v>1.754387945511114</v>
+        <v>1.317994744279039</v>
       </c>
       <c r="FH1" t="n">
-        <v>1.800146294119895</v>
+        <v>1.141871839535865</v>
       </c>
       <c r="FI1" t="n">
-        <v>1.79413342065963</v>
+        <v>0.7396147426330493</v>
       </c>
       <c r="FJ1" t="n">
-        <v>1.795978154175635</v>
+        <v>1.719323759568586</v>
       </c>
       <c r="FK1" t="n">
-        <v>1.77474572549983</v>
+        <v>1.336170212174161</v>
       </c>
       <c r="FL1" t="n">
-        <v>1.800984130203922</v>
+        <v>1.171383015275296</v>
       </c>
       <c r="FM1" t="n">
-        <v>1.802456629740624</v>
+        <v>0.8023470721457093</v>
       </c>
       <c r="FN1" t="n">
-        <v>1.803848067199247</v>
+        <v>1.722852289839863</v>
       </c>
       <c r="FO1" t="n">
-        <v>1.798673917216091</v>
+        <v>1.312014749234677</v>
       </c>
       <c r="FP1" t="n">
-        <v>1.806920278466715</v>
+        <v>1.2034147697064</v>
       </c>
       <c r="FQ1" t="n">
-        <v>1.808086248139639</v>
+        <v>0.8700552555488047</v>
       </c>
       <c r="FR1" t="n">
-        <v>1.809194677700402</v>
+        <v>1.72643958289017</v>
       </c>
       <c r="FS1" t="n">
-        <v>1.804225092069653</v>
+        <v>1.29000641684671</v>
       </c>
       <c r="FT1" t="n">
-        <v>1.811686081676985</v>
+        <v>1.223726609742128</v>
       </c>
       <c r="FU1" t="n">
-        <v>1.812631209877935</v>
+        <v>0.8836772062472432</v>
       </c>
       <c r="FV1" t="n">
-        <v>1.807832105358563</v>
+        <v>1.729159630922992</v>
       </c>
       <c r="FW1" t="n">
-        <v>1.809244928474739</v>
+        <v>1.270297401363353</v>
       </c>
       <c r="FX1" t="n">
-        <v>1.815962765512709</v>
+        <v>1.253837220109535</v>
       </c>
       <c r="FY1" t="n">
-        <v>1.816732972838274</v>
+        <v>0.9528674599351499</v>
       </c>
       <c r="FZ1" t="n">
-        <v>1.812201349184066</v>
+        <v>1.732028182202064</v>
       </c>
       <c r="GA1" t="n">
-        <v>1.813382948658154</v>
+        <v>1.285599238267287</v>
       </c>
       <c r="GB1" t="n">
-        <v>1.819500934098821</v>
+        <v>1.287566156681011</v>
       </c>
       <c r="GC1" t="n">
-        <v>1.815190895489657</v>
+        <v>1.026070869294798</v>
       </c>
       <c r="GD1" t="n">
-        <v>1.816227651620099</v>
+        <v>1.73493537286148</v>
       </c>
       <c r="GE1" t="n">
-        <v>1.817217378447867</v>
+        <v>1.2648436401531</v>
       </c>
       <c r="GF1" t="n">
-        <v>1.818163205016052</v>
+        <v>1.324216993946282</v>
       </c>
       <c r="GG1" t="n">
-        <v>1.819067988807141</v>
+        <v>1.102407134956592</v>
       </c>
       <c r="GH1" t="n">
-        <v>1.81993434457735</v>
+        <v>1.737806457630606</v>
       </c>
       <c r="GI1" t="n">
-        <v>1.820764669593405</v>
+        <v>1.246292321036795</v>
       </c>
       <c r="GJ1" t="n">
-        <v>1.821561165784746</v>
+        <v>1.338551937363953</v>
       </c>
       <c r="GK1" t="n">
-        <v>1.822325859242247</v>
+        <v>1.111514019688636</v>
       </c>
       <c r="GL1" t="n">
-        <v>1.823060617426985</v>
+        <v>1.739976822263451</v>
       </c>
       <c r="GM1" t="n">
-        <v>1.823767164396815</v>
+        <v>1.258497971073041</v>
       </c>
       <c r="GN1" t="n">
-        <v>1.824447094312093</v>
+        <v>1.37502167488136</v>
       </c>
       <c r="GO1" t="n">
-        <v>1.825101883443256</v>
+        <v>1.18810090463347</v>
       </c>
       <c r="GP1" t="n">
-        <v>1.82573290087062</v>
+        <v>1.742135447672917</v>
       </c>
       <c r="GQ1" t="n">
-        <v>1.826341418039602</v>
+        <v>1.239739510669496</v>
       </c>
       <c r="GR1" t="n">
-        <v>1.826928617311718</v>
+        <v>1.413879216902317</v>
       </c>
       <c r="GS1" t="n">
-        <v>1.827495599632353</v>
+        <v>1.27118751244054</v>
       </c>
       <c r="GT1" t="n">
-        <v>1.828043391419953</v>
+        <v>1.760925966275475</v>
       </c>
       <c r="GU1" t="n">
-        <v>1.828572950767325</v>
+        <v>1.208996683198445</v>
       </c>
       <c r="GV1" t="n">
-        <v>1.829085173033859</v>
+        <v>1.460063456679575</v>
       </c>
       <c r="GW1" t="n">
-        <v>1.82479364669904</v>
+        <v>1.352489813925181</v>
       </c>
       <c r="GX1" t="n">
-        <v>1.830275273845217</v>
+        <v>1.764358489256896</v>
       </c>
       <c r="GY1" t="n">
-        <v>1.830735394765489</v>
+        <v>1.221806334935136</v>
       </c>
       <c r="GZ1" t="n">
-        <v>1.826587728412934</v>
+        <v>1.471449575694659</v>
       </c>
       <c r="HA1" t="n">
-        <v>1.827321064934649</v>
+        <v>1.359125788045203</v>
       </c>
       <c r="HB1" t="n">
-        <v>1.832417109147167</v>
+        <v>1.783366502051356</v>
       </c>
       <c r="HC1" t="n">
-        <v>1.828460839839182</v>
+        <v>1.208577803953607</v>
       </c>
       <c r="HD1" t="n">
-        <v>1.829122853146807</v>
+        <v>1.515502331042069</v>
       </c>
       <c r="HE1" t="n">
-        <v>1.833931346838494</v>
+        <v>1.435950420419003</v>
       </c>
       <c r="HF1" t="n">
-        <v>1.830151058444715</v>
+        <v>1.786184020757972</v>
       </c>
       <c r="HG1" t="n">
-        <v>1.834805273993197</v>
+        <v>1.218343977794818</v>
       </c>
       <c r="HH1" t="n">
-        <v>1.835142320885535</v>
+        <v>1.559160359580409</v>
       </c>
       <c r="HI1" t="n">
-        <v>1.835470421536614</v>
+        <v>1.508971729939682</v>
       </c>
       <c r="HJ1" t="n">
-        <v>1.831819558878748</v>
+        <v>1.788189617000278</v>
       </c>
       <c r="HK1" t="n">
-        <v>1.836252125385034</v>
+        <v>1.205498537775259</v>
       </c>
       <c r="HL1" t="n">
-        <v>1.836552734257442</v>
+        <v>1.601582839869639</v>
       </c>
       <c r="HM1" t="n">
-        <v>1.833004220820547</v>
+        <v>1.511286848859917</v>
       </c>
       <c r="HN1" t="n">
-        <v>1.833505773951584</v>
+        <v>1.789543029917791</v>
       </c>
       <c r="HO1" t="n">
-        <v>1.837686537026902</v>
+        <v>1.213230772607166</v>
       </c>
       <c r="HP1" t="n">
-        <v>1.834280608715067</v>
+        <v>1.60471401442711</v>
       </c>
       <c r="HQ1" t="n">
-        <v>1.83834613852926</v>
+        <v>1.578597975606587</v>
       </c>
       <c r="HR1" t="n">
-        <v>1.838598916382468</v>
+        <v>1.790451536824553</v>
       </c>
       <c r="HS1" t="n">
-        <v>1.83884582438826</v>
+        <v>1.201249953261174</v>
       </c>
       <c r="HT1" t="n">
-        <v>1.8390870646588</v>
+        <v>1.644598442091891</v>
       </c>
       <c r="HU1" t="n">
-        <v>1.835796521861438</v>
+        <v>1.63928877561748</v>
       </c>
       <c r="HV1" t="n">
-        <v>1.839673118890028</v>
+        <v>1.790865170969867</v>
       </c>
       <c r="HW1" t="n">
-        <v>1.836451352985869</v>
+        <v>1.20750720315811</v>
       </c>
       <c r="HX1" t="n">
-        <v>1.840230321269845</v>
+        <v>1.681763390834675</v>
       </c>
       <c r="HY1" t="n">
-        <v>1.837074525773496</v>
+        <v>1.691828484304387</v>
       </c>
       <c r="HZ1" t="n">
-        <v>1.83745109162439</v>
+        <v>1.790813938250024</v>
       </c>
       <c r="IA1" t="n">
-        <v>1.83781740585015</v>
+        <v>1.196745910743414</v>
       </c>
       <c r="IB1" t="n">
-        <v>1.838173881464056</v>
+        <v>1.681888005342221</v>
       </c>
       <c r="IC1" t="n">
-        <v>1.838520909587634</v>
+        <v>1.691814875317903</v>
       </c>
       <c r="ID1" t="n">
-        <v>1.838858860882145</v>
+        <v>1.790766956145403</v>
       </c>
       <c r="IE1" t="n">
-        <v>1.839188086869211</v>
+        <v>1.188214860815889</v>
       </c>
       <c r="IF1" t="n">
-        <v>1.839508921150442</v>
+        <v>1.715499225100816</v>
       </c>
       <c r="IG1" t="n">
-        <v>1.83982168053499</v>
+        <v>1.734823515703378</v>
       </c>
       <c r="IH1" t="n">
-        <v>1.840126666083014</v>
+        <v>1.790406391394546</v>
       </c>
       <c r="II1" t="n">
-        <v>1.840424164072297</v>
+        <v>1.19329714632425</v>
       </c>
       <c r="IJ1" t="n">
-        <v>1.840714446894532</v>
+        <v>1.744620065123651</v>
       </c>
       <c r="IK1" t="n">
-        <v>1.840997773887173</v>
+        <v>1.766945987797549</v>
       </c>
       <c r="IL1" t="n">
-        <v>1.841274392106207</v>
+        <v>1.789802406841119</v>
       </c>
       <c r="IM1" t="n">
-        <v>1.841544537044655</v>
+        <v>1.186294076551925</v>
       </c>
       <c r="IN1" t="n">
-        <v>1.841808433301237</v>
+        <v>1.76827011501634</v>
       </c>
       <c r="IO1" t="n">
-        <v>1.842066295203143</v>
+        <v>1.787045270940644</v>
       </c>
       <c r="IP1" t="n">
-        <v>1.842318327386588</v>
+        <v>1.789081189807272</v>
       </c>
       <c r="IQ1" t="n">
-        <v>1.842564725338417</v>
+        <v>1.190503448621977</v>
       </c>
       <c r="IR1" t="n">
-        <v>1.84280567590179</v>
+        <v>1.767036542550496</v>
       </c>
       <c r="IS1" t="n">
-        <v>1.843041357748703</v>
+        <v>1.786407045224326</v>
       </c>
       <c r="IT1" t="n">
-        <v>1.843271941821839</v>
+        <v>1.78845386877076</v>
       </c>
       <c r="IU1" t="n">
-        <v>1.843497591748052</v>
+        <v>1.194106148601531</v>
       </c>
       <c r="IV1" t="n">
-        <v>1.843718464225602</v>
+        <v>1.784413055080685</v>
       </c>
       <c r="IW1" t="n">
-        <v>1.843934709387037</v>
+        <v>1.793636412430937</v>
       </c>
       <c r="IX1" t="n">
-        <v>1.844146471139511</v>
+        <v>1.78779546347442</v>
       </c>
       <c r="IY1" t="n">
-        <v>1.844353887484151</v>
+        <v>1.188426714777342</v>
       </c>
       <c r="IZ1" t="n">
-        <v>1.844557090815965</v>
+        <v>1.794219538884975</v>
       </c>
       <c r="JA1" t="n">
-        <v>1.844756208205653</v>
+        <v>1.793055851014173</v>
       </c>
       <c r="JB1" t="n">
-        <v>1.844951361664596</v>
+        <v>1.787224793343437</v>
       </c>
       <c r="JC1" t="n">
-        <v>1.845142668394166</v>
+        <v>1.191572510732408</v>
       </c>
       <c r="JD1" t="n">
-        <v>1.845330241020444</v>
+        <v>1.798420796017671</v>
       </c>
       <c r="JE1" t="n">
-        <v>1.845514187815324</v>
+        <v>1.792518622392421</v>
       </c>
       <c r="JF1" t="n">
-        <v>1.845694612904916</v>
+        <v>1.792422261646919</v>
       </c>
       <c r="JG1" t="n">
-        <v>1.8458716164661</v>
+        <v>1.187873070395168</v>
       </c>
       <c r="JH1" t="n">
-        <v>1.846045294911987</v>
+        <v>1.800158656042258</v>
       </c>
       <c r="JI1" t="n">
-        <v>1.846215741067048</v>
+        <v>1.792103166923303</v>
       </c>
       <c r="JJ1" t="n">
-        <v>1.846383044332536</v>
+        <v>1.792018332899632</v>
       </c>
       <c r="JK1" t="n">
-        <v>1.846547290842845</v>
+        <v>1.175908227644758</v>
       </c>
       <c r="JL1" t="n">
-        <v>1.84670856361339</v>
+        <v>1.799758208735762</v>
       </c>
       <c r="JM1" t="n">
-        <v>1.846866942680505</v>
+        <v>1.791740338837445</v>
       </c>
       <c r="JN1" t="n">
-        <v>1.847022505233892</v>
+        <v>1.791665117751052</v>
       </c>
       <c r="JO1" t="n">
-        <v>1.847175325742066</v>
+        <v>1.191104646056666</v>
       </c>
       <c r="JP1" t="n">
-        <v>1.847325476071211</v>
+        <v>1.7993684417227</v>
       </c>
       <c r="JQ1" t="n">
-        <v>1.847473025597885</v>
+        <v>1.791396665287674</v>
       </c>
       <c r="JR1" t="n">
-        <v>1.847618041315886</v>
+        <v>1.79132989800398</v>
       </c>
       <c r="JS1" t="n">
-        <v>1.847760587937694</v>
+        <v>1.193457197065005</v>
       </c>
       <c r="JT1" t="n">
-        <v>1.847900727990739</v>
+        <v>1.799009633406914</v>
       </c>
       <c r="JU1" t="n">
-        <v>1.848038521908872</v>
+        <v>1.791081078495513</v>
       </c>
       <c r="JV1" t="n">
-        <v>1.848174028119244</v>
+        <v>1.791021632876011</v>
       </c>
       <c r="JW1" t="n">
-        <v>1.848307303124924</v>
+        <v>1.195542943453331</v>
       </c>
       <c r="JX1" t="n">
-        <v>1.848438401583445</v>
+        <v>1.798678354423791</v>
       </c>
       <c r="JY1" t="n">
-        <v>1.848567376381555</v>
+        <v>1.790790465568696</v>
       </c>
       <c r="JZ1" t="n">
-        <v>1.848694278706339</v>
+        <v>1.790737393980691</v>
       </c>
       <c r="KA1" t="n">
-        <v>1.848819158112964</v>
+        <v>1.195725433015463</v>
       </c>
       <c r="KB1" t="n">
-        <v>1.848942062589196</v>
+        <v>1.798370125511356</v>
       </c>
       <c r="KC1" t="n">
-        <v>1.849063038616886</v>
+        <v>1.790524324481577</v>
       </c>
       <c r="KD1" t="n">
-        <v>1.849182131230581</v>
+        <v>1.790476800330085</v>
       </c>
       <c r="KE1" t="n">
-        <v>1.845628608028084</v>
+        <v>1.19766562483395</v>
       </c>
       <c r="KF1" t="n">
-        <v>1.849481851605116</v>
+        <v>1.798083802098824</v>
       </c>
       <c r="KG1" t="n">
-        <v>1.849594792917316</v>
+        <v>1.790277706697603</v>
       </c>
       <c r="KH1" t="n">
-        <v>1.846109987793753</v>
+        <v>1.790235060658329</v>
       </c>
       <c r="KI1" t="n">
-        <v>1.849879720439122</v>
+        <v>1.199406421482692</v>
       </c>
       <c r="KJ1" t="n">
-        <v>1.846448973619295</v>
+        <v>1.79781717192759</v>
       </c>
       <c r="KK1" t="n">
-        <v>1.850154713609799</v>
+        <v>1.790048656310662</v>
       </c>
       <c r="KL1" t="n">
-        <v>1.84677630564605</v>
+        <v>1.790010317195182</v>
       </c>
       <c r="KM1" t="n">
-        <v>1.846980494526921</v>
+        <v>1.20159048360852</v>
       </c>
       <c r="KN1" t="n">
-        <v>1.850579063280976</v>
+        <v>1.79756328983706</v>
       </c>
       <c r="KO1" t="n">
-        <v>1.8506769008972</v>
+        <v>1.7898360875517</v>
       </c>
       <c r="KP1" t="n">
-        <v>1.850773359333352</v>
+        <v>1.789801558114872</v>
       </c>
       <c r="KQ1" t="n">
-        <v>1.850868467548</v>
+        <v>1.203260541795039</v>
       </c>
       <c r="KR1" t="n">
-        <v>1.847610115919087</v>
+        <v>1.797325971317978</v>
       </c>
       <c r="KS1" t="n">
-        <v>1.851110161138323</v>
+        <v>1.78963780876212</v>
       </c>
       <c r="KT1" t="n">
-        <v>1.851200834393699</v>
+        <v>1.789606667816051</v>
       </c>
       <c r="KU1" t="n">
-        <v>1.851290275272407</v>
+        <v>1.207617000041736</v>
       </c>
       <c r="KV1" t="n">
-        <v>1.848097622593858</v>
+        <v>1.797095159484381</v>
       </c>
       <c r="KW1" t="n">
-        <v>1.851518321183116</v>
+        <v>1.789451748598397</v>
       </c>
       <c r="KX1" t="n">
-        <v>1.848370323324385</v>
+        <v>1.789423639434688</v>
       </c>
       <c r="KY1" t="n">
-        <v>1.848542208075971</v>
+        <v>1.209242731470171</v>
       </c>
       <c r="KZ1" t="n">
-        <v>1.851872212820354</v>
+        <v>1.796878978235355</v>
       </c>
       <c r="LA1" t="n">
-        <v>1.851953339846159</v>
+        <v>1.789277704194305</v>
       </c>
       <c r="LB1" t="n">
-        <v>1.852033419776078</v>
+        <v>1.78925230687391</v>
       </c>
       <c r="LC1" t="n">
-        <v>1.848979140009428</v>
+        <v>1.210719341968146</v>
       </c>
       <c r="LD1" t="n">
-        <v>1.849139461747693</v>
+        <v>1.796676047348202</v>
       </c>
       <c r="LE1" t="n">
-        <v>1.849296885532486</v>
+        <v>1.78911459271003</v>
       </c>
       <c r="LF1" t="n">
-        <v>1.852483926369096</v>
+        <v>1.789091628249429</v>
       </c>
       <c r="LG1" t="n">
-        <v>1.849533742711635</v>
+        <v>1.217146166889744</v>
       </c>
       <c r="LH1" t="n">
-        <v>1.852675923013163</v>
+        <v>1.796474015266114</v>
       </c>
       <c r="LI1" t="n">
-        <v>1.849763779235754</v>
+        <v>1.788959532881929</v>
       </c>
       <c r="LJ1" t="n">
-        <v>1.852862392841903</v>
+        <v>1.788938775887024</v>
       </c>
       <c r="LK1" t="n">
-        <v>1.849987286146337</v>
+        <v>1.218622278703931</v>
       </c>
       <c r="LL1" t="n">
-        <v>1.850129556909571</v>
+        <v>1.796284295653312</v>
       </c>
       <c r="LM1" t="n">
-        <v>1.853153246928083</v>
+        <v>1.788814010097818</v>
       </c>
       <c r="LN1" t="n">
-        <v>1.850343033272491</v>
+        <v>1.78879524095404</v>
       </c>
       <c r="LO1" t="n">
-        <v>1.853326375951955</v>
+        <v>1.219971624435963</v>
       </c>
       <c r="LP1" t="n">
-        <v>1.853390922175881</v>
+        <v>1.796105740342504</v>
       </c>
       <c r="LQ1" t="n">
-        <v>1.850621301382149</v>
+        <v>1.788677189920525</v>
       </c>
       <c r="LR1" t="n">
-        <v>1.850752694621326</v>
+        <v>1.788660215523438</v>
       </c>
       <c r="LS1" t="n">
-        <v>1.85365860290703</v>
+        <v>1.221209858691747</v>
       </c>
       <c r="LT1" t="n">
-        <v>1.850949341311565</v>
+        <v>1.795937342619069</v>
       </c>
       <c r="LU1" t="n">
-        <v>1.853818073553116</v>
+        <v>1.788548332445568</v>
       </c>
       <c r="LV1" t="n">
-        <v>1.853877414708732</v>
+        <v>1.788532982401738</v>
       </c>
       <c r="LW1" t="n">
-        <v>1.853936091673269</v>
+        <v>1.222350160572214</v>
       </c>
       <c r="LX1" t="n">
-        <v>1.85399411553586</v>
+        <v>1.795778215596838</v>
       </c>
       <c r="LY1" t="n">
-        <v>1.854051497140156</v>
+        <v>1.788426779274443</v>
       </c>
       <c r="LZ1" t="n">
-        <v>1.854108247091068</v>
+        <v>1.788412902731094</v>
       </c>
       <c r="MA1" t="n">
-        <v>1.854164375761308</v>
+        <v>1.223403704361228</v>
       </c>
       <c r="MB1" t="n">
-        <v>1.851518828204939</v>
+        <v>1.795627574541087</v>
+      </c>
+      <c r="MC1" t="n">
+        <v>1.78831194258626</v>
+      </c>
+      <c r="MD1" t="n">
+        <v>1.788299405572133</v>
+      </c>
+      <c r="ME1" t="n">
+        <v>1.224380026756845</v>
+      </c>
+      <c r="MF1" t="n">
+        <v>1.795484722301358</v>
+      </c>
+      <c r="MG1" t="n">
+        <v>1.78820329592317</v>
+      </c>
+      <c r="MH1" t="n">
+        <v>1.788191979107493</v>
+      </c>
+      <c r="MI1" t="n">
+        <v>1.23260133820201</v>
+      </c>
+      <c r="MJ1" t="n">
+        <v>1.795338182572877</v>
+      </c>
+      <c r="MK1" t="n">
+        <v>1.788098322770067</v>
+      </c>
+      <c r="ML1" t="n">
+        <v>1.788088136174384</v>
+      </c>
+      <c r="MM1" t="n">
+        <v>1.233649377375536</v>
+      </c>
+      <c r="MN1" t="n">
+        <v>1.795199371604756</v>
+      </c>
+      <c r="MO1" t="n">
+        <v>1.787999009365878</v>
+      </c>
+      <c r="MP1" t="n">
+        <v>1.78798985381698</v>
+      </c>
+      <c r="MQ1" t="n">
+        <v>1.234622982318383</v>
+      </c>
+      <c r="MR1" t="n">
+        <v>1.795067648147443</v>
+      </c>
+      <c r="MS1" t="n">
+        <v>1.787904915865419</v>
+      </c>
+      <c r="MT1" t="n">
+        <v>1.787896702631181</v>
+      </c>
+      <c r="MU1" t="n">
+        <v>1.235529806690094</v>
+      </c>
+      <c r="MV1" t="n">
+        <v>1.794942442354666</v>
+      </c>
+      <c r="MW1" t="n">
+        <v>1.787815647789809</v>
+      </c>
+      <c r="MX1" t="n">
+        <v>1.787808297267716</v>
+      </c>
+      <c r="MY1" t="n">
+        <v>1.236376489910957</v>
+      </c>
+      <c r="MZ1" t="n">
+        <v>1.79482324580603</v>
+      </c>
+      <c r="NA1" t="n">
+        <v>1.787730850175117</v>
+      </c>
+      <c r="NB1" t="n">
+        <v>1.787724290772909</v>
+      </c>
+      <c r="NC1" t="n">
+        <v>1.237168819747825</v>
+      </c>
+      <c r="ND1" t="n">
+        <v>1.794709603205236</v>
+      </c>
+      <c r="NE1" t="n">
+        <v>1.78765020262908</v>
+      </c>
+      <c r="NF1" t="n">
+        <v>1.787644369805356</v>
+      </c>
+      <c r="NG1" t="n">
+        <v>1.247271079166394</v>
+      </c>
+      <c r="NH1" t="n">
+        <v>1.794589982093067</v>
+      </c>
+      <c r="NI1" t="n">
+        <v>1.787571107838379</v>
+      </c>
+      <c r="NJ1" t="n">
+        <v>1.787565959653439</v>
+      </c>
+      <c r="NK1" t="n">
+        <v>1.248169409369458</v>
+      </c>
+      <c r="NL1" t="n">
+        <v>1.794476196116937</v>
+      </c>
+      <c r="NM1" t="n">
+        <v>1.787495969774975</v>
+      </c>
+      <c r="NN1" t="n">
+        <v>1.787491450244684</v>
+      </c>
+      <c r="NO1" t="n">
+        <v>1.249010261638366</v>
+      </c>
+      <c r="NP1" t="n">
+        <v>1.794367788222223</v>
+      </c>
+      <c r="NQ1" t="n">
+        <v>1.787424500169345</v>
+      </c>
+      <c r="NR1" t="n">
+        <v>1.787420558730647</v>
+      </c>
+      <c r="NS1" t="n">
+        <v>1.249798977179563</v>
+      </c>
+      <c r="NT1" t="n">
+        <v>1.794264349841498</v>
+      </c>
+      <c r="NU1" t="n">
+        <v>1.787356439093421</v>
+      </c>
+      <c r="NV1" t="n">
+        <v>1.787353029975745</v>
+      </c>
+      <c r="NW1" t="n">
+        <v>1.243262243874348</v>
+      </c>
+      <c r="NX1" t="n">
+        <v>1.794153285000804</v>
+      </c>
+      <c r="NY1" t="n">
+        <v>1.78728950421281</v>
+      </c>
+      <c r="NZ1" t="n">
+        <v>1.787286599295629</v>
+      </c>
+      <c r="OA1" t="n">
+        <v>1.245093785494678</v>
+      </c>
+      <c r="OB1" t="n">
+        <v>1.794048060668994</v>
+      </c>
+      <c r="OC1" t="n">
+        <v>1.787225906288755</v>
+      </c>
+      <c r="OD1" t="n">
+        <v>1.787223464900628</v>
+      </c>
+      <c r="OE1" t="n">
+        <v>1.253442737123422</v>
+      </c>
+      <c r="OF1" t="n">
+        <v>1.793958679096343</v>
+      </c>
+      <c r="OG1" t="n">
+        <v>1.78716700892807</v>
+      </c>
+      <c r="OH1" t="n">
+        <v>1.787164984115823</v>
+      </c>
+      <c r="OI1" t="n">
+        <v>1.24738529532249</v>
+      </c>
+      <c r="OJ1" t="n">
+        <v>1.793862915804348</v>
+      </c>
+      <c r="OK1" t="n">
+        <v>1.787109168045858</v>
+      </c>
+      <c r="OL1" t="n">
+        <v>1.787107538007441</v>
+      </c>
+      <c r="OM1" t="n">
+        <v>1.25525169093848</v>
+      </c>
+      <c r="ON1" t="n">
+        <v>1.793781026738526</v>
+      </c>
+      <c r="OO1" t="n">
+        <v>1.787055341812818</v>
+      </c>
+      <c r="OP1" t="n">
+        <v>1.787054067974597</v>
+      </c>
+      <c r="OQ1" t="n">
+        <v>1.267183065075927</v>
+      </c>
+      <c r="OR1" t="n">
+        <v>1.793693124596828</v>
+      </c>
+      <c r="OS1" t="n">
+        <v>1.787001827034839</v>
+      </c>
+      <c r="OT1" t="n">
+        <v>1.787000894989752</v>
+      </c>
+      <c r="OU1" t="n">
+        <v>1.262198652675673</v>
+      </c>
+      <c r="OV1" t="n">
+        <v>1.793596406219881</v>
+      </c>
+      <c r="OW1" t="n">
+        <v>1.786947858694938</v>
+      </c>
+      <c r="OX1" t="n">
+        <v>1.786947259291942</v>
+      </c>
+      <c r="OY1" t="n">
+        <v>1.257546665490742</v>
+      </c>
+      <c r="OZ1" t="n">
+        <v>1.793524369637697</v>
+      </c>
+      <c r="PA1" t="n">
+        <v>1.78690071977989</v>
+      </c>
+      <c r="PB1" t="n">
+        <v>1.78690040235598</v>
+      </c>
+      <c r="PC1" t="n">
+        <v>1.257946759491982</v>
+      </c>
+      <c r="PD1" t="n">
+        <v>1.793454868687492</v>
+      </c>
+      <c r="PE1" t="n">
+        <v>1.786855439041705</v>
+      </c>
+      <c r="PF1" t="n">
+        <v>1.786855383675122</v>
+      </c>
+      <c r="PG1" t="n">
+        <v>1.269926200552776</v>
+      </c>
+      <c r="PH1" t="n">
+        <v>1.793380185778848</v>
+      </c>
+      <c r="PI1" t="n">
+        <v>1.786810483541871</v>
+      </c>
+      <c r="PJ1" t="n">
+        <v>1.786810679856095</v>
+      </c>
+      <c r="PK1" t="n">
+        <v>1.265137958665877</v>
+      </c>
+      <c r="PL1" t="n">
+        <v>1.793297951089905</v>
+      </c>
+      <c r="PM1" t="n">
+        <v>1.786765137191047</v>
+      </c>
+      <c r="PN1" t="n">
+        <v>1.786765579255821</v>
+      </c>
+      <c r="PO1" t="n">
+        <v>1.271521119792479</v>
+      </c>
+      <c r="PP1" t="n">
+        <v>1.79322922627986</v>
+      </c>
+      <c r="PQ1" t="n">
+        <v>1.786723880404901</v>
+      </c>
+      <c r="PR1" t="n">
+        <v>1.786724538382157</v>
+      </c>
+      <c r="PS1" t="n">
+        <v>1.271968563607507</v>
+      </c>
+      <c r="PT1" t="n">
+        <v>1.793162955349981</v>
+      </c>
+      <c r="PU1" t="n">
+        <v>1.786684247638137</v>
+      </c>
+      <c r="PV1" t="n">
+        <v>1.78668510620561</v>
+      </c>
+      <c r="PW1" t="n">
+        <v>1.272394999833383</v>
+      </c>
+      <c r="PX1" t="n">
+        <v>1.79309899315465</v>
+      </c>
+      <c r="PY1" t="n">
+        <v>1.786646148198996</v>
+      </c>
+      <c r="PZ1" t="n">
+        <v>1.786647193223151</v>
+      </c>
+      <c r="QA1" t="n">
+        <v>1.272801872403395</v>
+      </c>
+      <c r="QB1" t="n">
+        <v>1.793037206211019</v>
+      </c>
+      <c r="QC1" t="n">
+        <v>1.786609498219931</v>
+      </c>
+      <c r="QD1" t="n">
+        <v>1.786610716647481</v>
+      </c>
+      <c r="QE1" t="n">
+        <v>1.268195790983325</v>
+      </c>
+      <c r="QF1" t="n">
+        <v>1.792969371222193</v>
+      </c>
+      <c r="QG1" t="n">
+        <v>1.786572576147677</v>
+      </c>
+      <c r="QH1" t="n">
+        <v>1.786573964263552</v>
+      </c>
+      <c r="QI1" t="n">
+        <v>1.274071949360766</v>
+      </c>
+      <c r="QJ1" t="n">
+        <v>1.792911926436035</v>
+      </c>
+      <c r="QK1" t="n">
+        <v>1.786538678159582</v>
+      </c>
+      <c r="QL1" t="n">
+        <v>1.786540215910896</v>
+      </c>
+      <c r="QM1" t="n">
+        <v>1.274415546259358</v>
+      </c>
+      <c r="QN1" t="n">
+        <v>1.792856295848056</v>
+      </c>
+      <c r="QO1" t="n">
+        <v>1.786506006864619</v>
+      </c>
+      <c r="QP1" t="n">
+        <v>1.786507683941632</v>
+      </c>
+      <c r="QQ1" t="n">
+        <v>1.269991775228317</v>
+      </c>
+      <c r="QR1" t="n">
+        <v>1.792795351581548</v>
+      </c>
+      <c r="QS1" t="n">
+        <v>1.786473128785346</v>
+      </c>
+      <c r="QT1" t="n">
+        <v>1.786474942298966</v>
+      </c>
+      <c r="QU1" t="n">
+        <v>1.270977871445562</v>
+      </c>
+      <c r="QV1" t="n">
+        <v>1.792736676687364</v>
+      </c>
+      <c r="QW1" t="n">
+        <v>1.786441526711413</v>
+      </c>
+      <c r="QX1" t="n">
+        <v>1.786443466782636</v>
+      </c>
+      <c r="QY1" t="n">
+        <v>1.276261844230757</v>
+      </c>
+      <c r="QZ1" t="n">
+        <v>1.792686485687691</v>
+      </c>
+      <c r="RA1" t="n">
+        <v>1.786412294847074</v>
+      </c>
+      <c r="RB1" t="n">
+        <v>1.78641434682835</v>
+      </c>
+      <c r="RC1" t="n">
+        <v>1.276533813323523</v>
+      </c>
+      <c r="RD1" t="n">
+        <v>1.792637736864414</v>
+      </c>
+      <c r="RE1" t="n">
+        <v>1.786384057829524</v>
+      </c>
+      <c r="RF1" t="n">
+        <v>1.786386214094736</v>
+      </c>
+      <c r="RG1" t="n">
+        <v>1.276795316965668</v>
+      </c>
+      <c r="RH1" t="n">
+        <v>1.79259036027765</v>
+      </c>
+      <c r="RI1" t="n">
+        <v>1.786356769145427</v>
+      </c>
+      <c r="RJ1" t="n">
+        <v>1.786359022591608</v>
+      </c>
+      <c r="RK1" t="n">
+        <v>1.277046947061641</v>
+      </c>
+      <c r="RL1" t="n">
+        <v>1.79254429058691</v>
+      </c>
+      <c r="RM1" t="n">
+        <v>1.786330385177693</v>
+      </c>
+      <c r="RN1" t="n">
+        <v>1.786332729183745</v>
+      </c>
+      <c r="RO1" t="n">
+        <v>1.277289251730471</v>
+      </c>
+      <c r="RP1" t="n">
+        <v>1.792499466670664</v>
+      </c>
+      <c r="RQ1" t="n">
+        <v>1.786304864978673</v>
+      </c>
+      <c r="RR1" t="n">
+        <v>1.786307293367769</v>
+      </c>
+      <c r="RS1" t="n">
+        <v>1.277522739279466</v>
+      </c>
+      <c r="RT1" t="n">
+        <v>1.792455831283816</v>
+      </c>
+      <c r="RU1" t="n">
+        <v>1.786280170064601</v>
+      </c>
+      <c r="RV1" t="n">
+        <v>1.786282677070083</v>
+      </c>
+      <c r="RW1" t="n">
+        <v>1.291239715217613</v>
+      </c>
+      <c r="RX1" t="n">
+        <v>1.79240794626284</v>
+      </c>
+      <c r="RY1" t="n">
+        <v>1.78625524853391</v>
+      </c>
+      <c r="RZ1" t="n">
+        <v>1.786257833212392</v>
+      </c>
+      <c r="SA1" t="n">
+        <v>1.278058782496742</v>
+      </c>
+      <c r="SB1" t="n">
+        <v>1.792366663217579</v>
+      </c>
+      <c r="SC1" t="n">
+        <v>1.786232141426429</v>
+      </c>
+      <c r="SD1" t="n">
+        <v>1.786234794052547</v>
+      </c>
+      <c r="SE1" t="n">
+        <v>1.278266507790114</v>
+      </c>
+      <c r="SF1" t="n">
+        <v>1.792326411495407</v>
+      </c>
+      <c r="SG1" t="n">
+        <v>1.786209754917105</v>
+      </c>
+      <c r="SH1" t="n">
+        <v>1.786212470793977</v>
+      </c>
+      <c r="SI1" t="n">
+        <v>1.278467197901737</v>
+      </c>
+      <c r="SJ1" t="n">
+        <v>1.792287146895165</v>
+      </c>
+      <c r="SK1" t="n">
+        <v>1.786188058821224</v>
+      </c>
+      <c r="SL1" t="n">
+        <v>1.786190833551646</v>
+      </c>
+      <c r="SM1" t="n">
+        <v>1.278661203804983</v>
+      </c>
+      <c r="SN1" t="n">
+        <v>1.792248827785606</v>
+      </c>
+      <c r="SO1" t="n">
+        <v>1.786167024627747</v>
+      </c>
+      <c r="SP1" t="n">
+        <v>1.786169854092591</v>
+      </c>
+      <c r="SQ1" t="n">
+        <v>1.278848853521388</v>
+      </c>
+      <c r="SR1" t="n">
+        <v>1.792211414917726</v>
+      </c>
+      <c r="SS1" t="n">
+        <v>1.786146625383054</v>
+      </c>
+      <c r="ST1" t="n">
+        <v>1.786149505721373</v>
+      </c>
+      <c r="SU1" t="n">
+        <v>1.279030453965948</v>
+      </c>
+      <c r="SV1" t="n">
+        <v>1.792174871253691</v>
+      </c>
+      <c r="SW1" t="n">
+        <v>1.786126835584282</v>
+      </c>
+      <c r="SX1" t="n">
+        <v>1.786129763175115</v>
+      </c>
+      <c r="SY1" t="n">
+        <v>1.279206292617295</v>
+      </c>
+      <c r="SZ1" t="n">
+        <v>1.792139161810335</v>
+      </c>
+      <c r="TA1" t="n">
+        <v>1.786107631081558</v>
+      </c>
+      <c r="TB1" t="n">
+        <v>1.786110602527152</v>
+      </c>
+      <c r="TC1" t="n">
+        <v>1.289315786181476</v>
+      </c>
+      <c r="TD1" t="n">
+        <v>1.792094433105829</v>
+      </c>
+      <c r="TE1" t="n">
+        <v>1.786086494409176</v>
+      </c>
+      <c r="TF1" t="n">
+        <v>1.786089516446291</v>
+      </c>
+      <c r="TG1" t="n">
+        <v>1.279960391755228</v>
+      </c>
+      <c r="TH1" t="n">
+        <v>1.792060537486758</v>
+      </c>
+      <c r="TI1" t="n">
+        <v>1.786068455857448</v>
+      </c>
+      <c r="TJ1" t="n">
+        <v>1.786071515205187</v>
+      </c>
+      <c r="TK1" t="n">
+        <v>1.280113638250787</v>
+      </c>
+      <c r="TL1" t="n">
+        <v>1.792027373041116</v>
+      </c>
+      <c r="TM1" t="n">
+        <v>1.786050934503153</v>
+      </c>
+      <c r="TN1" t="n">
+        <v>1.786054028365068</v>
+      </c>
+      <c r="TO1" t="n">
+        <v>1.280262326856657</v>
+      </c>
+      <c r="TP1" t="n">
+        <v>1.791994912158089</v>
+      </c>
+      <c r="TQ1" t="n">
+        <v>1.786033910947698</v>
+      </c>
+      <c r="TR1" t="n">
+        <v>1.786037036694495</v>
+      </c>
+      <c r="TS1" t="n">
+        <v>1.276300889080109</v>
+      </c>
+      <c r="TT1" t="n">
+        <v>1.791960031011774</v>
+      </c>
+      <c r="TU1" t="n">
+        <v>1.786016809946661</v>
+      </c>
+      <c r="TV1" t="n">
+        <v>1.786019967226296</v>
+      </c>
+      <c r="TW1" t="n">
+        <v>1.280848667698981</v>
+      </c>
+      <c r="TX1" t="n">
+        <v>1.791929010808514</v>
+      </c>
+      <c r="TY1" t="n">
+        <v>1.786000740678328</v>
+      </c>
+      <c r="TZ1" t="n">
+        <v>1.786003924970484</v>
+      </c>
+      <c r="UA1" t="n">
+        <v>1.280980372163825</v>
+      </c>
+      <c r="UB1" t="n">
+        <v>1.791898615475054</v>
+      </c>
+      <c r="UC1" t="n">
+        <v>1.785985115643498</v>
+      </c>
+      <c r="UD1" t="n">
+        <v>1.785988324762128</v>
+      </c>
+      <c r="UE1" t="n">
+        <v>1.277158328484211</v>
+      </c>
+      <c r="UF1" t="n">
+        <v>1.791866032357521</v>
+      </c>
+      <c r="UG1" t="n">
+        <v>1.785969421749357</v>
+      </c>
+      <c r="UH1" t="n">
+        <v>1.785972655471086</v>
+      </c>
+      <c r="UI1" t="n">
+        <v>1.281516697920781</v>
+      </c>
+      <c r="UJ1" t="n">
+        <v>1.79183691940453</v>
+      </c>
+      <c r="UK1" t="n">
+        <v>1.785954648706017</v>
+      </c>
+      <c r="UL1" t="n">
+        <v>1.785957903199443</v>
+      </c>
+      <c r="UM1" t="n">
+        <v>1.277830697971045</v>
+      </c>
+      <c r="UN1" t="n">
+        <v>1.791805751122593</v>
+      </c>
+      <c r="UO1" t="n">
+        <v>1.785939818121118</v>
+      </c>
+      <c r="UP1" t="n">
+        <v>1.785943093210153</v>
+      </c>
+      <c r="UQ1" t="n">
+        <v>1.282019083898486</v>
+      </c>
+      <c r="UR1" t="n">
+        <v>1.791777825716483</v>
+      </c>
+      <c r="US1" t="n">
+        <v>1.785925836377832</v>
+      </c>
+      <c r="UT1" t="n">
+        <v>1.785929128647218</v>
+      </c>
+      <c r="UU1" t="n">
+        <v>1.282126305319483</v>
+      </c>
+      <c r="UV1" t="n">
+        <v>1.791750417897224</v>
+      </c>
+      <c r="UW1" t="n">
+        <v>1.785912225380248</v>
+      </c>
+      <c r="UX1" t="n">
+        <v>1.785915533211483</v>
+      </c>
+      <c r="UY1" t="n">
+        <v>1.278566710299924</v>
+      </c>
+      <c r="UZ1" t="n">
+        <v>1.791721141936559</v>
+      </c>
+      <c r="VA1" t="n">
+        <v>1.785898561538035</v>
+      </c>
+      <c r="VB1" t="n">
+        <v>1.785901884847558</v>
+      </c>
+      <c r="VC1" t="n">
+        <v>1.282588868703719</v>
+      </c>
+      <c r="VD1" t="n">
+        <v>1.79169480002414</v>
+      </c>
+      <c r="VE1" t="n">
+        <v>1.785885661926695</v>
+      </c>
+      <c r="VF1" t="n">
+        <v>1.785888997793336</v>
+      </c>
+      <c r="VG1" t="n">
+        <v>1.282684664592342</v>
+      </c>
+      <c r="VH1" t="n">
+        <v>1.791668923788141</v>
+      </c>
+      <c r="VI1" t="n">
+        <v>1.785873096771022</v>
+      </c>
+      <c r="VJ1" t="n">
+        <v>1.785876443837656</v>
+      </c>
+      <c r="VK1" t="n">
+        <v>1.282778050259052</v>
+      </c>
+      <c r="VL1" t="n">
+        <v>1.791643498352473</v>
+      </c>
+      <c r="VM1" t="n">
+        <v>1.785860855188365</v>
+      </c>
+      <c r="VN1" t="n">
+        <v>1.785864212173858</v>
+      </c>
+      <c r="VO1" t="n">
+        <v>1.282869115356636</v>
+      </c>
+      <c r="VP1" t="n">
+        <v>1.791618509490367</v>
+      </c>
+      <c r="VQ1" t="n">
+        <v>1.785848926758044</v>
+      </c>
+      <c r="VR1" t="n">
+        <v>1.785852292452701</v>
+      </c>
+      <c r="VS1" t="n">
+        <v>1.282957945148544</v>
+      </c>
+      <c r="VT1" t="n">
+        <v>1.79159394358884</v>
+      </c>
+      <c r="VU1" t="n">
+        <v>1.78583730149694</v>
+      </c>
+      <c r="VV1" t="n">
+        <v>1.785840674758368</v>
+      </c>
+      <c r="VW1" t="n">
+        <v>1.283044620774151</v>
+      </c>
+      <c r="VX1" t="n">
+        <v>1.791569787615521</v>
+      </c>
+      <c r="VY1" t="n">
+        <v>1.785825969836605</v>
+      </c>
+      <c r="VZ1" t="n">
+        <v>1.785829349585769</v>
+      </c>
+      <c r="WA1" t="n">
+        <v>1.279591179566427</v>
+      </c>
+      <c r="WB1" t="n">
+        <v>1.79154415720797</v>
+      </c>
+      <c r="WC1" t="n">
+        <v>1.785814567761491</v>
+      </c>
+      <c r="WD1" t="n">
+        <v>1.785817954145209</v>
+      </c>
+      <c r="WE1" t="n">
+        <v>1.280032406409149</v>
+      </c>
+      <c r="WF1" t="n">
+        <v>1.791519018641131</v>
+      </c>
+      <c r="WG1" t="n">
+        <v>1.785803466539378</v>
+      </c>
+      <c r="WH1" t="n">
+        <v>1.785806858491452</v>
+      </c>
+      <c r="WI1" t="n">
+        <v>1.283746156182537</v>
+      </c>
+      <c r="WJ1" t="n">
+        <v>1.79149614558193</v>
+      </c>
+      <c r="WK1" t="n">
+        <v>1.785792968687027</v>
+      </c>
+      <c r="WL1" t="n">
+        <v>1.785796364193113</v>
+      </c>
+      <c r="WM1" t="n">
+        <v>1.283819656178286</v>
+      </c>
+      <c r="WN1" t="n">
+        <v>1.791473631884775</v>
+      </c>
+      <c r="WO1" t="n">
+        <v>1.785782729305571</v>
+      </c>
+      <c r="WP1" t="n">
+        <v>1.785786127508253</v>
+      </c>
+      <c r="WQ1" t="n">
+        <v>1.283891476529986</v>
+      </c>
+      <c r="WR1" t="n">
+        <v>1.791451467136083</v>
+      </c>
+      <c r="WS1" t="n">
+        <v>1.785772740638414</v>
+      </c>
+      <c r="WT1" t="n">
+        <v>1.785776140727306</v>
+      </c>
+      <c r="WU1" t="n">
+        <v>1.283961674028643</v>
+      </c>
+      <c r="WV1" t="n">
+        <v>1.791429641336584</v>
+      </c>
+      <c r="WW1" t="n">
+        <v>1.785762995231046</v>
+      </c>
+      <c r="WX1" t="n">
+        <v>1.785766396440121</v>
+      </c>
+      <c r="WY1" t="n">
+        <v>1.284030302935184</v>
+      </c>
+      <c r="WZ1" t="n">
+        <v>1.7914081448807</v>
+      </c>
+      <c r="XA1" t="n">
+        <v>1.785753485916459</v>
+      </c>
+      <c r="XB1" t="n">
+        <v>1.785756887521679</v>
+      </c>
+      <c r="XC1" t="n">
+        <v>1.284097415119753</v>
+      </c>
+      <c r="XD1" t="n">
+        <v>1.79138696853716</v>
+      </c>
+      <c r="XE1" t="n">
+        <v>1.785744205801341</v>
+      </c>
+      <c r="XF1" t="n">
+        <v>1.785747607118284</v>
+      </c>
+      <c r="XG1" t="n">
+        <v>1.284163060191899</v>
+      </c>
+      <c r="XH1" t="n">
+        <v>1.791366103430671</v>
+      </c>
+      <c r="XI1" t="n">
+        <v>1.785735148253166</v>
+      </c>
+      <c r="XJ1" t="n">
+        <v>1.785738548634845</v>
+      </c>
+      <c r="XK1" t="n">
+        <v>1.28422728562236</v>
+      </c>
+      <c r="XL1" t="n">
+        <v>1.791345541024712</v>
+      </c>
+      <c r="XM1" t="n">
+        <v>1.785726306887877</v>
+      </c>
+      <c r="XN1" t="n">
+        <v>1.785729705722732</v>
+      </c>
+      <c r="XO1" t="n">
+        <v>1.284290136857046</v>
+      </c>
+      <c r="XP1" t="n">
+        <v>1.791325273105403</v>
+      </c>
+      <c r="XQ1" t="n">
+        <v>1.785717675558366</v>
+      </c>
+      <c r="XR1" t="n">
+        <v>1.785721072268337</v>
+      </c>
+      <c r="XS1" t="n">
+        <v>1.284351657423827</v>
+      </c>
+      <c r="XT1" t="n">
+        <v>1.791305291766093</v>
+      </c>
+      <c r="XU1" t="n">
+        <v>1.785709248343555</v>
+      </c>
+      <c r="XV1" t="n">
+        <v>1.785712642382274</v>
+      </c>
+      <c r="XW1" t="n">
+        <v>1.298266726390861</v>
+      </c>
+      <c r="XX1" t="n">
+        <v>1.791283224815171</v>
+      </c>
+      <c r="XY1" t="n">
+        <v>1.785700875447391</v>
+      </c>
+      <c r="XZ1" t="n">
+        <v>1.785704266726501</v>
+      </c>
+      <c r="YA1" t="n">
+        <v>1.284517974434188</v>
+      </c>
+      <c r="YB1" t="n">
+        <v>1.791263825367307</v>
+      </c>
+      <c r="YC1" t="n">
+        <v>1.785692846480748</v>
+      </c>
+      <c r="YD1" t="n">
+        <v>1.78569623406052</v>
+      </c>
+      <c r="YE1" t="n">
+        <v>1.284575198420496</v>
+      </c>
+      <c r="YF1" t="n">
+        <v>1.791244689705605</v>
+      </c>
+      <c r="YG1" t="n">
+        <v>1.785685004886914</v>
+      </c>
+      <c r="YH1" t="n">
+        <v>1.78568838830733</v>
+      </c>
+      <c r="YI1" t="n">
+        <v>1.298508290891607</v>
+      </c>
+      <c r="YJ1" t="n">
+        <v>1.791223561013557</v>
+      </c>
+      <c r="YK1" t="n">
+        <v>1.785677223892752</v>
+      </c>
+      <c r="YL1" t="n">
+        <v>1.785680603072346</v>
+      </c>
+      <c r="YM1" t="n">
+        <v>1.28473136340737</v>
+      </c>
+      <c r="YN1" t="n">
+        <v>1.791204961454204</v>
+      </c>
+      <c r="YO1" t="n">
+        <v>1.785669748077141</v>
+      </c>
+      <c r="YP1" t="n">
+        <v>1.785673122231921</v>
+      </c>
+      <c r="YQ1" t="n">
+        <v>1.284784699778864</v>
+      </c>
+      <c r="YR1" t="n">
+        <v>1.791186605348765</v>
+      </c>
+      <c r="YS1" t="n">
+        <v>1.785662444645196</v>
+      </c>
+      <c r="YT1" t="n">
+        <v>1.785665813388458</v>
+      </c>
+      <c r="YU1" t="n">
+        <v>1.281518651152408</v>
+      </c>
+      <c r="YV1" t="n">
+        <v>1.791167536224644</v>
+      </c>
+      <c r="YW1" t="n">
+        <v>1.78565502836402</v>
+      </c>
+      <c r="YX1" t="n">
+        <v>1.785658392124833</v>
+      </c>
+      <c r="YY1" t="n">
+        <v>1.298980517304534</v>
+      </c>
+      <c r="YZ1" t="n">
+        <v>1.79114759160291</v>
+      </c>
+      <c r="ZA1" t="n">
+        <v>1.785647965732779</v>
+      </c>
+      <c r="ZB1" t="n">
+        <v>1.785651323620986</v>
+      </c>
+      <c r="ZC1" t="n">
+        <v>1.299086501652181</v>
+      </c>
+      <c r="ZD1" t="n">
+        <v>1.791127942935796</v>
       </c>
     </row>
   </sheetData>
